--- a/excel_sheets/Image_metadata.xlsx
+++ b/excel_sheets/Image_metadata.xlsx
@@ -12,8 +12,6 @@
     <sheet name="image_description" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="provenance" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="tags" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="lda_topics" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="embeddings" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12727,2338 +12725,4 @@
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AD34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>lda_topics</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr"/>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>model_info</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>[{"source": null, "author": null, "version": null, "model_id": null, "nb_topics": null, "description": null, "corpus": null, "uri": null}]</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="6" t="n"/>
-      <c r="K2" s="6" t="n"/>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="6" t="n"/>
-      <c r="P2" s="6" t="n"/>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="6" t="n"/>
-      <c r="U2" s="6" t="n"/>
-      <c r="V2" s="6" t="n"/>
-      <c r="W2" s="6" t="n"/>
-      <c r="X2" s="6" t="n"/>
-      <c r="Y2" s="6" t="n"/>
-      <c r="Z2" s="6" t="n"/>
-      <c r="AA2" s="6" t="n"/>
-      <c r="AB2" s="6" t="n"/>
-      <c r="AC2" s="6" t="n"/>
-      <c r="AD2" s="6" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr"/>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>topic_description</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>[{"topic_id": null, "topic_score": null, "topic_label": null, "topic_words": [{"word": null, "word_weight": null}]}]</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="n"/>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="6" t="n"/>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="6" t="n"/>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="6" t="n"/>
-      <c r="U3" s="6" t="n"/>
-      <c r="V3" s="6" t="n"/>
-      <c r="W3" s="6" t="n"/>
-      <c r="X3" s="6" t="n"/>
-      <c r="Y3" s="6" t="n"/>
-      <c r="Z3" s="6" t="n"/>
-      <c r="AA3" s="6" t="n"/>
-      <c r="AB3" s="6" t="n"/>
-      <c r="AC3" s="6" t="n"/>
-      <c r="AD3" s="6" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
-      <c r="W4" s="2" t="n"/>
-      <c r="X4" s="2" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
-      <c r="AA4" s="2" t="n"/>
-      <c r="AB4" s="2" t="n"/>
-      <c r="AC4" s="2" t="n"/>
-      <c r="AD4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
-      <c r="M5" s="4" t="n"/>
-      <c r="N5" s="4" t="n"/>
-      <c r="O5" s="4" t="n"/>
-      <c r="P5" s="4" t="n"/>
-      <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="4" t="n"/>
-      <c r="S5" s="4" t="n"/>
-      <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
-      <c r="V5" s="4" t="n"/>
-      <c r="W5" s="4" t="n"/>
-      <c r="X5" s="4" t="n"/>
-      <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="4" t="n"/>
-      <c r="AA5" s="4" t="n"/>
-      <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="4" t="n"/>
-      <c r="AD5" s="4" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
-      <c r="M6" s="4" t="n"/>
-      <c r="N6" s="4" t="n"/>
-      <c r="O6" s="4" t="n"/>
-      <c r="P6" s="4" t="n"/>
-      <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="4" t="n"/>
-      <c r="S6" s="4" t="n"/>
-      <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
-      <c r="V6" s="4" t="n"/>
-      <c r="W6" s="4" t="n"/>
-      <c r="X6" s="4" t="n"/>
-      <c r="Y6" s="4" t="n"/>
-      <c r="Z6" s="4" t="n"/>
-      <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="4" t="n"/>
-      <c r="AD6" s="4" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="4" t="n"/>
-      <c r="O7" s="4" t="n"/>
-      <c r="P7" s="4" t="n"/>
-      <c r="Q7" s="4" t="n"/>
-      <c r="R7" s="4" t="n"/>
-      <c r="S7" s="4" t="n"/>
-      <c r="T7" s="4" t="n"/>
-      <c r="U7" s="4" t="n"/>
-      <c r="V7" s="4" t="n"/>
-      <c r="W7" s="4" t="n"/>
-      <c r="X7" s="4" t="n"/>
-      <c r="Y7" s="4" t="n"/>
-      <c r="Z7" s="4" t="n"/>
-      <c r="AA7" s="4" t="n"/>
-      <c r="AB7" s="4" t="n"/>
-      <c r="AC7" s="4" t="n"/>
-      <c r="AD7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
-      <c r="O8" s="4" t="n"/>
-      <c r="P8" s="4" t="n"/>
-      <c r="Q8" s="4" t="n"/>
-      <c r="R8" s="4" t="n"/>
-      <c r="S8" s="4" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="U8" s="4" t="n"/>
-      <c r="V8" s="4" t="n"/>
-      <c r="W8" s="4" t="n"/>
-      <c r="X8" s="4" t="n"/>
-      <c r="Y8" s="4" t="n"/>
-      <c r="Z8" s="4" t="n"/>
-      <c r="AA8" s="4" t="n"/>
-      <c r="AB8" s="4" t="n"/>
-      <c r="AC8" s="4" t="n"/>
-      <c r="AD8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
-      <c r="O9" s="4" t="n"/>
-      <c r="P9" s="4" t="n"/>
-      <c r="Q9" s="4" t="n"/>
-      <c r="R9" s="4" t="n"/>
-      <c r="S9" s="4" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="U9" s="4" t="n"/>
-      <c r="V9" s="4" t="n"/>
-      <c r="W9" s="4" t="n"/>
-      <c r="X9" s="4" t="n"/>
-      <c r="Y9" s="4" t="n"/>
-      <c r="Z9" s="4" t="n"/>
-      <c r="AA9" s="4" t="n"/>
-      <c r="AB9" s="4" t="n"/>
-      <c r="AC9" s="4" t="n"/>
-      <c r="AD9" s="4" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="M10" s="4" t="n"/>
-      <c r="N10" s="4" t="n"/>
-      <c r="O10" s="4" t="n"/>
-      <c r="P10" s="4" t="n"/>
-      <c r="Q10" s="4" t="n"/>
-      <c r="R10" s="4" t="n"/>
-      <c r="S10" s="4" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="U10" s="4" t="n"/>
-      <c r="V10" s="4" t="n"/>
-      <c r="W10" s="4" t="n"/>
-      <c r="X10" s="4" t="n"/>
-      <c r="Y10" s="4" t="n"/>
-      <c r="Z10" s="4" t="n"/>
-      <c r="AA10" s="4" t="n"/>
-      <c r="AB10" s="4" t="n"/>
-      <c r="AC10" s="4" t="n"/>
-      <c r="AD10" s="4" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="4" t="n"/>
-      <c r="I11" s="4" t="n"/>
-      <c r="J11" s="4" t="n"/>
-      <c r="K11" s="4" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="M11" s="4" t="n"/>
-      <c r="N11" s="4" t="n"/>
-      <c r="O11" s="4" t="n"/>
-      <c r="P11" s="4" t="n"/>
-      <c r="Q11" s="4" t="n"/>
-      <c r="R11" s="4" t="n"/>
-      <c r="S11" s="4" t="n"/>
-      <c r="T11" s="4" t="n"/>
-      <c r="U11" s="4" t="n"/>
-      <c r="V11" s="4" t="n"/>
-      <c r="W11" s="4" t="n"/>
-      <c r="X11" s="4" t="n"/>
-      <c r="Y11" s="4" t="n"/>
-      <c r="Z11" s="4" t="n"/>
-      <c r="AA11" s="4" t="n"/>
-      <c r="AB11" s="4" t="n"/>
-      <c r="AC11" s="4" t="n"/>
-      <c r="AD11" s="4" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="4" t="n"/>
-      <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="4" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
-      <c r="O12" s="4" t="n"/>
-      <c r="P12" s="4" t="n"/>
-      <c r="Q12" s="4" t="n"/>
-      <c r="R12" s="4" t="n"/>
-      <c r="S12" s="4" t="n"/>
-      <c r="T12" s="4" t="n"/>
-      <c r="U12" s="4" t="n"/>
-      <c r="V12" s="4" t="n"/>
-      <c r="W12" s="4" t="n"/>
-      <c r="X12" s="4" t="n"/>
-      <c r="Y12" s="4" t="n"/>
-      <c r="Z12" s="4" t="n"/>
-      <c r="AA12" s="4" t="n"/>
-      <c r="AB12" s="4" t="n"/>
-      <c r="AC12" s="4" t="n"/>
-      <c r="AD12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="4" t="n"/>
-      <c r="I13" s="4" t="n"/>
-      <c r="J13" s="4" t="n"/>
-      <c r="K13" s="4" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="M13" s="4" t="n"/>
-      <c r="N13" s="4" t="n"/>
-      <c r="O13" s="4" t="n"/>
-      <c r="P13" s="4" t="n"/>
-      <c r="Q13" s="4" t="n"/>
-      <c r="R13" s="4" t="n"/>
-      <c r="S13" s="4" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="U13" s="4" t="n"/>
-      <c r="V13" s="4" t="n"/>
-      <c r="W13" s="4" t="n"/>
-      <c r="X13" s="4" t="n"/>
-      <c r="Y13" s="4" t="n"/>
-      <c r="Z13" s="4" t="n"/>
-      <c r="AA13" s="4" t="n"/>
-      <c r="AB13" s="4" t="n"/>
-      <c r="AC13" s="4" t="n"/>
-      <c r="AD13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
-      <c r="I14" s="4" t="n"/>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="4" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="M14" s="4" t="n"/>
-      <c r="N14" s="4" t="n"/>
-      <c r="O14" s="4" t="n"/>
-      <c r="P14" s="4" t="n"/>
-      <c r="Q14" s="4" t="n"/>
-      <c r="R14" s="4" t="n"/>
-      <c r="S14" s="4" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="U14" s="4" t="n"/>
-      <c r="V14" s="4" t="n"/>
-      <c r="W14" s="4" t="n"/>
-      <c r="X14" s="4" t="n"/>
-      <c r="Y14" s="4" t="n"/>
-      <c r="Z14" s="4" t="n"/>
-      <c r="AA14" s="4" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-      <c r="AC14" s="4" t="n"/>
-      <c r="AD14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="4" t="n"/>
-      <c r="K15" s="4" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="M15" s="4" t="n"/>
-      <c r="N15" s="4" t="n"/>
-      <c r="O15" s="4" t="n"/>
-      <c r="P15" s="4" t="n"/>
-      <c r="Q15" s="4" t="n"/>
-      <c r="R15" s="4" t="n"/>
-      <c r="S15" s="4" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="U15" s="4" t="n"/>
-      <c r="V15" s="4" t="n"/>
-      <c r="W15" s="4" t="n"/>
-      <c r="X15" s="4" t="n"/>
-      <c r="Y15" s="4" t="n"/>
-      <c r="Z15" s="4" t="n"/>
-      <c r="AA15" s="4" t="n"/>
-      <c r="AB15" s="4" t="n"/>
-      <c r="AC15" s="4" t="n"/>
-      <c r="AD15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
-      <c r="I16" s="4" t="n"/>
-      <c r="J16" s="4" t="n"/>
-      <c r="K16" s="4" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="M16" s="4" t="n"/>
-      <c r="N16" s="4" t="n"/>
-      <c r="O16" s="4" t="n"/>
-      <c r="P16" s="4" t="n"/>
-      <c r="Q16" s="4" t="n"/>
-      <c r="R16" s="4" t="n"/>
-      <c r="S16" s="4" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="U16" s="4" t="n"/>
-      <c r="V16" s="4" t="n"/>
-      <c r="W16" s="4" t="n"/>
-      <c r="X16" s="4" t="n"/>
-      <c r="Y16" s="4" t="n"/>
-      <c r="Z16" s="4" t="n"/>
-      <c r="AA16" s="4" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-      <c r="AC16" s="4" t="n"/>
-      <c r="AD16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
-      <c r="I17" s="4" t="n"/>
-      <c r="J17" s="4" t="n"/>
-      <c r="K17" s="4" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="M17" s="4" t="n"/>
-      <c r="N17" s="4" t="n"/>
-      <c r="O17" s="4" t="n"/>
-      <c r="P17" s="4" t="n"/>
-      <c r="Q17" s="4" t="n"/>
-      <c r="R17" s="4" t="n"/>
-      <c r="S17" s="4" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="U17" s="4" t="n"/>
-      <c r="V17" s="4" t="n"/>
-      <c r="W17" s="4" t="n"/>
-      <c r="X17" s="4" t="n"/>
-      <c r="Y17" s="4" t="n"/>
-      <c r="Z17" s="4" t="n"/>
-      <c r="AA17" s="4" t="n"/>
-      <c r="AB17" s="4" t="n"/>
-      <c r="AC17" s="4" t="n"/>
-      <c r="AD17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="4" t="n"/>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="M18" s="4" t="n"/>
-      <c r="N18" s="4" t="n"/>
-      <c r="O18" s="4" t="n"/>
-      <c r="P18" s="4" t="n"/>
-      <c r="Q18" s="4" t="n"/>
-      <c r="R18" s="4" t="n"/>
-      <c r="S18" s="4" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="U18" s="4" t="n"/>
-      <c r="V18" s="4" t="n"/>
-      <c r="W18" s="4" t="n"/>
-      <c r="X18" s="4" t="n"/>
-      <c r="Y18" s="4" t="n"/>
-      <c r="Z18" s="4" t="n"/>
-      <c r="AA18" s="4" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-      <c r="AC18" s="4" t="n"/>
-      <c r="AD18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
-      <c r="I19" s="4" t="n"/>
-      <c r="J19" s="4" t="n"/>
-      <c r="K19" s="4" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="M19" s="4" t="n"/>
-      <c r="N19" s="4" t="n"/>
-      <c r="O19" s="4" t="n"/>
-      <c r="P19" s="4" t="n"/>
-      <c r="Q19" s="4" t="n"/>
-      <c r="R19" s="4" t="n"/>
-      <c r="S19" s="4" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="U19" s="4" t="n"/>
-      <c r="V19" s="4" t="n"/>
-      <c r="W19" s="4" t="n"/>
-      <c r="X19" s="4" t="n"/>
-      <c r="Y19" s="4" t="n"/>
-      <c r="Z19" s="4" t="n"/>
-      <c r="AA19" s="4" t="n"/>
-      <c r="AB19" s="4" t="n"/>
-      <c r="AC19" s="4" t="n"/>
-      <c r="AD19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
-      <c r="I20" s="4" t="n"/>
-      <c r="J20" s="4" t="n"/>
-      <c r="K20" s="4" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="M20" s="4" t="n"/>
-      <c r="N20" s="4" t="n"/>
-      <c r="O20" s="4" t="n"/>
-      <c r="P20" s="4" t="n"/>
-      <c r="Q20" s="4" t="n"/>
-      <c r="R20" s="4" t="n"/>
-      <c r="S20" s="4" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="U20" s="4" t="n"/>
-      <c r="V20" s="4" t="n"/>
-      <c r="W20" s="4" t="n"/>
-      <c r="X20" s="4" t="n"/>
-      <c r="Y20" s="4" t="n"/>
-      <c r="Z20" s="4" t="n"/>
-      <c r="AA20" s="4" t="n"/>
-      <c r="AB20" s="4" t="n"/>
-      <c r="AC20" s="4" t="n"/>
-      <c r="AD20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
-      <c r="I21" s="4" t="n"/>
-      <c r="J21" s="4" t="n"/>
-      <c r="K21" s="4" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="M21" s="4" t="n"/>
-      <c r="N21" s="4" t="n"/>
-      <c r="O21" s="4" t="n"/>
-      <c r="P21" s="4" t="n"/>
-      <c r="Q21" s="4" t="n"/>
-      <c r="R21" s="4" t="n"/>
-      <c r="S21" s="4" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="U21" s="4" t="n"/>
-      <c r="V21" s="4" t="n"/>
-      <c r="W21" s="4" t="n"/>
-      <c r="X21" s="4" t="n"/>
-      <c r="Y21" s="4" t="n"/>
-      <c r="Z21" s="4" t="n"/>
-      <c r="AA21" s="4" t="n"/>
-      <c r="AB21" s="4" t="n"/>
-      <c r="AC21" s="4" t="n"/>
-      <c r="AD21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
-      <c r="I22" s="4" t="n"/>
-      <c r="J22" s="4" t="n"/>
-      <c r="K22" s="4" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="M22" s="4" t="n"/>
-      <c r="N22" s="4" t="n"/>
-      <c r="O22" s="4" t="n"/>
-      <c r="P22" s="4" t="n"/>
-      <c r="Q22" s="4" t="n"/>
-      <c r="R22" s="4" t="n"/>
-      <c r="S22" s="4" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="U22" s="4" t="n"/>
-      <c r="V22" s="4" t="n"/>
-      <c r="W22" s="4" t="n"/>
-      <c r="X22" s="4" t="n"/>
-      <c r="Y22" s="4" t="n"/>
-      <c r="Z22" s="4" t="n"/>
-      <c r="AA22" s="4" t="n"/>
-      <c r="AB22" s="4" t="n"/>
-      <c r="AC22" s="4" t="n"/>
-      <c r="AD22" s="4" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
-      <c r="I23" s="4" t="n"/>
-      <c r="J23" s="4" t="n"/>
-      <c r="K23" s="4" t="n"/>
-      <c r="L23" s="4" t="n"/>
-      <c r="M23" s="4" t="n"/>
-      <c r="N23" s="4" t="n"/>
-      <c r="O23" s="4" t="n"/>
-      <c r="P23" s="4" t="n"/>
-      <c r="Q23" s="4" t="n"/>
-      <c r="R23" s="4" t="n"/>
-      <c r="S23" s="4" t="n"/>
-      <c r="T23" s="4" t="n"/>
-      <c r="U23" s="4" t="n"/>
-      <c r="V23" s="4" t="n"/>
-      <c r="W23" s="4" t="n"/>
-      <c r="X23" s="4" t="n"/>
-      <c r="Y23" s="4" t="n"/>
-      <c r="Z23" s="4" t="n"/>
-      <c r="AA23" s="4" t="n"/>
-      <c r="AB23" s="4" t="n"/>
-      <c r="AC23" s="4" t="n"/>
-      <c r="AD23" s="4" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="4" t="n"/>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
-      <c r="I24" s="4" t="n"/>
-      <c r="J24" s="4" t="n"/>
-      <c r="K24" s="4" t="n"/>
-      <c r="L24" s="4" t="n"/>
-      <c r="M24" s="4" t="n"/>
-      <c r="N24" s="4" t="n"/>
-      <c r="O24" s="4" t="n"/>
-      <c r="P24" s="4" t="n"/>
-      <c r="Q24" s="4" t="n"/>
-      <c r="R24" s="4" t="n"/>
-      <c r="S24" s="4" t="n"/>
-      <c r="T24" s="4" t="n"/>
-      <c r="U24" s="4" t="n"/>
-      <c r="V24" s="4" t="n"/>
-      <c r="W24" s="4" t="n"/>
-      <c r="X24" s="4" t="n"/>
-      <c r="Y24" s="4" t="n"/>
-      <c r="Z24" s="4" t="n"/>
-      <c r="AA24" s="4" t="n"/>
-      <c r="AB24" s="4" t="n"/>
-      <c r="AC24" s="4" t="n"/>
-      <c r="AD24" s="4" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
-      <c r="I25" s="4" t="n"/>
-      <c r="J25" s="4" t="n"/>
-      <c r="K25" s="4" t="n"/>
-      <c r="L25" s="4" t="n"/>
-      <c r="M25" s="4" t="n"/>
-      <c r="N25" s="4" t="n"/>
-      <c r="O25" s="4" t="n"/>
-      <c r="P25" s="4" t="n"/>
-      <c r="Q25" s="4" t="n"/>
-      <c r="R25" s="4" t="n"/>
-      <c r="S25" s="4" t="n"/>
-      <c r="T25" s="4" t="n"/>
-      <c r="U25" s="4" t="n"/>
-      <c r="V25" s="4" t="n"/>
-      <c r="W25" s="4" t="n"/>
-      <c r="X25" s="4" t="n"/>
-      <c r="Y25" s="4" t="n"/>
-      <c r="Z25" s="4" t="n"/>
-      <c r="AA25" s="4" t="n"/>
-      <c r="AB25" s="4" t="n"/>
-      <c r="AC25" s="4" t="n"/>
-      <c r="AD25" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
-      <c r="I26" s="4" t="n"/>
-      <c r="J26" s="4" t="n"/>
-      <c r="K26" s="4" t="n"/>
-      <c r="L26" s="4" t="n"/>
-      <c r="M26" s="4" t="n"/>
-      <c r="N26" s="4" t="n"/>
-      <c r="O26" s="4" t="n"/>
-      <c r="P26" s="4" t="n"/>
-      <c r="Q26" s="4" t="n"/>
-      <c r="R26" s="4" t="n"/>
-      <c r="S26" s="4" t="n"/>
-      <c r="T26" s="4" t="n"/>
-      <c r="U26" s="4" t="n"/>
-      <c r="V26" s="4" t="n"/>
-      <c r="W26" s="4" t="n"/>
-      <c r="X26" s="4" t="n"/>
-      <c r="Y26" s="4" t="n"/>
-      <c r="Z26" s="4" t="n"/>
-      <c r="AA26" s="4" t="n"/>
-      <c r="AB26" s="4" t="n"/>
-      <c r="AC26" s="4" t="n"/>
-      <c r="AD26" s="4" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
-      <c r="I27" s="4" t="n"/>
-      <c r="J27" s="4" t="n"/>
-      <c r="K27" s="4" t="n"/>
-      <c r="L27" s="4" t="n"/>
-      <c r="M27" s="4" t="n"/>
-      <c r="N27" s="4" t="n"/>
-      <c r="O27" s="4" t="n"/>
-      <c r="P27" s="4" t="n"/>
-      <c r="Q27" s="4" t="n"/>
-      <c r="R27" s="4" t="n"/>
-      <c r="S27" s="4" t="n"/>
-      <c r="T27" s="4" t="n"/>
-      <c r="U27" s="4" t="n"/>
-      <c r="V27" s="4" t="n"/>
-      <c r="W27" s="4" t="n"/>
-      <c r="X27" s="4" t="n"/>
-      <c r="Y27" s="4" t="n"/>
-      <c r="Z27" s="4" t="n"/>
-      <c r="AA27" s="4" t="n"/>
-      <c r="AB27" s="4" t="n"/>
-      <c r="AC27" s="4" t="n"/>
-      <c r="AD27" s="4" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
-      <c r="I28" s="4" t="n"/>
-      <c r="J28" s="4" t="n"/>
-      <c r="K28" s="4" t="n"/>
-      <c r="L28" s="4" t="n"/>
-      <c r="M28" s="4" t="n"/>
-      <c r="N28" s="4" t="n"/>
-      <c r="O28" s="4" t="n"/>
-      <c r="P28" s="4" t="n"/>
-      <c r="Q28" s="4" t="n"/>
-      <c r="R28" s="4" t="n"/>
-      <c r="S28" s="4" t="n"/>
-      <c r="T28" s="4" t="n"/>
-      <c r="U28" s="4" t="n"/>
-      <c r="V28" s="4" t="n"/>
-      <c r="W28" s="4" t="n"/>
-      <c r="X28" s="4" t="n"/>
-      <c r="Y28" s="4" t="n"/>
-      <c r="Z28" s="4" t="n"/>
-      <c r="AA28" s="4" t="n"/>
-      <c r="AB28" s="4" t="n"/>
-      <c r="AC28" s="4" t="n"/>
-      <c r="AD28" s="4" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
-      <c r="I29" s="4" t="n"/>
-      <c r="J29" s="4" t="n"/>
-      <c r="K29" s="4" t="n"/>
-      <c r="L29" s="4" t="n"/>
-      <c r="M29" s="4" t="n"/>
-      <c r="N29" s="4" t="n"/>
-      <c r="O29" s="4" t="n"/>
-      <c r="P29" s="4" t="n"/>
-      <c r="Q29" s="4" t="n"/>
-      <c r="R29" s="4" t="n"/>
-      <c r="S29" s="4" t="n"/>
-      <c r="T29" s="4" t="n"/>
-      <c r="U29" s="4" t="n"/>
-      <c r="V29" s="4" t="n"/>
-      <c r="W29" s="4" t="n"/>
-      <c r="X29" s="4" t="n"/>
-      <c r="Y29" s="4" t="n"/>
-      <c r="Z29" s="4" t="n"/>
-      <c r="AA29" s="4" t="n"/>
-      <c r="AB29" s="4" t="n"/>
-      <c r="AC29" s="4" t="n"/>
-      <c r="AD29" s="4" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
-      <c r="I30" s="4" t="n"/>
-      <c r="J30" s="4" t="n"/>
-      <c r="K30" s="4" t="n"/>
-      <c r="L30" s="4" t="n"/>
-      <c r="M30" s="4" t="n"/>
-      <c r="N30" s="4" t="n"/>
-      <c r="O30" s="4" t="n"/>
-      <c r="P30" s="4" t="n"/>
-      <c r="Q30" s="4" t="n"/>
-      <c r="R30" s="4" t="n"/>
-      <c r="S30" s="4" t="n"/>
-      <c r="T30" s="4" t="n"/>
-      <c r="U30" s="4" t="n"/>
-      <c r="V30" s="4" t="n"/>
-      <c r="W30" s="4" t="n"/>
-      <c r="X30" s="4" t="n"/>
-      <c r="Y30" s="4" t="n"/>
-      <c r="Z30" s="4" t="n"/>
-      <c r="AA30" s="4" t="n"/>
-      <c r="AB30" s="4" t="n"/>
-      <c r="AC30" s="4" t="n"/>
-      <c r="AD30" s="4" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
-      <c r="I31" s="4" t="n"/>
-      <c r="J31" s="4" t="n"/>
-      <c r="K31" s="4" t="n"/>
-      <c r="L31" s="4" t="n"/>
-      <c r="M31" s="4" t="n"/>
-      <c r="N31" s="4" t="n"/>
-      <c r="O31" s="4" t="n"/>
-      <c r="P31" s="4" t="n"/>
-      <c r="Q31" s="4" t="n"/>
-      <c r="R31" s="4" t="n"/>
-      <c r="S31" s="4" t="n"/>
-      <c r="T31" s="4" t="n"/>
-      <c r="U31" s="4" t="n"/>
-      <c r="V31" s="4" t="n"/>
-      <c r="W31" s="4" t="n"/>
-      <c r="X31" s="4" t="n"/>
-      <c r="Y31" s="4" t="n"/>
-      <c r="Z31" s="4" t="n"/>
-      <c r="AA31" s="4" t="n"/>
-      <c r="AB31" s="4" t="n"/>
-      <c r="AC31" s="4" t="n"/>
-      <c r="AD31" s="4" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
-      <c r="I32" s="4" t="n"/>
-      <c r="J32" s="4" t="n"/>
-      <c r="K32" s="4" t="n"/>
-      <c r="L32" s="4" t="n"/>
-      <c r="M32" s="4" t="n"/>
-      <c r="N32" s="4" t="n"/>
-      <c r="O32" s="4" t="n"/>
-      <c r="P32" s="4" t="n"/>
-      <c r="Q32" s="4" t="n"/>
-      <c r="R32" s="4" t="n"/>
-      <c r="S32" s="4" t="n"/>
-      <c r="T32" s="4" t="n"/>
-      <c r="U32" s="4" t="n"/>
-      <c r="V32" s="4" t="n"/>
-      <c r="W32" s="4" t="n"/>
-      <c r="X32" s="4" t="n"/>
-      <c r="Y32" s="4" t="n"/>
-      <c r="Z32" s="4" t="n"/>
-      <c r="AA32" s="4" t="n"/>
-      <c r="AB32" s="4" t="n"/>
-      <c r="AC32" s="4" t="n"/>
-      <c r="AD32" s="4" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="4" t="n"/>
-      <c r="C33" s="4" t="n"/>
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="4" t="n"/>
-      <c r="F33" s="4" t="n"/>
-      <c r="G33" s="4" t="n"/>
-      <c r="H33" s="4" t="n"/>
-      <c r="I33" s="4" t="n"/>
-      <c r="J33" s="4" t="n"/>
-      <c r="K33" s="4" t="n"/>
-      <c r="L33" s="4" t="n"/>
-      <c r="M33" s="4" t="n"/>
-      <c r="N33" s="4" t="n"/>
-      <c r="O33" s="4" t="n"/>
-      <c r="P33" s="4" t="n"/>
-      <c r="Q33" s="4" t="n"/>
-      <c r="R33" s="4" t="n"/>
-      <c r="S33" s="4" t="n"/>
-      <c r="T33" s="4" t="n"/>
-      <c r="U33" s="4" t="n"/>
-      <c r="V33" s="4" t="n"/>
-      <c r="W33" s="4" t="n"/>
-      <c r="X33" s="4" t="n"/>
-      <c r="Y33" s="4" t="n"/>
-      <c r="Z33" s="4" t="n"/>
-      <c r="AA33" s="4" t="n"/>
-      <c r="AB33" s="4" t="n"/>
-      <c r="AC33" s="4" t="n"/>
-      <c r="AD33" s="4" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="n"/>
-      <c r="D34" s="4" t="n"/>
-      <c r="E34" s="4" t="n"/>
-      <c r="F34" s="4" t="n"/>
-      <c r="G34" s="4" t="n"/>
-      <c r="H34" s="4" t="n"/>
-      <c r="I34" s="4" t="n"/>
-      <c r="J34" s="4" t="n"/>
-      <c r="K34" s="4" t="n"/>
-      <c r="L34" s="4" t="n"/>
-      <c r="M34" s="4" t="n"/>
-      <c r="N34" s="4" t="n"/>
-      <c r="O34" s="4" t="n"/>
-      <c r="P34" s="4" t="n"/>
-      <c r="Q34" s="4" t="n"/>
-      <c r="R34" s="4" t="n"/>
-      <c r="S34" s="4" t="n"/>
-      <c r="T34" s="4" t="n"/>
-      <c r="U34" s="4" t="n"/>
-      <c r="V34" s="4" t="n"/>
-      <c r="W34" s="4" t="n"/>
-      <c r="X34" s="4" t="n"/>
-      <c r="Y34" s="4" t="n"/>
-      <c r="Z34" s="4" t="n"/>
-      <c r="AA34" s="4" t="n"/>
-      <c r="AB34" s="4" t="n"/>
-      <c r="AC34" s="4" t="n"/>
-      <c r="AD34" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AD36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>embeddings</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr"/>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="6" t="n"/>
-      <c r="K2" s="6" t="n"/>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="6" t="n"/>
-      <c r="P2" s="6" t="n"/>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="6" t="n"/>
-      <c r="U2" s="6" t="n"/>
-      <c r="V2" s="6" t="n"/>
-      <c r="W2" s="6" t="n"/>
-      <c r="X2" s="6" t="n"/>
-      <c r="Y2" s="6" t="n"/>
-      <c r="Z2" s="6" t="n"/>
-      <c r="AA2" s="6" t="n"/>
-      <c r="AB2" s="6" t="n"/>
-      <c r="AC2" s="6" t="n"/>
-      <c r="AD2" s="6" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr"/>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="n"/>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="6" t="n"/>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="6" t="n"/>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="6" t="n"/>
-      <c r="U3" s="6" t="n"/>
-      <c r="V3" s="6" t="n"/>
-      <c r="W3" s="6" t="n"/>
-      <c r="X3" s="6" t="n"/>
-      <c r="Y3" s="6" t="n"/>
-      <c r="Z3" s="6" t="n"/>
-      <c r="AA3" s="6" t="n"/>
-      <c r="AB3" s="6" t="n"/>
-      <c r="AC3" s="6" t="n"/>
-      <c r="AD3" s="6" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr"/>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="6" t="n"/>
-      <c r="J4" s="6" t="n"/>
-      <c r="K4" s="6" t="n"/>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="6" t="n"/>
-      <c r="O4" s="6" t="n"/>
-      <c r="P4" s="6" t="n"/>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="6" t="n"/>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="6" t="n"/>
-      <c r="U4" s="6" t="n"/>
-      <c r="V4" s="6" t="n"/>
-      <c r="W4" s="6" t="n"/>
-      <c r="X4" s="6" t="n"/>
-      <c r="Y4" s="6" t="n"/>
-      <c r="Z4" s="6" t="n"/>
-      <c r="AA4" s="6" t="n"/>
-      <c r="AB4" s="6" t="n"/>
-      <c r="AC4" s="6" t="n"/>
-      <c r="AD4" s="6" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr"/>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>vector</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>[""]</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="6" t="n"/>
-      <c r="J5" s="6" t="n"/>
-      <c r="K5" s="6" t="n"/>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="6" t="n"/>
-      <c r="O5" s="6" t="n"/>
-      <c r="P5" s="6" t="n"/>
-      <c r="Q5" s="6" t="n"/>
-      <c r="R5" s="6" t="n"/>
-      <c r="S5" s="6" t="n"/>
-      <c r="T5" s="6" t="n"/>
-      <c r="U5" s="6" t="n"/>
-      <c r="V5" s="6" t="n"/>
-      <c r="W5" s="6" t="n"/>
-      <c r="X5" s="6" t="n"/>
-      <c r="Y5" s="6" t="n"/>
-      <c r="Z5" s="6" t="n"/>
-      <c r="AA5" s="6" t="n"/>
-      <c r="AB5" s="6" t="n"/>
-      <c r="AC5" s="6" t="n"/>
-      <c r="AD5" s="6" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
-      <c r="W6" s="2" t="n"/>
-      <c r="X6" s="2" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
-      <c r="AA6" s="2" t="n"/>
-      <c r="AB6" s="2" t="n"/>
-      <c r="AC6" s="2" t="n"/>
-      <c r="AD6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="4" t="n"/>
-      <c r="O7" s="4" t="n"/>
-      <c r="P7" s="4" t="n"/>
-      <c r="Q7" s="4" t="n"/>
-      <c r="R7" s="4" t="n"/>
-      <c r="S7" s="4" t="n"/>
-      <c r="T7" s="4" t="n"/>
-      <c r="U7" s="4" t="n"/>
-      <c r="V7" s="4" t="n"/>
-      <c r="W7" s="4" t="n"/>
-      <c r="X7" s="4" t="n"/>
-      <c r="Y7" s="4" t="n"/>
-      <c r="Z7" s="4" t="n"/>
-      <c r="AA7" s="4" t="n"/>
-      <c r="AB7" s="4" t="n"/>
-      <c r="AC7" s="4" t="n"/>
-      <c r="AD7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
-      <c r="O8" s="4" t="n"/>
-      <c r="P8" s="4" t="n"/>
-      <c r="Q8" s="4" t="n"/>
-      <c r="R8" s="4" t="n"/>
-      <c r="S8" s="4" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="U8" s="4" t="n"/>
-      <c r="V8" s="4" t="n"/>
-      <c r="W8" s="4" t="n"/>
-      <c r="X8" s="4" t="n"/>
-      <c r="Y8" s="4" t="n"/>
-      <c r="Z8" s="4" t="n"/>
-      <c r="AA8" s="4" t="n"/>
-      <c r="AB8" s="4" t="n"/>
-      <c r="AC8" s="4" t="n"/>
-      <c r="AD8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
-      <c r="O9" s="4" t="n"/>
-      <c r="P9" s="4" t="n"/>
-      <c r="Q9" s="4" t="n"/>
-      <c r="R9" s="4" t="n"/>
-      <c r="S9" s="4" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="U9" s="4" t="n"/>
-      <c r="V9" s="4" t="n"/>
-      <c r="W9" s="4" t="n"/>
-      <c r="X9" s="4" t="n"/>
-      <c r="Y9" s="4" t="n"/>
-      <c r="Z9" s="4" t="n"/>
-      <c r="AA9" s="4" t="n"/>
-      <c r="AB9" s="4" t="n"/>
-      <c r="AC9" s="4" t="n"/>
-      <c r="AD9" s="4" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="M10" s="4" t="n"/>
-      <c r="N10" s="4" t="n"/>
-      <c r="O10" s="4" t="n"/>
-      <c r="P10" s="4" t="n"/>
-      <c r="Q10" s="4" t="n"/>
-      <c r="R10" s="4" t="n"/>
-      <c r="S10" s="4" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="U10" s="4" t="n"/>
-      <c r="V10" s="4" t="n"/>
-      <c r="W10" s="4" t="n"/>
-      <c r="X10" s="4" t="n"/>
-      <c r="Y10" s="4" t="n"/>
-      <c r="Z10" s="4" t="n"/>
-      <c r="AA10" s="4" t="n"/>
-      <c r="AB10" s="4" t="n"/>
-      <c r="AC10" s="4" t="n"/>
-      <c r="AD10" s="4" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="4" t="n"/>
-      <c r="I11" s="4" t="n"/>
-      <c r="J11" s="4" t="n"/>
-      <c r="K11" s="4" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="M11" s="4" t="n"/>
-      <c r="N11" s="4" t="n"/>
-      <c r="O11" s="4" t="n"/>
-      <c r="P11" s="4" t="n"/>
-      <c r="Q11" s="4" t="n"/>
-      <c r="R11" s="4" t="n"/>
-      <c r="S11" s="4" t="n"/>
-      <c r="T11" s="4" t="n"/>
-      <c r="U11" s="4" t="n"/>
-      <c r="V11" s="4" t="n"/>
-      <c r="W11" s="4" t="n"/>
-      <c r="X11" s="4" t="n"/>
-      <c r="Y11" s="4" t="n"/>
-      <c r="Z11" s="4" t="n"/>
-      <c r="AA11" s="4" t="n"/>
-      <c r="AB11" s="4" t="n"/>
-      <c r="AC11" s="4" t="n"/>
-      <c r="AD11" s="4" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="4" t="n"/>
-      <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="4" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
-      <c r="O12" s="4" t="n"/>
-      <c r="P12" s="4" t="n"/>
-      <c r="Q12" s="4" t="n"/>
-      <c r="R12" s="4" t="n"/>
-      <c r="S12" s="4" t="n"/>
-      <c r="T12" s="4" t="n"/>
-      <c r="U12" s="4" t="n"/>
-      <c r="V12" s="4" t="n"/>
-      <c r="W12" s="4" t="n"/>
-      <c r="X12" s="4" t="n"/>
-      <c r="Y12" s="4" t="n"/>
-      <c r="Z12" s="4" t="n"/>
-      <c r="AA12" s="4" t="n"/>
-      <c r="AB12" s="4" t="n"/>
-      <c r="AC12" s="4" t="n"/>
-      <c r="AD12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="4" t="n"/>
-      <c r="I13" s="4" t="n"/>
-      <c r="J13" s="4" t="n"/>
-      <c r="K13" s="4" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="M13" s="4" t="n"/>
-      <c r="N13" s="4" t="n"/>
-      <c r="O13" s="4" t="n"/>
-      <c r="P13" s="4" t="n"/>
-      <c r="Q13" s="4" t="n"/>
-      <c r="R13" s="4" t="n"/>
-      <c r="S13" s="4" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="U13" s="4" t="n"/>
-      <c r="V13" s="4" t="n"/>
-      <c r="W13" s="4" t="n"/>
-      <c r="X13" s="4" t="n"/>
-      <c r="Y13" s="4" t="n"/>
-      <c r="Z13" s="4" t="n"/>
-      <c r="AA13" s="4" t="n"/>
-      <c r="AB13" s="4" t="n"/>
-      <c r="AC13" s="4" t="n"/>
-      <c r="AD13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
-      <c r="I14" s="4" t="n"/>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="4" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="M14" s="4" t="n"/>
-      <c r="N14" s="4" t="n"/>
-      <c r="O14" s="4" t="n"/>
-      <c r="P14" s="4" t="n"/>
-      <c r="Q14" s="4" t="n"/>
-      <c r="R14" s="4" t="n"/>
-      <c r="S14" s="4" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="U14" s="4" t="n"/>
-      <c r="V14" s="4" t="n"/>
-      <c r="W14" s="4" t="n"/>
-      <c r="X14" s="4" t="n"/>
-      <c r="Y14" s="4" t="n"/>
-      <c r="Z14" s="4" t="n"/>
-      <c r="AA14" s="4" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-      <c r="AC14" s="4" t="n"/>
-      <c r="AD14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="4" t="n"/>
-      <c r="K15" s="4" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="M15" s="4" t="n"/>
-      <c r="N15" s="4" t="n"/>
-      <c r="O15" s="4" t="n"/>
-      <c r="P15" s="4" t="n"/>
-      <c r="Q15" s="4" t="n"/>
-      <c r="R15" s="4" t="n"/>
-      <c r="S15" s="4" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="U15" s="4" t="n"/>
-      <c r="V15" s="4" t="n"/>
-      <c r="W15" s="4" t="n"/>
-      <c r="X15" s="4" t="n"/>
-      <c r="Y15" s="4" t="n"/>
-      <c r="Z15" s="4" t="n"/>
-      <c r="AA15" s="4" t="n"/>
-      <c r="AB15" s="4" t="n"/>
-      <c r="AC15" s="4" t="n"/>
-      <c r="AD15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
-      <c r="I16" s="4" t="n"/>
-      <c r="J16" s="4" t="n"/>
-      <c r="K16" s="4" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="M16" s="4" t="n"/>
-      <c r="N16" s="4" t="n"/>
-      <c r="O16" s="4" t="n"/>
-      <c r="P16" s="4" t="n"/>
-      <c r="Q16" s="4" t="n"/>
-      <c r="R16" s="4" t="n"/>
-      <c r="S16" s="4" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="U16" s="4" t="n"/>
-      <c r="V16" s="4" t="n"/>
-      <c r="W16" s="4" t="n"/>
-      <c r="X16" s="4" t="n"/>
-      <c r="Y16" s="4" t="n"/>
-      <c r="Z16" s="4" t="n"/>
-      <c r="AA16" s="4" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-      <c r="AC16" s="4" t="n"/>
-      <c r="AD16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
-      <c r="I17" s="4" t="n"/>
-      <c r="J17" s="4" t="n"/>
-      <c r="K17" s="4" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="M17" s="4" t="n"/>
-      <c r="N17" s="4" t="n"/>
-      <c r="O17" s="4" t="n"/>
-      <c r="P17" s="4" t="n"/>
-      <c r="Q17" s="4" t="n"/>
-      <c r="R17" s="4" t="n"/>
-      <c r="S17" s="4" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="U17" s="4" t="n"/>
-      <c r="V17" s="4" t="n"/>
-      <c r="W17" s="4" t="n"/>
-      <c r="X17" s="4" t="n"/>
-      <c r="Y17" s="4" t="n"/>
-      <c r="Z17" s="4" t="n"/>
-      <c r="AA17" s="4" t="n"/>
-      <c r="AB17" s="4" t="n"/>
-      <c r="AC17" s="4" t="n"/>
-      <c r="AD17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="4" t="n"/>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="M18" s="4" t="n"/>
-      <c r="N18" s="4" t="n"/>
-      <c r="O18" s="4" t="n"/>
-      <c r="P18" s="4" t="n"/>
-      <c r="Q18" s="4" t="n"/>
-      <c r="R18" s="4" t="n"/>
-      <c r="S18" s="4" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="U18" s="4" t="n"/>
-      <c r="V18" s="4" t="n"/>
-      <c r="W18" s="4" t="n"/>
-      <c r="X18" s="4" t="n"/>
-      <c r="Y18" s="4" t="n"/>
-      <c r="Z18" s="4" t="n"/>
-      <c r="AA18" s="4" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-      <c r="AC18" s="4" t="n"/>
-      <c r="AD18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
-      <c r="I19" s="4" t="n"/>
-      <c r="J19" s="4" t="n"/>
-      <c r="K19" s="4" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="M19" s="4" t="n"/>
-      <c r="N19" s="4" t="n"/>
-      <c r="O19" s="4" t="n"/>
-      <c r="P19" s="4" t="n"/>
-      <c r="Q19" s="4" t="n"/>
-      <c r="R19" s="4" t="n"/>
-      <c r="S19" s="4" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="U19" s="4" t="n"/>
-      <c r="V19" s="4" t="n"/>
-      <c r="W19" s="4" t="n"/>
-      <c r="X19" s="4" t="n"/>
-      <c r="Y19" s="4" t="n"/>
-      <c r="Z19" s="4" t="n"/>
-      <c r="AA19" s="4" t="n"/>
-      <c r="AB19" s="4" t="n"/>
-      <c r="AC19" s="4" t="n"/>
-      <c r="AD19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
-      <c r="I20" s="4" t="n"/>
-      <c r="J20" s="4" t="n"/>
-      <c r="K20" s="4" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="M20" s="4" t="n"/>
-      <c r="N20" s="4" t="n"/>
-      <c r="O20" s="4" t="n"/>
-      <c r="P20" s="4" t="n"/>
-      <c r="Q20" s="4" t="n"/>
-      <c r="R20" s="4" t="n"/>
-      <c r="S20" s="4" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="U20" s="4" t="n"/>
-      <c r="V20" s="4" t="n"/>
-      <c r="W20" s="4" t="n"/>
-      <c r="X20" s="4" t="n"/>
-      <c r="Y20" s="4" t="n"/>
-      <c r="Z20" s="4" t="n"/>
-      <c r="AA20" s="4" t="n"/>
-      <c r="AB20" s="4" t="n"/>
-      <c r="AC20" s="4" t="n"/>
-      <c r="AD20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
-      <c r="I21" s="4" t="n"/>
-      <c r="J21" s="4" t="n"/>
-      <c r="K21" s="4" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="M21" s="4" t="n"/>
-      <c r="N21" s="4" t="n"/>
-      <c r="O21" s="4" t="n"/>
-      <c r="P21" s="4" t="n"/>
-      <c r="Q21" s="4" t="n"/>
-      <c r="R21" s="4" t="n"/>
-      <c r="S21" s="4" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="U21" s="4" t="n"/>
-      <c r="V21" s="4" t="n"/>
-      <c r="W21" s="4" t="n"/>
-      <c r="X21" s="4" t="n"/>
-      <c r="Y21" s="4" t="n"/>
-      <c r="Z21" s="4" t="n"/>
-      <c r="AA21" s="4" t="n"/>
-      <c r="AB21" s="4" t="n"/>
-      <c r="AC21" s="4" t="n"/>
-      <c r="AD21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
-      <c r="I22" s="4" t="n"/>
-      <c r="J22" s="4" t="n"/>
-      <c r="K22" s="4" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="M22" s="4" t="n"/>
-      <c r="N22" s="4" t="n"/>
-      <c r="O22" s="4" t="n"/>
-      <c r="P22" s="4" t="n"/>
-      <c r="Q22" s="4" t="n"/>
-      <c r="R22" s="4" t="n"/>
-      <c r="S22" s="4" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="U22" s="4" t="n"/>
-      <c r="V22" s="4" t="n"/>
-      <c r="W22" s="4" t="n"/>
-      <c r="X22" s="4" t="n"/>
-      <c r="Y22" s="4" t="n"/>
-      <c r="Z22" s="4" t="n"/>
-      <c r="AA22" s="4" t="n"/>
-      <c r="AB22" s="4" t="n"/>
-      <c r="AC22" s="4" t="n"/>
-      <c r="AD22" s="4" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
-      <c r="I23" s="4" t="n"/>
-      <c r="J23" s="4" t="n"/>
-      <c r="K23" s="4" t="n"/>
-      <c r="L23" s="4" t="n"/>
-      <c r="M23" s="4" t="n"/>
-      <c r="N23" s="4" t="n"/>
-      <c r="O23" s="4" t="n"/>
-      <c r="P23" s="4" t="n"/>
-      <c r="Q23" s="4" t="n"/>
-      <c r="R23" s="4" t="n"/>
-      <c r="S23" s="4" t="n"/>
-      <c r="T23" s="4" t="n"/>
-      <c r="U23" s="4" t="n"/>
-      <c r="V23" s="4" t="n"/>
-      <c r="W23" s="4" t="n"/>
-      <c r="X23" s="4" t="n"/>
-      <c r="Y23" s="4" t="n"/>
-      <c r="Z23" s="4" t="n"/>
-      <c r="AA23" s="4" t="n"/>
-      <c r="AB23" s="4" t="n"/>
-      <c r="AC23" s="4" t="n"/>
-      <c r="AD23" s="4" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="4" t="n"/>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
-      <c r="I24" s="4" t="n"/>
-      <c r="J24" s="4" t="n"/>
-      <c r="K24" s="4" t="n"/>
-      <c r="L24" s="4" t="n"/>
-      <c r="M24" s="4" t="n"/>
-      <c r="N24" s="4" t="n"/>
-      <c r="O24" s="4" t="n"/>
-      <c r="P24" s="4" t="n"/>
-      <c r="Q24" s="4" t="n"/>
-      <c r="R24" s="4" t="n"/>
-      <c r="S24" s="4" t="n"/>
-      <c r="T24" s="4" t="n"/>
-      <c r="U24" s="4" t="n"/>
-      <c r="V24" s="4" t="n"/>
-      <c r="W24" s="4" t="n"/>
-      <c r="X24" s="4" t="n"/>
-      <c r="Y24" s="4" t="n"/>
-      <c r="Z24" s="4" t="n"/>
-      <c r="AA24" s="4" t="n"/>
-      <c r="AB24" s="4" t="n"/>
-      <c r="AC24" s="4" t="n"/>
-      <c r="AD24" s="4" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
-      <c r="I25" s="4" t="n"/>
-      <c r="J25" s="4" t="n"/>
-      <c r="K25" s="4" t="n"/>
-      <c r="L25" s="4" t="n"/>
-      <c r="M25" s="4" t="n"/>
-      <c r="N25" s="4" t="n"/>
-      <c r="O25" s="4" t="n"/>
-      <c r="P25" s="4" t="n"/>
-      <c r="Q25" s="4" t="n"/>
-      <c r="R25" s="4" t="n"/>
-      <c r="S25" s="4" t="n"/>
-      <c r="T25" s="4" t="n"/>
-      <c r="U25" s="4" t="n"/>
-      <c r="V25" s="4" t="n"/>
-      <c r="W25" s="4" t="n"/>
-      <c r="X25" s="4" t="n"/>
-      <c r="Y25" s="4" t="n"/>
-      <c r="Z25" s="4" t="n"/>
-      <c r="AA25" s="4" t="n"/>
-      <c r="AB25" s="4" t="n"/>
-      <c r="AC25" s="4" t="n"/>
-      <c r="AD25" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
-      <c r="I26" s="4" t="n"/>
-      <c r="J26" s="4" t="n"/>
-      <c r="K26" s="4" t="n"/>
-      <c r="L26" s="4" t="n"/>
-      <c r="M26" s="4" t="n"/>
-      <c r="N26" s="4" t="n"/>
-      <c r="O26" s="4" t="n"/>
-      <c r="P26" s="4" t="n"/>
-      <c r="Q26" s="4" t="n"/>
-      <c r="R26" s="4" t="n"/>
-      <c r="S26" s="4" t="n"/>
-      <c r="T26" s="4" t="n"/>
-      <c r="U26" s="4" t="n"/>
-      <c r="V26" s="4" t="n"/>
-      <c r="W26" s="4" t="n"/>
-      <c r="X26" s="4" t="n"/>
-      <c r="Y26" s="4" t="n"/>
-      <c r="Z26" s="4" t="n"/>
-      <c r="AA26" s="4" t="n"/>
-      <c r="AB26" s="4" t="n"/>
-      <c r="AC26" s="4" t="n"/>
-      <c r="AD26" s="4" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
-      <c r="I27" s="4" t="n"/>
-      <c r="J27" s="4" t="n"/>
-      <c r="K27" s="4" t="n"/>
-      <c r="L27" s="4" t="n"/>
-      <c r="M27" s="4" t="n"/>
-      <c r="N27" s="4" t="n"/>
-      <c r="O27" s="4" t="n"/>
-      <c r="P27" s="4" t="n"/>
-      <c r="Q27" s="4" t="n"/>
-      <c r="R27" s="4" t="n"/>
-      <c r="S27" s="4" t="n"/>
-      <c r="T27" s="4" t="n"/>
-      <c r="U27" s="4" t="n"/>
-      <c r="V27" s="4" t="n"/>
-      <c r="W27" s="4" t="n"/>
-      <c r="X27" s="4" t="n"/>
-      <c r="Y27" s="4" t="n"/>
-      <c r="Z27" s="4" t="n"/>
-      <c r="AA27" s="4" t="n"/>
-      <c r="AB27" s="4" t="n"/>
-      <c r="AC27" s="4" t="n"/>
-      <c r="AD27" s="4" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
-      <c r="I28" s="4" t="n"/>
-      <c r="J28" s="4" t="n"/>
-      <c r="K28" s="4" t="n"/>
-      <c r="L28" s="4" t="n"/>
-      <c r="M28" s="4" t="n"/>
-      <c r="N28" s="4" t="n"/>
-      <c r="O28" s="4" t="n"/>
-      <c r="P28" s="4" t="n"/>
-      <c r="Q28" s="4" t="n"/>
-      <c r="R28" s="4" t="n"/>
-      <c r="S28" s="4" t="n"/>
-      <c r="T28" s="4" t="n"/>
-      <c r="U28" s="4" t="n"/>
-      <c r="V28" s="4" t="n"/>
-      <c r="W28" s="4" t="n"/>
-      <c r="X28" s="4" t="n"/>
-      <c r="Y28" s="4" t="n"/>
-      <c r="Z28" s="4" t="n"/>
-      <c r="AA28" s="4" t="n"/>
-      <c r="AB28" s="4" t="n"/>
-      <c r="AC28" s="4" t="n"/>
-      <c r="AD28" s="4" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
-      <c r="I29" s="4" t="n"/>
-      <c r="J29" s="4" t="n"/>
-      <c r="K29" s="4" t="n"/>
-      <c r="L29" s="4" t="n"/>
-      <c r="M29" s="4" t="n"/>
-      <c r="N29" s="4" t="n"/>
-      <c r="O29" s="4" t="n"/>
-      <c r="P29" s="4" t="n"/>
-      <c r="Q29" s="4" t="n"/>
-      <c r="R29" s="4" t="n"/>
-      <c r="S29" s="4" t="n"/>
-      <c r="T29" s="4" t="n"/>
-      <c r="U29" s="4" t="n"/>
-      <c r="V29" s="4" t="n"/>
-      <c r="W29" s="4" t="n"/>
-      <c r="X29" s="4" t="n"/>
-      <c r="Y29" s="4" t="n"/>
-      <c r="Z29" s="4" t="n"/>
-      <c r="AA29" s="4" t="n"/>
-      <c r="AB29" s="4" t="n"/>
-      <c r="AC29" s="4" t="n"/>
-      <c r="AD29" s="4" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
-      <c r="I30" s="4" t="n"/>
-      <c r="J30" s="4" t="n"/>
-      <c r="K30" s="4" t="n"/>
-      <c r="L30" s="4" t="n"/>
-      <c r="M30" s="4" t="n"/>
-      <c r="N30" s="4" t="n"/>
-      <c r="O30" s="4" t="n"/>
-      <c r="P30" s="4" t="n"/>
-      <c r="Q30" s="4" t="n"/>
-      <c r="R30" s="4" t="n"/>
-      <c r="S30" s="4" t="n"/>
-      <c r="T30" s="4" t="n"/>
-      <c r="U30" s="4" t="n"/>
-      <c r="V30" s="4" t="n"/>
-      <c r="W30" s="4" t="n"/>
-      <c r="X30" s="4" t="n"/>
-      <c r="Y30" s="4" t="n"/>
-      <c r="Z30" s="4" t="n"/>
-      <c r="AA30" s="4" t="n"/>
-      <c r="AB30" s="4" t="n"/>
-      <c r="AC30" s="4" t="n"/>
-      <c r="AD30" s="4" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
-      <c r="I31" s="4" t="n"/>
-      <c r="J31" s="4" t="n"/>
-      <c r="K31" s="4" t="n"/>
-      <c r="L31" s="4" t="n"/>
-      <c r="M31" s="4" t="n"/>
-      <c r="N31" s="4" t="n"/>
-      <c r="O31" s="4" t="n"/>
-      <c r="P31" s="4" t="n"/>
-      <c r="Q31" s="4" t="n"/>
-      <c r="R31" s="4" t="n"/>
-      <c r="S31" s="4" t="n"/>
-      <c r="T31" s="4" t="n"/>
-      <c r="U31" s="4" t="n"/>
-      <c r="V31" s="4" t="n"/>
-      <c r="W31" s="4" t="n"/>
-      <c r="X31" s="4" t="n"/>
-      <c r="Y31" s="4" t="n"/>
-      <c r="Z31" s="4" t="n"/>
-      <c r="AA31" s="4" t="n"/>
-      <c r="AB31" s="4" t="n"/>
-      <c r="AC31" s="4" t="n"/>
-      <c r="AD31" s="4" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
-      <c r="I32" s="4" t="n"/>
-      <c r="J32" s="4" t="n"/>
-      <c r="K32" s="4" t="n"/>
-      <c r="L32" s="4" t="n"/>
-      <c r="M32" s="4" t="n"/>
-      <c r="N32" s="4" t="n"/>
-      <c r="O32" s="4" t="n"/>
-      <c r="P32" s="4" t="n"/>
-      <c r="Q32" s="4" t="n"/>
-      <c r="R32" s="4" t="n"/>
-      <c r="S32" s="4" t="n"/>
-      <c r="T32" s="4" t="n"/>
-      <c r="U32" s="4" t="n"/>
-      <c r="V32" s="4" t="n"/>
-      <c r="W32" s="4" t="n"/>
-      <c r="X32" s="4" t="n"/>
-      <c r="Y32" s="4" t="n"/>
-      <c r="Z32" s="4" t="n"/>
-      <c r="AA32" s="4" t="n"/>
-      <c r="AB32" s="4" t="n"/>
-      <c r="AC32" s="4" t="n"/>
-      <c r="AD32" s="4" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="4" t="n"/>
-      <c r="C33" s="4" t="n"/>
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="4" t="n"/>
-      <c r="F33" s="4" t="n"/>
-      <c r="G33" s="4" t="n"/>
-      <c r="H33" s="4" t="n"/>
-      <c r="I33" s="4" t="n"/>
-      <c r="J33" s="4" t="n"/>
-      <c r="K33" s="4" t="n"/>
-      <c r="L33" s="4" t="n"/>
-      <c r="M33" s="4" t="n"/>
-      <c r="N33" s="4" t="n"/>
-      <c r="O33" s="4" t="n"/>
-      <c r="P33" s="4" t="n"/>
-      <c r="Q33" s="4" t="n"/>
-      <c r="R33" s="4" t="n"/>
-      <c r="S33" s="4" t="n"/>
-      <c r="T33" s="4" t="n"/>
-      <c r="U33" s="4" t="n"/>
-      <c r="V33" s="4" t="n"/>
-      <c r="W33" s="4" t="n"/>
-      <c r="X33" s="4" t="n"/>
-      <c r="Y33" s="4" t="n"/>
-      <c r="Z33" s="4" t="n"/>
-      <c r="AA33" s="4" t="n"/>
-      <c r="AB33" s="4" t="n"/>
-      <c r="AC33" s="4" t="n"/>
-      <c r="AD33" s="4" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="n"/>
-      <c r="D34" s="4" t="n"/>
-      <c r="E34" s="4" t="n"/>
-      <c r="F34" s="4" t="n"/>
-      <c r="G34" s="4" t="n"/>
-      <c r="H34" s="4" t="n"/>
-      <c r="I34" s="4" t="n"/>
-      <c r="J34" s="4" t="n"/>
-      <c r="K34" s="4" t="n"/>
-      <c r="L34" s="4" t="n"/>
-      <c r="M34" s="4" t="n"/>
-      <c r="N34" s="4" t="n"/>
-      <c r="O34" s="4" t="n"/>
-      <c r="P34" s="4" t="n"/>
-      <c r="Q34" s="4" t="n"/>
-      <c r="R34" s="4" t="n"/>
-      <c r="S34" s="4" t="n"/>
-      <c r="T34" s="4" t="n"/>
-      <c r="U34" s="4" t="n"/>
-      <c r="V34" s="4" t="n"/>
-      <c r="W34" s="4" t="n"/>
-      <c r="X34" s="4" t="n"/>
-      <c r="Y34" s="4" t="n"/>
-      <c r="Z34" s="4" t="n"/>
-      <c r="AA34" s="4" t="n"/>
-      <c r="AB34" s="4" t="n"/>
-      <c r="AC34" s="4" t="n"/>
-      <c r="AD34" s="4" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="n"/>
-      <c r="B35" s="4" t="n"/>
-      <c r="C35" s="4" t="n"/>
-      <c r="D35" s="4" t="n"/>
-      <c r="E35" s="4" t="n"/>
-      <c r="F35" s="4" t="n"/>
-      <c r="G35" s="4" t="n"/>
-      <c r="H35" s="4" t="n"/>
-      <c r="I35" s="4" t="n"/>
-      <c r="J35" s="4" t="n"/>
-      <c r="K35" s="4" t="n"/>
-      <c r="L35" s="4" t="n"/>
-      <c r="M35" s="4" t="n"/>
-      <c r="N35" s="4" t="n"/>
-      <c r="O35" s="4" t="n"/>
-      <c r="P35" s="4" t="n"/>
-      <c r="Q35" s="4" t="n"/>
-      <c r="R35" s="4" t="n"/>
-      <c r="S35" s="4" t="n"/>
-      <c r="T35" s="4" t="n"/>
-      <c r="U35" s="4" t="n"/>
-      <c r="V35" s="4" t="n"/>
-      <c r="W35" s="4" t="n"/>
-      <c r="X35" s="4" t="n"/>
-      <c r="Y35" s="4" t="n"/>
-      <c r="Z35" s="4" t="n"/>
-      <c r="AA35" s="4" t="n"/>
-      <c r="AB35" s="4" t="n"/>
-      <c r="AC35" s="4" t="n"/>
-      <c r="AD35" s="4" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="n"/>
-      <c r="B36" s="4" t="n"/>
-      <c r="C36" s="4" t="n"/>
-      <c r="D36" s="4" t="n"/>
-      <c r="E36" s="4" t="n"/>
-      <c r="F36" s="4" t="n"/>
-      <c r="G36" s="4" t="n"/>
-      <c r="H36" s="4" t="n"/>
-      <c r="I36" s="4" t="n"/>
-      <c r="J36" s="4" t="n"/>
-      <c r="K36" s="4" t="n"/>
-      <c r="L36" s="4" t="n"/>
-      <c r="M36" s="4" t="n"/>
-      <c r="N36" s="4" t="n"/>
-      <c r="O36" s="4" t="n"/>
-      <c r="P36" s="4" t="n"/>
-      <c r="Q36" s="4" t="n"/>
-      <c r="R36" s="4" t="n"/>
-      <c r="S36" s="4" t="n"/>
-      <c r="T36" s="4" t="n"/>
-      <c r="U36" s="4" t="n"/>
-      <c r="V36" s="4" t="n"/>
-      <c r="W36" s="4" t="n"/>
-      <c r="X36" s="4" t="n"/>
-      <c r="Y36" s="4" t="n"/>
-      <c r="Z36" s="4" t="n"/>
-      <c r="AA36" s="4" t="n"/>
-      <c r="AB36" s="4" t="n"/>
-      <c r="AC36" s="4" t="n"/>
-      <c r="AD36" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/excel_sheets/Image_metadata.xlsx
+++ b/excel_sheets/Image_metadata.xlsx
@@ -504,7 +504,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>image type metadata version 0.1.0</t>
+          <t>metadata_type: image, metadata_type_version: 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>

--- a/excel_sheets/Image_metadata.xlsx
+++ b/excel_sheets/Image_metadata.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AD88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,6 +1749,1606 @@
       <c r="AC38" s="4" t="n"/>
       <c r="AD38" s="4" t="n"/>
     </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="n"/>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="4" t="n"/>
+      <c r="Z39" s="4" t="n"/>
+      <c r="AA39" s="4" t="n"/>
+      <c r="AB39" s="4" t="n"/>
+      <c r="AC39" s="4" t="n"/>
+      <c r="AD39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
+      <c r="AB40" s="4" t="n"/>
+      <c r="AC40" s="4" t="n"/>
+      <c r="AD40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="n"/>
+      <c r="Q41" s="4" t="n"/>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n"/>
+      <c r="AA41" s="4" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AC41" s="4" t="n"/>
+      <c r="AD41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
+      <c r="O42" s="4" t="n"/>
+      <c r="P42" s="4" t="n"/>
+      <c r="Q42" s="4" t="n"/>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n"/>
+      <c r="AA42" s="4" t="n"/>
+      <c r="AB42" s="4" t="n"/>
+      <c r="AC42" s="4" t="n"/>
+      <c r="AD42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
+      <c r="O43" s="4" t="n"/>
+      <c r="P43" s="4" t="n"/>
+      <c r="Q43" s="4" t="n"/>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="n"/>
+      <c r="W43" s="4" t="n"/>
+      <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="4" t="n"/>
+      <c r="Z43" s="4" t="n"/>
+      <c r="AA43" s="4" t="n"/>
+      <c r="AB43" s="4" t="n"/>
+      <c r="AC43" s="4" t="n"/>
+      <c r="AD43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="4" t="n"/>
+      <c r="P44" s="4" t="n"/>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="4" t="n"/>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
+      <c r="H45" s="4" t="n"/>
+      <c r="I45" s="4" t="n"/>
+      <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+      <c r="S45" s="4" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="4" t="n"/>
+      <c r="V45" s="4" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
+      <c r="AA45" s="4" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AC45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
+      <c r="H46" s="4" t="n"/>
+      <c r="I46" s="4" t="n"/>
+      <c r="J46" s="4" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
+      <c r="O46" s="4" t="n"/>
+      <c r="P46" s="4" t="n"/>
+      <c r="Q46" s="4" t="n"/>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="4" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="4" t="n"/>
+      <c r="V46" s="4" t="n"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n"/>
+      <c r="AA46" s="4" t="n"/>
+      <c r="AB46" s="4" t="n"/>
+      <c r="AC46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
+      <c r="P47" s="4" t="n"/>
+      <c r="Q47" s="4" t="n"/>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="4" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n"/>
+      <c r="AA47" s="4" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AC47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="n"/>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
+      <c r="AB48" s="4" t="n"/>
+      <c r="AC48" s="4" t="n"/>
+      <c r="AD48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n"/>
+      <c r="AA49" s="4" t="n"/>
+      <c r="AB49" s="4" t="n"/>
+      <c r="AC49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="4" t="n"/>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="n"/>
+      <c r="Q50" s="4" t="n"/>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
+      <c r="AB50" s="4" t="n"/>
+      <c r="AC50" s="4" t="n"/>
+      <c r="AD50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="4" t="n"/>
+      <c r="I51" s="4" t="n"/>
+      <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
+      <c r="O51" s="4" t="n"/>
+      <c r="P51" s="4" t="n"/>
+      <c r="Q51" s="4" t="n"/>
+      <c r="R51" s="4" t="n"/>
+      <c r="S51" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
+      <c r="V51" s="4" t="n"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="n"/>
+      <c r="AA51" s="4" t="n"/>
+      <c r="AB51" s="4" t="n"/>
+      <c r="AC51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="4" t="n"/>
+      <c r="I52" s="4" t="n"/>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
+      <c r="O52" s="4" t="n"/>
+      <c r="P52" s="4" t="n"/>
+      <c r="Q52" s="4" t="n"/>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
+      <c r="AA52" s="4" t="n"/>
+      <c r="AB52" s="4" t="n"/>
+      <c r="AC52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
+      <c r="AA53" s="4" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AC53" s="4" t="n"/>
+      <c r="AD53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="n"/>
+      <c r="Q54" s="4" t="n"/>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="4" t="n"/>
+      <c r="Y54" s="4" t="n"/>
+      <c r="Z54" s="4" t="n"/>
+      <c r="AA54" s="4" t="n"/>
+      <c r="AB54" s="4" t="n"/>
+      <c r="AC54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+      <c r="O55" s="4" t="n"/>
+      <c r="P55" s="4" t="n"/>
+      <c r="Q55" s="4" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="4" t="n"/>
+      <c r="Y55" s="4" t="n"/>
+      <c r="Z55" s="4" t="n"/>
+      <c r="AA55" s="4" t="n"/>
+      <c r="AB55" s="4" t="n"/>
+      <c r="AC55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+      <c r="O56" s="4" t="n"/>
+      <c r="P56" s="4" t="n"/>
+      <c r="Q56" s="4" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="4" t="n"/>
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="4" t="n"/>
+      <c r="V56" s="4" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="X56" s="4" t="n"/>
+      <c r="Y56" s="4" t="n"/>
+      <c r="Z56" s="4" t="n"/>
+      <c r="AA56" s="4" t="n"/>
+      <c r="AB56" s="4" t="n"/>
+      <c r="AC56" s="4" t="n"/>
+      <c r="AD56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="n"/>
+      <c r="Q57" s="4" t="n"/>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="X57" s="4" t="n"/>
+      <c r="Y57" s="4" t="n"/>
+      <c r="Z57" s="4" t="n"/>
+      <c r="AA57" s="4" t="n"/>
+      <c r="AB57" s="4" t="n"/>
+      <c r="AC57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="n"/>
+      <c r="Q58" s="4" t="n"/>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="X58" s="4" t="n"/>
+      <c r="Y58" s="4" t="n"/>
+      <c r="Z58" s="4" t="n"/>
+      <c r="AA58" s="4" t="n"/>
+      <c r="AB58" s="4" t="n"/>
+      <c r="AC58" s="4" t="n"/>
+      <c r="AD58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="n"/>
+      <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
+      <c r="O59" s="4" t="n"/>
+      <c r="P59" s="4" t="n"/>
+      <c r="Q59" s="4" t="n"/>
+      <c r="R59" s="4" t="n"/>
+      <c r="S59" s="4" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="4" t="n"/>
+      <c r="V59" s="4" t="n"/>
+      <c r="W59" s="4" t="n"/>
+      <c r="X59" s="4" t="n"/>
+      <c r="Y59" s="4" t="n"/>
+      <c r="Z59" s="4" t="n"/>
+      <c r="AA59" s="4" t="n"/>
+      <c r="AB59" s="4" t="n"/>
+      <c r="AC59" s="4" t="n"/>
+      <c r="AD59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+      <c r="H60" s="4" t="n"/>
+      <c r="I60" s="4" t="n"/>
+      <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
+      <c r="O60" s="4" t="n"/>
+      <c r="P60" s="4" t="n"/>
+      <c r="Q60" s="4" t="n"/>
+      <c r="R60" s="4" t="n"/>
+      <c r="S60" s="4" t="n"/>
+      <c r="T60" s="4" t="n"/>
+      <c r="U60" s="4" t="n"/>
+      <c r="V60" s="4" t="n"/>
+      <c r="W60" s="4" t="n"/>
+      <c r="X60" s="4" t="n"/>
+      <c r="Y60" s="4" t="n"/>
+      <c r="Z60" s="4" t="n"/>
+      <c r="AA60" s="4" t="n"/>
+      <c r="AB60" s="4" t="n"/>
+      <c r="AC60" s="4" t="n"/>
+      <c r="AD60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="4" t="n"/>
+      <c r="G61" s="4" t="n"/>
+      <c r="H61" s="4" t="n"/>
+      <c r="I61" s="4" t="n"/>
+      <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
+      <c r="O61" s="4" t="n"/>
+      <c r="P61" s="4" t="n"/>
+      <c r="Q61" s="4" t="n"/>
+      <c r="R61" s="4" t="n"/>
+      <c r="S61" s="4" t="n"/>
+      <c r="T61" s="4" t="n"/>
+      <c r="U61" s="4" t="n"/>
+      <c r="V61" s="4" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="X61" s="4" t="n"/>
+      <c r="Y61" s="4" t="n"/>
+      <c r="Z61" s="4" t="n"/>
+      <c r="AA61" s="4" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AC61" s="4" t="n"/>
+      <c r="AD61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
+      <c r="G62" s="4" t="n"/>
+      <c r="H62" s="4" t="n"/>
+      <c r="I62" s="4" t="n"/>
+      <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
+      <c r="O62" s="4" t="n"/>
+      <c r="P62" s="4" t="n"/>
+      <c r="Q62" s="4" t="n"/>
+      <c r="R62" s="4" t="n"/>
+      <c r="S62" s="4" t="n"/>
+      <c r="T62" s="4" t="n"/>
+      <c r="U62" s="4" t="n"/>
+      <c r="V62" s="4" t="n"/>
+      <c r="W62" s="4" t="n"/>
+      <c r="X62" s="4" t="n"/>
+      <c r="Y62" s="4" t="n"/>
+      <c r="Z62" s="4" t="n"/>
+      <c r="AA62" s="4" t="n"/>
+      <c r="AB62" s="4" t="n"/>
+      <c r="AC62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
+      <c r="G63" s="4" t="n"/>
+      <c r="H63" s="4" t="n"/>
+      <c r="I63" s="4" t="n"/>
+      <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
+      <c r="O63" s="4" t="n"/>
+      <c r="P63" s="4" t="n"/>
+      <c r="Q63" s="4" t="n"/>
+      <c r="R63" s="4" t="n"/>
+      <c r="S63" s="4" t="n"/>
+      <c r="T63" s="4" t="n"/>
+      <c r="U63" s="4" t="n"/>
+      <c r="V63" s="4" t="n"/>
+      <c r="W63" s="4" t="n"/>
+      <c r="X63" s="4" t="n"/>
+      <c r="Y63" s="4" t="n"/>
+      <c r="Z63" s="4" t="n"/>
+      <c r="AA63" s="4" t="n"/>
+      <c r="AB63" s="4" t="n"/>
+      <c r="AC63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
+      <c r="G64" s="4" t="n"/>
+      <c r="H64" s="4" t="n"/>
+      <c r="I64" s="4" t="n"/>
+      <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
+      <c r="O64" s="4" t="n"/>
+      <c r="P64" s="4" t="n"/>
+      <c r="Q64" s="4" t="n"/>
+      <c r="R64" s="4" t="n"/>
+      <c r="S64" s="4" t="n"/>
+      <c r="T64" s="4" t="n"/>
+      <c r="U64" s="4" t="n"/>
+      <c r="V64" s="4" t="n"/>
+      <c r="W64" s="4" t="n"/>
+      <c r="X64" s="4" t="n"/>
+      <c r="Y64" s="4" t="n"/>
+      <c r="Z64" s="4" t="n"/>
+      <c r="AA64" s="4" t="n"/>
+      <c r="AB64" s="4" t="n"/>
+      <c r="AC64" s="4" t="n"/>
+      <c r="AD64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
+      <c r="G65" s="4" t="n"/>
+      <c r="H65" s="4" t="n"/>
+      <c r="I65" s="4" t="n"/>
+      <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
+      <c r="O65" s="4" t="n"/>
+      <c r="P65" s="4" t="n"/>
+      <c r="Q65" s="4" t="n"/>
+      <c r="R65" s="4" t="n"/>
+      <c r="S65" s="4" t="n"/>
+      <c r="T65" s="4" t="n"/>
+      <c r="U65" s="4" t="n"/>
+      <c r="V65" s="4" t="n"/>
+      <c r="W65" s="4" t="n"/>
+      <c r="X65" s="4" t="n"/>
+      <c r="Y65" s="4" t="n"/>
+      <c r="Z65" s="4" t="n"/>
+      <c r="AA65" s="4" t="n"/>
+      <c r="AB65" s="4" t="n"/>
+      <c r="AC65" s="4" t="n"/>
+      <c r="AD65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
+      <c r="G66" s="4" t="n"/>
+      <c r="H66" s="4" t="n"/>
+      <c r="I66" s="4" t="n"/>
+      <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
+      <c r="O66" s="4" t="n"/>
+      <c r="P66" s="4" t="n"/>
+      <c r="Q66" s="4" t="n"/>
+      <c r="R66" s="4" t="n"/>
+      <c r="S66" s="4" t="n"/>
+      <c r="T66" s="4" t="n"/>
+      <c r="U66" s="4" t="n"/>
+      <c r="V66" s="4" t="n"/>
+      <c r="W66" s="4" t="n"/>
+      <c r="X66" s="4" t="n"/>
+      <c r="Y66" s="4" t="n"/>
+      <c r="Z66" s="4" t="n"/>
+      <c r="AA66" s="4" t="n"/>
+      <c r="AB66" s="4" t="n"/>
+      <c r="AC66" s="4" t="n"/>
+      <c r="AD66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
+      <c r="G67" s="4" t="n"/>
+      <c r="H67" s="4" t="n"/>
+      <c r="I67" s="4" t="n"/>
+      <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="4" t="n"/>
+      <c r="N67" s="4" t="n"/>
+      <c r="O67" s="4" t="n"/>
+      <c r="P67" s="4" t="n"/>
+      <c r="Q67" s="4" t="n"/>
+      <c r="R67" s="4" t="n"/>
+      <c r="S67" s="4" t="n"/>
+      <c r="T67" s="4" t="n"/>
+      <c r="U67" s="4" t="n"/>
+      <c r="V67" s="4" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="X67" s="4" t="n"/>
+      <c r="Y67" s="4" t="n"/>
+      <c r="Z67" s="4" t="n"/>
+      <c r="AA67" s="4" t="n"/>
+      <c r="AB67" s="4" t="n"/>
+      <c r="AC67" s="4" t="n"/>
+      <c r="AD67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
+      <c r="G68" s="4" t="n"/>
+      <c r="H68" s="4" t="n"/>
+      <c r="I68" s="4" t="n"/>
+      <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="4" t="n"/>
+      <c r="N68" s="4" t="n"/>
+      <c r="O68" s="4" t="n"/>
+      <c r="P68" s="4" t="n"/>
+      <c r="Q68" s="4" t="n"/>
+      <c r="R68" s="4" t="n"/>
+      <c r="S68" s="4" t="n"/>
+      <c r="T68" s="4" t="n"/>
+      <c r="U68" s="4" t="n"/>
+      <c r="V68" s="4" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="X68" s="4" t="n"/>
+      <c r="Y68" s="4" t="n"/>
+      <c r="Z68" s="4" t="n"/>
+      <c r="AA68" s="4" t="n"/>
+      <c r="AB68" s="4" t="n"/>
+      <c r="AC68" s="4" t="n"/>
+      <c r="AD68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
+      <c r="G69" s="4" t="n"/>
+      <c r="H69" s="4" t="n"/>
+      <c r="I69" s="4" t="n"/>
+      <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="4" t="n"/>
+      <c r="N69" s="4" t="n"/>
+      <c r="O69" s="4" t="n"/>
+      <c r="P69" s="4" t="n"/>
+      <c r="Q69" s="4" t="n"/>
+      <c r="R69" s="4" t="n"/>
+      <c r="S69" s="4" t="n"/>
+      <c r="T69" s="4" t="n"/>
+      <c r="U69" s="4" t="n"/>
+      <c r="V69" s="4" t="n"/>
+      <c r="W69" s="4" t="n"/>
+      <c r="X69" s="4" t="n"/>
+      <c r="Y69" s="4" t="n"/>
+      <c r="Z69" s="4" t="n"/>
+      <c r="AA69" s="4" t="n"/>
+      <c r="AB69" s="4" t="n"/>
+      <c r="AC69" s="4" t="n"/>
+      <c r="AD69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
+      <c r="G70" s="4" t="n"/>
+      <c r="H70" s="4" t="n"/>
+      <c r="I70" s="4" t="n"/>
+      <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="4" t="n"/>
+      <c r="N70" s="4" t="n"/>
+      <c r="O70" s="4" t="n"/>
+      <c r="P70" s="4" t="n"/>
+      <c r="Q70" s="4" t="n"/>
+      <c r="R70" s="4" t="n"/>
+      <c r="S70" s="4" t="n"/>
+      <c r="T70" s="4" t="n"/>
+      <c r="U70" s="4" t="n"/>
+      <c r="V70" s="4" t="n"/>
+      <c r="W70" s="4" t="n"/>
+      <c r="X70" s="4" t="n"/>
+      <c r="Y70" s="4" t="n"/>
+      <c r="Z70" s="4" t="n"/>
+      <c r="AA70" s="4" t="n"/>
+      <c r="AB70" s="4" t="n"/>
+      <c r="AC70" s="4" t="n"/>
+      <c r="AD70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
+      <c r="G71" s="4" t="n"/>
+      <c r="H71" s="4" t="n"/>
+      <c r="I71" s="4" t="n"/>
+      <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="4" t="n"/>
+      <c r="N71" s="4" t="n"/>
+      <c r="O71" s="4" t="n"/>
+      <c r="P71" s="4" t="n"/>
+      <c r="Q71" s="4" t="n"/>
+      <c r="R71" s="4" t="n"/>
+      <c r="S71" s="4" t="n"/>
+      <c r="T71" s="4" t="n"/>
+      <c r="U71" s="4" t="n"/>
+      <c r="V71" s="4" t="n"/>
+      <c r="W71" s="4" t="n"/>
+      <c r="X71" s="4" t="n"/>
+      <c r="Y71" s="4" t="n"/>
+      <c r="Z71" s="4" t="n"/>
+      <c r="AA71" s="4" t="n"/>
+      <c r="AB71" s="4" t="n"/>
+      <c r="AC71" s="4" t="n"/>
+      <c r="AD71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="n"/>
+      <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
+      <c r="O72" s="4" t="n"/>
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="n"/>
+      <c r="R72" s="4" t="n"/>
+      <c r="S72" s="4" t="n"/>
+      <c r="T72" s="4" t="n"/>
+      <c r="U72" s="4" t="n"/>
+      <c r="V72" s="4" t="n"/>
+      <c r="W72" s="4" t="n"/>
+      <c r="X72" s="4" t="n"/>
+      <c r="Y72" s="4" t="n"/>
+      <c r="Z72" s="4" t="n"/>
+      <c r="AA72" s="4" t="n"/>
+      <c r="AB72" s="4" t="n"/>
+      <c r="AC72" s="4" t="n"/>
+      <c r="AD72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
+      <c r="G73" s="4" t="n"/>
+      <c r="H73" s="4" t="n"/>
+      <c r="I73" s="4" t="n"/>
+      <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="4" t="n"/>
+      <c r="N73" s="4" t="n"/>
+      <c r="O73" s="4" t="n"/>
+      <c r="P73" s="4" t="n"/>
+      <c r="Q73" s="4" t="n"/>
+      <c r="R73" s="4" t="n"/>
+      <c r="S73" s="4" t="n"/>
+      <c r="T73" s="4" t="n"/>
+      <c r="U73" s="4" t="n"/>
+      <c r="V73" s="4" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="X73" s="4" t="n"/>
+      <c r="Y73" s="4" t="n"/>
+      <c r="Z73" s="4" t="n"/>
+      <c r="AA73" s="4" t="n"/>
+      <c r="AB73" s="4" t="n"/>
+      <c r="AC73" s="4" t="n"/>
+      <c r="AD73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
+      <c r="G74" s="4" t="n"/>
+      <c r="H74" s="4" t="n"/>
+      <c r="I74" s="4" t="n"/>
+      <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="4" t="n"/>
+      <c r="N74" s="4" t="n"/>
+      <c r="O74" s="4" t="n"/>
+      <c r="P74" s="4" t="n"/>
+      <c r="Q74" s="4" t="n"/>
+      <c r="R74" s="4" t="n"/>
+      <c r="S74" s="4" t="n"/>
+      <c r="T74" s="4" t="n"/>
+      <c r="U74" s="4" t="n"/>
+      <c r="V74" s="4" t="n"/>
+      <c r="W74" s="4" t="n"/>
+      <c r="X74" s="4" t="n"/>
+      <c r="Y74" s="4" t="n"/>
+      <c r="Z74" s="4" t="n"/>
+      <c r="AA74" s="4" t="n"/>
+      <c r="AB74" s="4" t="n"/>
+      <c r="AC74" s="4" t="n"/>
+      <c r="AD74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
+      <c r="G75" s="4" t="n"/>
+      <c r="H75" s="4" t="n"/>
+      <c r="I75" s="4" t="n"/>
+      <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="4" t="n"/>
+      <c r="N75" s="4" t="n"/>
+      <c r="O75" s="4" t="n"/>
+      <c r="P75" s="4" t="n"/>
+      <c r="Q75" s="4" t="n"/>
+      <c r="R75" s="4" t="n"/>
+      <c r="S75" s="4" t="n"/>
+      <c r="T75" s="4" t="n"/>
+      <c r="U75" s="4" t="n"/>
+      <c r="V75" s="4" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="X75" s="4" t="n"/>
+      <c r="Y75" s="4" t="n"/>
+      <c r="Z75" s="4" t="n"/>
+      <c r="AA75" s="4" t="n"/>
+      <c r="AB75" s="4" t="n"/>
+      <c r="AC75" s="4" t="n"/>
+      <c r="AD75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
+      <c r="G76" s="4" t="n"/>
+      <c r="H76" s="4" t="n"/>
+      <c r="I76" s="4" t="n"/>
+      <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="4" t="n"/>
+      <c r="N76" s="4" t="n"/>
+      <c r="O76" s="4" t="n"/>
+      <c r="P76" s="4" t="n"/>
+      <c r="Q76" s="4" t="n"/>
+      <c r="R76" s="4" t="n"/>
+      <c r="S76" s="4" t="n"/>
+      <c r="T76" s="4" t="n"/>
+      <c r="U76" s="4" t="n"/>
+      <c r="V76" s="4" t="n"/>
+      <c r="W76" s="4" t="n"/>
+      <c r="X76" s="4" t="n"/>
+      <c r="Y76" s="4" t="n"/>
+      <c r="Z76" s="4" t="n"/>
+      <c r="AA76" s="4" t="n"/>
+      <c r="AB76" s="4" t="n"/>
+      <c r="AC76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="4" t="n"/>
+      <c r="I77" s="4" t="n"/>
+      <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
+      <c r="O77" s="4" t="n"/>
+      <c r="P77" s="4" t="n"/>
+      <c r="Q77" s="4" t="n"/>
+      <c r="R77" s="4" t="n"/>
+      <c r="S77" s="4" t="n"/>
+      <c r="T77" s="4" t="n"/>
+      <c r="U77" s="4" t="n"/>
+      <c r="V77" s="4" t="n"/>
+      <c r="W77" s="4" t="n"/>
+      <c r="X77" s="4" t="n"/>
+      <c r="Y77" s="4" t="n"/>
+      <c r="Z77" s="4" t="n"/>
+      <c r="AA77" s="4" t="n"/>
+      <c r="AB77" s="4" t="n"/>
+      <c r="AC77" s="4" t="n"/>
+      <c r="AD77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="4" t="n"/>
+      <c r="I78" s="4" t="n"/>
+      <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
+      <c r="O78" s="4" t="n"/>
+      <c r="P78" s="4" t="n"/>
+      <c r="Q78" s="4" t="n"/>
+      <c r="R78" s="4" t="n"/>
+      <c r="S78" s="4" t="n"/>
+      <c r="T78" s="4" t="n"/>
+      <c r="U78" s="4" t="n"/>
+      <c r="V78" s="4" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="X78" s="4" t="n"/>
+      <c r="Y78" s="4" t="n"/>
+      <c r="Z78" s="4" t="n"/>
+      <c r="AA78" s="4" t="n"/>
+      <c r="AB78" s="4" t="n"/>
+      <c r="AC78" s="4" t="n"/>
+      <c r="AD78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="4" t="n"/>
+      <c r="I79" s="4" t="n"/>
+      <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
+      <c r="O79" s="4" t="n"/>
+      <c r="P79" s="4" t="n"/>
+      <c r="Q79" s="4" t="n"/>
+      <c r="R79" s="4" t="n"/>
+      <c r="S79" s="4" t="n"/>
+      <c r="T79" s="4" t="n"/>
+      <c r="U79" s="4" t="n"/>
+      <c r="V79" s="4" t="n"/>
+      <c r="W79" s="4" t="n"/>
+      <c r="X79" s="4" t="n"/>
+      <c r="Y79" s="4" t="n"/>
+      <c r="Z79" s="4" t="n"/>
+      <c r="AA79" s="4" t="n"/>
+      <c r="AB79" s="4" t="n"/>
+      <c r="AC79" s="4" t="n"/>
+      <c r="AD79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="4" t="n"/>
+      <c r="I80" s="4" t="n"/>
+      <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
+      <c r="O80" s="4" t="n"/>
+      <c r="P80" s="4" t="n"/>
+      <c r="Q80" s="4" t="n"/>
+      <c r="R80" s="4" t="n"/>
+      <c r="S80" s="4" t="n"/>
+      <c r="T80" s="4" t="n"/>
+      <c r="U80" s="4" t="n"/>
+      <c r="V80" s="4" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="X80" s="4" t="n"/>
+      <c r="Y80" s="4" t="n"/>
+      <c r="Z80" s="4" t="n"/>
+      <c r="AA80" s="4" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AC80" s="4" t="n"/>
+      <c r="AD80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
+      <c r="G81" s="4" t="n"/>
+      <c r="H81" s="4" t="n"/>
+      <c r="I81" s="4" t="n"/>
+      <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="4" t="n"/>
+      <c r="N81" s="4" t="n"/>
+      <c r="O81" s="4" t="n"/>
+      <c r="P81" s="4" t="n"/>
+      <c r="Q81" s="4" t="n"/>
+      <c r="R81" s="4" t="n"/>
+      <c r="S81" s="4" t="n"/>
+      <c r="T81" s="4" t="n"/>
+      <c r="U81" s="4" t="n"/>
+      <c r="V81" s="4" t="n"/>
+      <c r="W81" s="4" t="n"/>
+      <c r="X81" s="4" t="n"/>
+      <c r="Y81" s="4" t="n"/>
+      <c r="Z81" s="4" t="n"/>
+      <c r="AA81" s="4" t="n"/>
+      <c r="AB81" s="4" t="n"/>
+      <c r="AC81" s="4" t="n"/>
+      <c r="AD81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
+      <c r="G82" s="4" t="n"/>
+      <c r="H82" s="4" t="n"/>
+      <c r="I82" s="4" t="n"/>
+      <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="4" t="n"/>
+      <c r="N82" s="4" t="n"/>
+      <c r="O82" s="4" t="n"/>
+      <c r="P82" s="4" t="n"/>
+      <c r="Q82" s="4" t="n"/>
+      <c r="R82" s="4" t="n"/>
+      <c r="S82" s="4" t="n"/>
+      <c r="T82" s="4" t="n"/>
+      <c r="U82" s="4" t="n"/>
+      <c r="V82" s="4" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="X82" s="4" t="n"/>
+      <c r="Y82" s="4" t="n"/>
+      <c r="Z82" s="4" t="n"/>
+      <c r="AA82" s="4" t="n"/>
+      <c r="AB82" s="4" t="n"/>
+      <c r="AC82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="4" t="n"/>
+      <c r="I83" s="4" t="n"/>
+      <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="4" t="n"/>
+      <c r="N83" s="4" t="n"/>
+      <c r="O83" s="4" t="n"/>
+      <c r="P83" s="4" t="n"/>
+      <c r="Q83" s="4" t="n"/>
+      <c r="R83" s="4" t="n"/>
+      <c r="S83" s="4" t="n"/>
+      <c r="T83" s="4" t="n"/>
+      <c r="U83" s="4" t="n"/>
+      <c r="V83" s="4" t="n"/>
+      <c r="W83" s="4" t="n"/>
+      <c r="X83" s="4" t="n"/>
+      <c r="Y83" s="4" t="n"/>
+      <c r="Z83" s="4" t="n"/>
+      <c r="AA83" s="4" t="n"/>
+      <c r="AB83" s="4" t="n"/>
+      <c r="AC83" s="4" t="n"/>
+      <c r="AD83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
+      <c r="T84" s="4" t="n"/>
+      <c r="U84" s="4" t="n"/>
+      <c r="V84" s="4" t="n"/>
+      <c r="W84" s="4" t="n"/>
+      <c r="X84" s="4" t="n"/>
+      <c r="Y84" s="4" t="n"/>
+      <c r="Z84" s="4" t="n"/>
+      <c r="AA84" s="4" t="n"/>
+      <c r="AB84" s="4" t="n"/>
+      <c r="AC84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n"/>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="4" t="n"/>
+      <c r="D85" s="4" t="n"/>
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="4" t="n"/>
+      <c r="G85" s="4" t="n"/>
+      <c r="H85" s="4" t="n"/>
+      <c r="I85" s="4" t="n"/>
+      <c r="J85" s="4" t="n"/>
+      <c r="K85" s="4" t="n"/>
+      <c r="L85" s="4" t="n"/>
+      <c r="M85" s="4" t="n"/>
+      <c r="N85" s="4" t="n"/>
+      <c r="O85" s="4" t="n"/>
+      <c r="P85" s="4" t="n"/>
+      <c r="Q85" s="4" t="n"/>
+      <c r="R85" s="4" t="n"/>
+      <c r="S85" s="4" t="n"/>
+      <c r="T85" s="4" t="n"/>
+      <c r="U85" s="4" t="n"/>
+      <c r="V85" s="4" t="n"/>
+      <c r="W85" s="4" t="n"/>
+      <c r="X85" s="4" t="n"/>
+      <c r="Y85" s="4" t="n"/>
+      <c r="Z85" s="4" t="n"/>
+      <c r="AA85" s="4" t="n"/>
+      <c r="AB85" s="4" t="n"/>
+      <c r="AC85" s="4" t="n"/>
+      <c r="AD85" s="4" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n"/>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="4" t="n"/>
+      <c r="D86" s="4" t="n"/>
+      <c r="E86" s="4" t="n"/>
+      <c r="F86" s="4" t="n"/>
+      <c r="G86" s="4" t="n"/>
+      <c r="H86" s="4" t="n"/>
+      <c r="I86" s="4" t="n"/>
+      <c r="J86" s="4" t="n"/>
+      <c r="K86" s="4" t="n"/>
+      <c r="L86" s="4" t="n"/>
+      <c r="M86" s="4" t="n"/>
+      <c r="N86" s="4" t="n"/>
+      <c r="O86" s="4" t="n"/>
+      <c r="P86" s="4" t="n"/>
+      <c r="Q86" s="4" t="n"/>
+      <c r="R86" s="4" t="n"/>
+      <c r="S86" s="4" t="n"/>
+      <c r="T86" s="4" t="n"/>
+      <c r="U86" s="4" t="n"/>
+      <c r="V86" s="4" t="n"/>
+      <c r="W86" s="4" t="n"/>
+      <c r="X86" s="4" t="n"/>
+      <c r="Y86" s="4" t="n"/>
+      <c r="Z86" s="4" t="n"/>
+      <c r="AA86" s="4" t="n"/>
+      <c r="AB86" s="4" t="n"/>
+      <c r="AC86" s="4" t="n"/>
+      <c r="AD86" s="4" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n"/>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="4" t="n"/>
+      <c r="D87" s="4" t="n"/>
+      <c r="E87" s="4" t="n"/>
+      <c r="F87" s="4" t="n"/>
+      <c r="G87" s="4" t="n"/>
+      <c r="H87" s="4" t="n"/>
+      <c r="I87" s="4" t="n"/>
+      <c r="J87" s="4" t="n"/>
+      <c r="K87" s="4" t="n"/>
+      <c r="L87" s="4" t="n"/>
+      <c r="M87" s="4" t="n"/>
+      <c r="N87" s="4" t="n"/>
+      <c r="O87" s="4" t="n"/>
+      <c r="P87" s="4" t="n"/>
+      <c r="Q87" s="4" t="n"/>
+      <c r="R87" s="4" t="n"/>
+      <c r="S87" s="4" t="n"/>
+      <c r="T87" s="4" t="n"/>
+      <c r="U87" s="4" t="n"/>
+      <c r="V87" s="4" t="n"/>
+      <c r="W87" s="4" t="n"/>
+      <c r="X87" s="4" t="n"/>
+      <c r="Y87" s="4" t="n"/>
+      <c r="Z87" s="4" t="n"/>
+      <c r="AA87" s="4" t="n"/>
+      <c r="AB87" s="4" t="n"/>
+      <c r="AC87" s="4" t="n"/>
+      <c r="AD87" s="4" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n"/>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="4" t="n"/>
+      <c r="D88" s="4" t="n"/>
+      <c r="E88" s="4" t="n"/>
+      <c r="F88" s="4" t="n"/>
+      <c r="G88" s="4" t="n"/>
+      <c r="H88" s="4" t="n"/>
+      <c r="I88" s="4" t="n"/>
+      <c r="J88" s="4" t="n"/>
+      <c r="K88" s="4" t="n"/>
+      <c r="L88" s="4" t="n"/>
+      <c r="M88" s="4" t="n"/>
+      <c r="N88" s="4" t="n"/>
+      <c r="O88" s="4" t="n"/>
+      <c r="P88" s="4" t="n"/>
+      <c r="Q88" s="4" t="n"/>
+      <c r="R88" s="4" t="n"/>
+      <c r="S88" s="4" t="n"/>
+      <c r="T88" s="4" t="n"/>
+      <c r="U88" s="4" t="n"/>
+      <c r="V88" s="4" t="n"/>
+      <c r="W88" s="4" t="n"/>
+      <c r="X88" s="4" t="n"/>
+      <c r="Y88" s="4" t="n"/>
+      <c r="Z88" s="4" t="n"/>
+      <c r="AA88" s="4" t="n"/>
+      <c r="AB88" s="4" t="n"/>
+      <c r="AC88" s="4" t="n"/>
+      <c r="AD88" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1761,7 +3361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3189,6 +4789,1606 @@
       <c r="AC43" s="4" t="n"/>
       <c r="AD43" s="4" t="n"/>
     </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="4" t="n"/>
+      <c r="P44" s="4" t="n"/>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="4" t="n"/>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
+      <c r="H45" s="4" t="n"/>
+      <c r="I45" s="4" t="n"/>
+      <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+      <c r="S45" s="4" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="4" t="n"/>
+      <c r="V45" s="4" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
+      <c r="AA45" s="4" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AC45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
+      <c r="H46" s="4" t="n"/>
+      <c r="I46" s="4" t="n"/>
+      <c r="J46" s="4" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
+      <c r="O46" s="4" t="n"/>
+      <c r="P46" s="4" t="n"/>
+      <c r="Q46" s="4" t="n"/>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="4" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="4" t="n"/>
+      <c r="V46" s="4" t="n"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n"/>
+      <c r="AA46" s="4" t="n"/>
+      <c r="AB46" s="4" t="n"/>
+      <c r="AC46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
+      <c r="P47" s="4" t="n"/>
+      <c r="Q47" s="4" t="n"/>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="4" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n"/>
+      <c r="AA47" s="4" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AC47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="n"/>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
+      <c r="AB48" s="4" t="n"/>
+      <c r="AC48" s="4" t="n"/>
+      <c r="AD48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n"/>
+      <c r="AA49" s="4" t="n"/>
+      <c r="AB49" s="4" t="n"/>
+      <c r="AC49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="4" t="n"/>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="n"/>
+      <c r="Q50" s="4" t="n"/>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
+      <c r="AB50" s="4" t="n"/>
+      <c r="AC50" s="4" t="n"/>
+      <c r="AD50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="4" t="n"/>
+      <c r="I51" s="4" t="n"/>
+      <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
+      <c r="O51" s="4" t="n"/>
+      <c r="P51" s="4" t="n"/>
+      <c r="Q51" s="4" t="n"/>
+      <c r="R51" s="4" t="n"/>
+      <c r="S51" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
+      <c r="V51" s="4" t="n"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="n"/>
+      <c r="AA51" s="4" t="n"/>
+      <c r="AB51" s="4" t="n"/>
+      <c r="AC51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="4" t="n"/>
+      <c r="I52" s="4" t="n"/>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
+      <c r="O52" s="4" t="n"/>
+      <c r="P52" s="4" t="n"/>
+      <c r="Q52" s="4" t="n"/>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
+      <c r="AA52" s="4" t="n"/>
+      <c r="AB52" s="4" t="n"/>
+      <c r="AC52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
+      <c r="AA53" s="4" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AC53" s="4" t="n"/>
+      <c r="AD53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="n"/>
+      <c r="Q54" s="4" t="n"/>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="4" t="n"/>
+      <c r="Y54" s="4" t="n"/>
+      <c r="Z54" s="4" t="n"/>
+      <c r="AA54" s="4" t="n"/>
+      <c r="AB54" s="4" t="n"/>
+      <c r="AC54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+      <c r="O55" s="4" t="n"/>
+      <c r="P55" s="4" t="n"/>
+      <c r="Q55" s="4" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="4" t="n"/>
+      <c r="Y55" s="4" t="n"/>
+      <c r="Z55" s="4" t="n"/>
+      <c r="AA55" s="4" t="n"/>
+      <c r="AB55" s="4" t="n"/>
+      <c r="AC55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+      <c r="O56" s="4" t="n"/>
+      <c r="P56" s="4" t="n"/>
+      <c r="Q56" s="4" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="4" t="n"/>
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="4" t="n"/>
+      <c r="V56" s="4" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="X56" s="4" t="n"/>
+      <c r="Y56" s="4" t="n"/>
+      <c r="Z56" s="4" t="n"/>
+      <c r="AA56" s="4" t="n"/>
+      <c r="AB56" s="4" t="n"/>
+      <c r="AC56" s="4" t="n"/>
+      <c r="AD56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="n"/>
+      <c r="Q57" s="4" t="n"/>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="X57" s="4" t="n"/>
+      <c r="Y57" s="4" t="n"/>
+      <c r="Z57" s="4" t="n"/>
+      <c r="AA57" s="4" t="n"/>
+      <c r="AB57" s="4" t="n"/>
+      <c r="AC57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="n"/>
+      <c r="Q58" s="4" t="n"/>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="X58" s="4" t="n"/>
+      <c r="Y58" s="4" t="n"/>
+      <c r="Z58" s="4" t="n"/>
+      <c r="AA58" s="4" t="n"/>
+      <c r="AB58" s="4" t="n"/>
+      <c r="AC58" s="4" t="n"/>
+      <c r="AD58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="n"/>
+      <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
+      <c r="O59" s="4" t="n"/>
+      <c r="P59" s="4" t="n"/>
+      <c r="Q59" s="4" t="n"/>
+      <c r="R59" s="4" t="n"/>
+      <c r="S59" s="4" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="4" t="n"/>
+      <c r="V59" s="4" t="n"/>
+      <c r="W59" s="4" t="n"/>
+      <c r="X59" s="4" t="n"/>
+      <c r="Y59" s="4" t="n"/>
+      <c r="Z59" s="4" t="n"/>
+      <c r="AA59" s="4" t="n"/>
+      <c r="AB59" s="4" t="n"/>
+      <c r="AC59" s="4" t="n"/>
+      <c r="AD59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+      <c r="H60" s="4" t="n"/>
+      <c r="I60" s="4" t="n"/>
+      <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
+      <c r="O60" s="4" t="n"/>
+      <c r="P60" s="4" t="n"/>
+      <c r="Q60" s="4" t="n"/>
+      <c r="R60" s="4" t="n"/>
+      <c r="S60" s="4" t="n"/>
+      <c r="T60" s="4" t="n"/>
+      <c r="U60" s="4" t="n"/>
+      <c r="V60" s="4" t="n"/>
+      <c r="W60" s="4" t="n"/>
+      <c r="X60" s="4" t="n"/>
+      <c r="Y60" s="4" t="n"/>
+      <c r="Z60" s="4" t="n"/>
+      <c r="AA60" s="4" t="n"/>
+      <c r="AB60" s="4" t="n"/>
+      <c r="AC60" s="4" t="n"/>
+      <c r="AD60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="4" t="n"/>
+      <c r="G61" s="4" t="n"/>
+      <c r="H61" s="4" t="n"/>
+      <c r="I61" s="4" t="n"/>
+      <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
+      <c r="O61" s="4" t="n"/>
+      <c r="P61" s="4" t="n"/>
+      <c r="Q61" s="4" t="n"/>
+      <c r="R61" s="4" t="n"/>
+      <c r="S61" s="4" t="n"/>
+      <c r="T61" s="4" t="n"/>
+      <c r="U61" s="4" t="n"/>
+      <c r="V61" s="4" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="X61" s="4" t="n"/>
+      <c r="Y61" s="4" t="n"/>
+      <c r="Z61" s="4" t="n"/>
+      <c r="AA61" s="4" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AC61" s="4" t="n"/>
+      <c r="AD61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
+      <c r="G62" s="4" t="n"/>
+      <c r="H62" s="4" t="n"/>
+      <c r="I62" s="4" t="n"/>
+      <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
+      <c r="O62" s="4" t="n"/>
+      <c r="P62" s="4" t="n"/>
+      <c r="Q62" s="4" t="n"/>
+      <c r="R62" s="4" t="n"/>
+      <c r="S62" s="4" t="n"/>
+      <c r="T62" s="4" t="n"/>
+      <c r="U62" s="4" t="n"/>
+      <c r="V62" s="4" t="n"/>
+      <c r="W62" s="4" t="n"/>
+      <c r="X62" s="4" t="n"/>
+      <c r="Y62" s="4" t="n"/>
+      <c r="Z62" s="4" t="n"/>
+      <c r="AA62" s="4" t="n"/>
+      <c r="AB62" s="4" t="n"/>
+      <c r="AC62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
+      <c r="G63" s="4" t="n"/>
+      <c r="H63" s="4" t="n"/>
+      <c r="I63" s="4" t="n"/>
+      <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
+      <c r="O63" s="4" t="n"/>
+      <c r="P63" s="4" t="n"/>
+      <c r="Q63" s="4" t="n"/>
+      <c r="R63" s="4" t="n"/>
+      <c r="S63" s="4" t="n"/>
+      <c r="T63" s="4" t="n"/>
+      <c r="U63" s="4" t="n"/>
+      <c r="V63" s="4" t="n"/>
+      <c r="W63" s="4" t="n"/>
+      <c r="X63" s="4" t="n"/>
+      <c r="Y63" s="4" t="n"/>
+      <c r="Z63" s="4" t="n"/>
+      <c r="AA63" s="4" t="n"/>
+      <c r="AB63" s="4" t="n"/>
+      <c r="AC63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
+      <c r="G64" s="4" t="n"/>
+      <c r="H64" s="4" t="n"/>
+      <c r="I64" s="4" t="n"/>
+      <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
+      <c r="O64" s="4" t="n"/>
+      <c r="P64" s="4" t="n"/>
+      <c r="Q64" s="4" t="n"/>
+      <c r="R64" s="4" t="n"/>
+      <c r="S64" s="4" t="n"/>
+      <c r="T64" s="4" t="n"/>
+      <c r="U64" s="4" t="n"/>
+      <c r="V64" s="4" t="n"/>
+      <c r="W64" s="4" t="n"/>
+      <c r="X64" s="4" t="n"/>
+      <c r="Y64" s="4" t="n"/>
+      <c r="Z64" s="4" t="n"/>
+      <c r="AA64" s="4" t="n"/>
+      <c r="AB64" s="4" t="n"/>
+      <c r="AC64" s="4" t="n"/>
+      <c r="AD64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
+      <c r="G65" s="4" t="n"/>
+      <c r="H65" s="4" t="n"/>
+      <c r="I65" s="4" t="n"/>
+      <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
+      <c r="O65" s="4" t="n"/>
+      <c r="P65" s="4" t="n"/>
+      <c r="Q65" s="4" t="n"/>
+      <c r="R65" s="4" t="n"/>
+      <c r="S65" s="4" t="n"/>
+      <c r="T65" s="4" t="n"/>
+      <c r="U65" s="4" t="n"/>
+      <c r="V65" s="4" t="n"/>
+      <c r="W65" s="4" t="n"/>
+      <c r="X65" s="4" t="n"/>
+      <c r="Y65" s="4" t="n"/>
+      <c r="Z65" s="4" t="n"/>
+      <c r="AA65" s="4" t="n"/>
+      <c r="AB65" s="4" t="n"/>
+      <c r="AC65" s="4" t="n"/>
+      <c r="AD65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
+      <c r="G66" s="4" t="n"/>
+      <c r="H66" s="4" t="n"/>
+      <c r="I66" s="4" t="n"/>
+      <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
+      <c r="O66" s="4" t="n"/>
+      <c r="P66" s="4" t="n"/>
+      <c r="Q66" s="4" t="n"/>
+      <c r="R66" s="4" t="n"/>
+      <c r="S66" s="4" t="n"/>
+      <c r="T66" s="4" t="n"/>
+      <c r="U66" s="4" t="n"/>
+      <c r="V66" s="4" t="n"/>
+      <c r="W66" s="4" t="n"/>
+      <c r="X66" s="4" t="n"/>
+      <c r="Y66" s="4" t="n"/>
+      <c r="Z66" s="4" t="n"/>
+      <c r="AA66" s="4" t="n"/>
+      <c r="AB66" s="4" t="n"/>
+      <c r="AC66" s="4" t="n"/>
+      <c r="AD66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
+      <c r="G67" s="4" t="n"/>
+      <c r="H67" s="4" t="n"/>
+      <c r="I67" s="4" t="n"/>
+      <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="4" t="n"/>
+      <c r="N67" s="4" t="n"/>
+      <c r="O67" s="4" t="n"/>
+      <c r="P67" s="4" t="n"/>
+      <c r="Q67" s="4" t="n"/>
+      <c r="R67" s="4" t="n"/>
+      <c r="S67" s="4" t="n"/>
+      <c r="T67" s="4" t="n"/>
+      <c r="U67" s="4" t="n"/>
+      <c r="V67" s="4" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="X67" s="4" t="n"/>
+      <c r="Y67" s="4" t="n"/>
+      <c r="Z67" s="4" t="n"/>
+      <c r="AA67" s="4" t="n"/>
+      <c r="AB67" s="4" t="n"/>
+      <c r="AC67" s="4" t="n"/>
+      <c r="AD67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
+      <c r="G68" s="4" t="n"/>
+      <c r="H68" s="4" t="n"/>
+      <c r="I68" s="4" t="n"/>
+      <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="4" t="n"/>
+      <c r="N68" s="4" t="n"/>
+      <c r="O68" s="4" t="n"/>
+      <c r="P68" s="4" t="n"/>
+      <c r="Q68" s="4" t="n"/>
+      <c r="R68" s="4" t="n"/>
+      <c r="S68" s="4" t="n"/>
+      <c r="T68" s="4" t="n"/>
+      <c r="U68" s="4" t="n"/>
+      <c r="V68" s="4" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="X68" s="4" t="n"/>
+      <c r="Y68" s="4" t="n"/>
+      <c r="Z68" s="4" t="n"/>
+      <c r="AA68" s="4" t="n"/>
+      <c r="AB68" s="4" t="n"/>
+      <c r="AC68" s="4" t="n"/>
+      <c r="AD68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
+      <c r="G69" s="4" t="n"/>
+      <c r="H69" s="4" t="n"/>
+      <c r="I69" s="4" t="n"/>
+      <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="4" t="n"/>
+      <c r="N69" s="4" t="n"/>
+      <c r="O69" s="4" t="n"/>
+      <c r="P69" s="4" t="n"/>
+      <c r="Q69" s="4" t="n"/>
+      <c r="R69" s="4" t="n"/>
+      <c r="S69" s="4" t="n"/>
+      <c r="T69" s="4" t="n"/>
+      <c r="U69" s="4" t="n"/>
+      <c r="V69" s="4" t="n"/>
+      <c r="W69" s="4" t="n"/>
+      <c r="X69" s="4" t="n"/>
+      <c r="Y69" s="4" t="n"/>
+      <c r="Z69" s="4" t="n"/>
+      <c r="AA69" s="4" t="n"/>
+      <c r="AB69" s="4" t="n"/>
+      <c r="AC69" s="4" t="n"/>
+      <c r="AD69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
+      <c r="G70" s="4" t="n"/>
+      <c r="H70" s="4" t="n"/>
+      <c r="I70" s="4" t="n"/>
+      <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="4" t="n"/>
+      <c r="N70" s="4" t="n"/>
+      <c r="O70" s="4" t="n"/>
+      <c r="P70" s="4" t="n"/>
+      <c r="Q70" s="4" t="n"/>
+      <c r="R70" s="4" t="n"/>
+      <c r="S70" s="4" t="n"/>
+      <c r="T70" s="4" t="n"/>
+      <c r="U70" s="4" t="n"/>
+      <c r="V70" s="4" t="n"/>
+      <c r="W70" s="4" t="n"/>
+      <c r="X70" s="4" t="n"/>
+      <c r="Y70" s="4" t="n"/>
+      <c r="Z70" s="4" t="n"/>
+      <c r="AA70" s="4" t="n"/>
+      <c r="AB70" s="4" t="n"/>
+      <c r="AC70" s="4" t="n"/>
+      <c r="AD70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
+      <c r="G71" s="4" t="n"/>
+      <c r="H71" s="4" t="n"/>
+      <c r="I71" s="4" t="n"/>
+      <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="4" t="n"/>
+      <c r="N71" s="4" t="n"/>
+      <c r="O71" s="4" t="n"/>
+      <c r="P71" s="4" t="n"/>
+      <c r="Q71" s="4" t="n"/>
+      <c r="R71" s="4" t="n"/>
+      <c r="S71" s="4" t="n"/>
+      <c r="T71" s="4" t="n"/>
+      <c r="U71" s="4" t="n"/>
+      <c r="V71" s="4" t="n"/>
+      <c r="W71" s="4" t="n"/>
+      <c r="X71" s="4" t="n"/>
+      <c r="Y71" s="4" t="n"/>
+      <c r="Z71" s="4" t="n"/>
+      <c r="AA71" s="4" t="n"/>
+      <c r="AB71" s="4" t="n"/>
+      <c r="AC71" s="4" t="n"/>
+      <c r="AD71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="n"/>
+      <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
+      <c r="O72" s="4" t="n"/>
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="n"/>
+      <c r="R72" s="4" t="n"/>
+      <c r="S72" s="4" t="n"/>
+      <c r="T72" s="4" t="n"/>
+      <c r="U72" s="4" t="n"/>
+      <c r="V72" s="4" t="n"/>
+      <c r="W72" s="4" t="n"/>
+      <c r="X72" s="4" t="n"/>
+      <c r="Y72" s="4" t="n"/>
+      <c r="Z72" s="4" t="n"/>
+      <c r="AA72" s="4" t="n"/>
+      <c r="AB72" s="4" t="n"/>
+      <c r="AC72" s="4" t="n"/>
+      <c r="AD72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
+      <c r="G73" s="4" t="n"/>
+      <c r="H73" s="4" t="n"/>
+      <c r="I73" s="4" t="n"/>
+      <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="4" t="n"/>
+      <c r="N73" s="4" t="n"/>
+      <c r="O73" s="4" t="n"/>
+      <c r="P73" s="4" t="n"/>
+      <c r="Q73" s="4" t="n"/>
+      <c r="R73" s="4" t="n"/>
+      <c r="S73" s="4" t="n"/>
+      <c r="T73" s="4" t="n"/>
+      <c r="U73" s="4" t="n"/>
+      <c r="V73" s="4" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="X73" s="4" t="n"/>
+      <c r="Y73" s="4" t="n"/>
+      <c r="Z73" s="4" t="n"/>
+      <c r="AA73" s="4" t="n"/>
+      <c r="AB73" s="4" t="n"/>
+      <c r="AC73" s="4" t="n"/>
+      <c r="AD73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
+      <c r="G74" s="4" t="n"/>
+      <c r="H74" s="4" t="n"/>
+      <c r="I74" s="4" t="n"/>
+      <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="4" t="n"/>
+      <c r="N74" s="4" t="n"/>
+      <c r="O74" s="4" t="n"/>
+      <c r="P74" s="4" t="n"/>
+      <c r="Q74" s="4" t="n"/>
+      <c r="R74" s="4" t="n"/>
+      <c r="S74" s="4" t="n"/>
+      <c r="T74" s="4" t="n"/>
+      <c r="U74" s="4" t="n"/>
+      <c r="V74" s="4" t="n"/>
+      <c r="W74" s="4" t="n"/>
+      <c r="X74" s="4" t="n"/>
+      <c r="Y74" s="4" t="n"/>
+      <c r="Z74" s="4" t="n"/>
+      <c r="AA74" s="4" t="n"/>
+      <c r="AB74" s="4" t="n"/>
+      <c r="AC74" s="4" t="n"/>
+      <c r="AD74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
+      <c r="G75" s="4" t="n"/>
+      <c r="H75" s="4" t="n"/>
+      <c r="I75" s="4" t="n"/>
+      <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="4" t="n"/>
+      <c r="N75" s="4" t="n"/>
+      <c r="O75" s="4" t="n"/>
+      <c r="P75" s="4" t="n"/>
+      <c r="Q75" s="4" t="n"/>
+      <c r="R75" s="4" t="n"/>
+      <c r="S75" s="4" t="n"/>
+      <c r="T75" s="4" t="n"/>
+      <c r="U75" s="4" t="n"/>
+      <c r="V75" s="4" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="X75" s="4" t="n"/>
+      <c r="Y75" s="4" t="n"/>
+      <c r="Z75" s="4" t="n"/>
+      <c r="AA75" s="4" t="n"/>
+      <c r="AB75" s="4" t="n"/>
+      <c r="AC75" s="4" t="n"/>
+      <c r="AD75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
+      <c r="G76" s="4" t="n"/>
+      <c r="H76" s="4" t="n"/>
+      <c r="I76" s="4" t="n"/>
+      <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="4" t="n"/>
+      <c r="N76" s="4" t="n"/>
+      <c r="O76" s="4" t="n"/>
+      <c r="P76" s="4" t="n"/>
+      <c r="Q76" s="4" t="n"/>
+      <c r="R76" s="4" t="n"/>
+      <c r="S76" s="4" t="n"/>
+      <c r="T76" s="4" t="n"/>
+      <c r="U76" s="4" t="n"/>
+      <c r="V76" s="4" t="n"/>
+      <c r="W76" s="4" t="n"/>
+      <c r="X76" s="4" t="n"/>
+      <c r="Y76" s="4" t="n"/>
+      <c r="Z76" s="4" t="n"/>
+      <c r="AA76" s="4" t="n"/>
+      <c r="AB76" s="4" t="n"/>
+      <c r="AC76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="4" t="n"/>
+      <c r="I77" s="4" t="n"/>
+      <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
+      <c r="O77" s="4" t="n"/>
+      <c r="P77" s="4" t="n"/>
+      <c r="Q77" s="4" t="n"/>
+      <c r="R77" s="4" t="n"/>
+      <c r="S77" s="4" t="n"/>
+      <c r="T77" s="4" t="n"/>
+      <c r="U77" s="4" t="n"/>
+      <c r="V77" s="4" t="n"/>
+      <c r="W77" s="4" t="n"/>
+      <c r="X77" s="4" t="n"/>
+      <c r="Y77" s="4" t="n"/>
+      <c r="Z77" s="4" t="n"/>
+      <c r="AA77" s="4" t="n"/>
+      <c r="AB77" s="4" t="n"/>
+      <c r="AC77" s="4" t="n"/>
+      <c r="AD77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="4" t="n"/>
+      <c r="I78" s="4" t="n"/>
+      <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
+      <c r="O78" s="4" t="n"/>
+      <c r="P78" s="4" t="n"/>
+      <c r="Q78" s="4" t="n"/>
+      <c r="R78" s="4" t="n"/>
+      <c r="S78" s="4" t="n"/>
+      <c r="T78" s="4" t="n"/>
+      <c r="U78" s="4" t="n"/>
+      <c r="V78" s="4" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="X78" s="4" t="n"/>
+      <c r="Y78" s="4" t="n"/>
+      <c r="Z78" s="4" t="n"/>
+      <c r="AA78" s="4" t="n"/>
+      <c r="AB78" s="4" t="n"/>
+      <c r="AC78" s="4" t="n"/>
+      <c r="AD78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="4" t="n"/>
+      <c r="I79" s="4" t="n"/>
+      <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
+      <c r="O79" s="4" t="n"/>
+      <c r="P79" s="4" t="n"/>
+      <c r="Q79" s="4" t="n"/>
+      <c r="R79" s="4" t="n"/>
+      <c r="S79" s="4" t="n"/>
+      <c r="T79" s="4" t="n"/>
+      <c r="U79" s="4" t="n"/>
+      <c r="V79" s="4" t="n"/>
+      <c r="W79" s="4" t="n"/>
+      <c r="X79" s="4" t="n"/>
+      <c r="Y79" s="4" t="n"/>
+      <c r="Z79" s="4" t="n"/>
+      <c r="AA79" s="4" t="n"/>
+      <c r="AB79" s="4" t="n"/>
+      <c r="AC79" s="4" t="n"/>
+      <c r="AD79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="4" t="n"/>
+      <c r="I80" s="4" t="n"/>
+      <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
+      <c r="O80" s="4" t="n"/>
+      <c r="P80" s="4" t="n"/>
+      <c r="Q80" s="4" t="n"/>
+      <c r="R80" s="4" t="n"/>
+      <c r="S80" s="4" t="n"/>
+      <c r="T80" s="4" t="n"/>
+      <c r="U80" s="4" t="n"/>
+      <c r="V80" s="4" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="X80" s="4" t="n"/>
+      <c r="Y80" s="4" t="n"/>
+      <c r="Z80" s="4" t="n"/>
+      <c r="AA80" s="4" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AC80" s="4" t="n"/>
+      <c r="AD80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
+      <c r="G81" s="4" t="n"/>
+      <c r="H81" s="4" t="n"/>
+      <c r="I81" s="4" t="n"/>
+      <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="4" t="n"/>
+      <c r="N81" s="4" t="n"/>
+      <c r="O81" s="4" t="n"/>
+      <c r="P81" s="4" t="n"/>
+      <c r="Q81" s="4" t="n"/>
+      <c r="R81" s="4" t="n"/>
+      <c r="S81" s="4" t="n"/>
+      <c r="T81" s="4" t="n"/>
+      <c r="U81" s="4" t="n"/>
+      <c r="V81" s="4" t="n"/>
+      <c r="W81" s="4" t="n"/>
+      <c r="X81" s="4" t="n"/>
+      <c r="Y81" s="4" t="n"/>
+      <c r="Z81" s="4" t="n"/>
+      <c r="AA81" s="4" t="n"/>
+      <c r="AB81" s="4" t="n"/>
+      <c r="AC81" s="4" t="n"/>
+      <c r="AD81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
+      <c r="G82" s="4" t="n"/>
+      <c r="H82" s="4" t="n"/>
+      <c r="I82" s="4" t="n"/>
+      <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="4" t="n"/>
+      <c r="N82" s="4" t="n"/>
+      <c r="O82" s="4" t="n"/>
+      <c r="P82" s="4" t="n"/>
+      <c r="Q82" s="4" t="n"/>
+      <c r="R82" s="4" t="n"/>
+      <c r="S82" s="4" t="n"/>
+      <c r="T82" s="4" t="n"/>
+      <c r="U82" s="4" t="n"/>
+      <c r="V82" s="4" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="X82" s="4" t="n"/>
+      <c r="Y82" s="4" t="n"/>
+      <c r="Z82" s="4" t="n"/>
+      <c r="AA82" s="4" t="n"/>
+      <c r="AB82" s="4" t="n"/>
+      <c r="AC82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="4" t="n"/>
+      <c r="I83" s="4" t="n"/>
+      <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="4" t="n"/>
+      <c r="N83" s="4" t="n"/>
+      <c r="O83" s="4" t="n"/>
+      <c r="P83" s="4" t="n"/>
+      <c r="Q83" s="4" t="n"/>
+      <c r="R83" s="4" t="n"/>
+      <c r="S83" s="4" t="n"/>
+      <c r="T83" s="4" t="n"/>
+      <c r="U83" s="4" t="n"/>
+      <c r="V83" s="4" t="n"/>
+      <c r="W83" s="4" t="n"/>
+      <c r="X83" s="4" t="n"/>
+      <c r="Y83" s="4" t="n"/>
+      <c r="Z83" s="4" t="n"/>
+      <c r="AA83" s="4" t="n"/>
+      <c r="AB83" s="4" t="n"/>
+      <c r="AC83" s="4" t="n"/>
+      <c r="AD83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
+      <c r="T84" s="4" t="n"/>
+      <c r="U84" s="4" t="n"/>
+      <c r="V84" s="4" t="n"/>
+      <c r="W84" s="4" t="n"/>
+      <c r="X84" s="4" t="n"/>
+      <c r="Y84" s="4" t="n"/>
+      <c r="Z84" s="4" t="n"/>
+      <c r="AA84" s="4" t="n"/>
+      <c r="AB84" s="4" t="n"/>
+      <c r="AC84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n"/>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="4" t="n"/>
+      <c r="D85" s="4" t="n"/>
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="4" t="n"/>
+      <c r="G85" s="4" t="n"/>
+      <c r="H85" s="4" t="n"/>
+      <c r="I85" s="4" t="n"/>
+      <c r="J85" s="4" t="n"/>
+      <c r="K85" s="4" t="n"/>
+      <c r="L85" s="4" t="n"/>
+      <c r="M85" s="4" t="n"/>
+      <c r="N85" s="4" t="n"/>
+      <c r="O85" s="4" t="n"/>
+      <c r="P85" s="4" t="n"/>
+      <c r="Q85" s="4" t="n"/>
+      <c r="R85" s="4" t="n"/>
+      <c r="S85" s="4" t="n"/>
+      <c r="T85" s="4" t="n"/>
+      <c r="U85" s="4" t="n"/>
+      <c r="V85" s="4" t="n"/>
+      <c r="W85" s="4" t="n"/>
+      <c r="X85" s="4" t="n"/>
+      <c r="Y85" s="4" t="n"/>
+      <c r="Z85" s="4" t="n"/>
+      <c r="AA85" s="4" t="n"/>
+      <c r="AB85" s="4" t="n"/>
+      <c r="AC85" s="4" t="n"/>
+      <c r="AD85" s="4" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n"/>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="4" t="n"/>
+      <c r="D86" s="4" t="n"/>
+      <c r="E86" s="4" t="n"/>
+      <c r="F86" s="4" t="n"/>
+      <c r="G86" s="4" t="n"/>
+      <c r="H86" s="4" t="n"/>
+      <c r="I86" s="4" t="n"/>
+      <c r="J86" s="4" t="n"/>
+      <c r="K86" s="4" t="n"/>
+      <c r="L86" s="4" t="n"/>
+      <c r="M86" s="4" t="n"/>
+      <c r="N86" s="4" t="n"/>
+      <c r="O86" s="4" t="n"/>
+      <c r="P86" s="4" t="n"/>
+      <c r="Q86" s="4" t="n"/>
+      <c r="R86" s="4" t="n"/>
+      <c r="S86" s="4" t="n"/>
+      <c r="T86" s="4" t="n"/>
+      <c r="U86" s="4" t="n"/>
+      <c r="V86" s="4" t="n"/>
+      <c r="W86" s="4" t="n"/>
+      <c r="X86" s="4" t="n"/>
+      <c r="Y86" s="4" t="n"/>
+      <c r="Z86" s="4" t="n"/>
+      <c r="AA86" s="4" t="n"/>
+      <c r="AB86" s="4" t="n"/>
+      <c r="AC86" s="4" t="n"/>
+      <c r="AD86" s="4" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n"/>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="4" t="n"/>
+      <c r="D87" s="4" t="n"/>
+      <c r="E87" s="4" t="n"/>
+      <c r="F87" s="4" t="n"/>
+      <c r="G87" s="4" t="n"/>
+      <c r="H87" s="4" t="n"/>
+      <c r="I87" s="4" t="n"/>
+      <c r="J87" s="4" t="n"/>
+      <c r="K87" s="4" t="n"/>
+      <c r="L87" s="4" t="n"/>
+      <c r="M87" s="4" t="n"/>
+      <c r="N87" s="4" t="n"/>
+      <c r="O87" s="4" t="n"/>
+      <c r="P87" s="4" t="n"/>
+      <c r="Q87" s="4" t="n"/>
+      <c r="R87" s="4" t="n"/>
+      <c r="S87" s="4" t="n"/>
+      <c r="T87" s="4" t="n"/>
+      <c r="U87" s="4" t="n"/>
+      <c r="V87" s="4" t="n"/>
+      <c r="W87" s="4" t="n"/>
+      <c r="X87" s="4" t="n"/>
+      <c r="Y87" s="4" t="n"/>
+      <c r="Z87" s="4" t="n"/>
+      <c r="AA87" s="4" t="n"/>
+      <c r="AB87" s="4" t="n"/>
+      <c r="AC87" s="4" t="n"/>
+      <c r="AD87" s="4" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n"/>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="4" t="n"/>
+      <c r="D88" s="4" t="n"/>
+      <c r="E88" s="4" t="n"/>
+      <c r="F88" s="4" t="n"/>
+      <c r="G88" s="4" t="n"/>
+      <c r="H88" s="4" t="n"/>
+      <c r="I88" s="4" t="n"/>
+      <c r="J88" s="4" t="n"/>
+      <c r="K88" s="4" t="n"/>
+      <c r="L88" s="4" t="n"/>
+      <c r="M88" s="4" t="n"/>
+      <c r="N88" s="4" t="n"/>
+      <c r="O88" s="4" t="n"/>
+      <c r="P88" s="4" t="n"/>
+      <c r="Q88" s="4" t="n"/>
+      <c r="R88" s="4" t="n"/>
+      <c r="S88" s="4" t="n"/>
+      <c r="T88" s="4" t="n"/>
+      <c r="U88" s="4" t="n"/>
+      <c r="V88" s="4" t="n"/>
+      <c r="W88" s="4" t="n"/>
+      <c r="X88" s="4" t="n"/>
+      <c r="Y88" s="4" t="n"/>
+      <c r="Z88" s="4" t="n"/>
+      <c r="AA88" s="4" t="n"/>
+      <c r="AB88" s="4" t="n"/>
+      <c r="AC88" s="4" t="n"/>
+      <c r="AD88" s="4" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n"/>
+      <c r="B89" s="4" t="n"/>
+      <c r="C89" s="4" t="n"/>
+      <c r="D89" s="4" t="n"/>
+      <c r="E89" s="4" t="n"/>
+      <c r="F89" s="4" t="n"/>
+      <c r="G89" s="4" t="n"/>
+      <c r="H89" s="4" t="n"/>
+      <c r="I89" s="4" t="n"/>
+      <c r="J89" s="4" t="n"/>
+      <c r="K89" s="4" t="n"/>
+      <c r="L89" s="4" t="n"/>
+      <c r="M89" s="4" t="n"/>
+      <c r="N89" s="4" t="n"/>
+      <c r="O89" s="4" t="n"/>
+      <c r="P89" s="4" t="n"/>
+      <c r="Q89" s="4" t="n"/>
+      <c r="R89" s="4" t="n"/>
+      <c r="S89" s="4" t="n"/>
+      <c r="T89" s="4" t="n"/>
+      <c r="U89" s="4" t="n"/>
+      <c r="V89" s="4" t="n"/>
+      <c r="W89" s="4" t="n"/>
+      <c r="X89" s="4" t="n"/>
+      <c r="Y89" s="4" t="n"/>
+      <c r="Z89" s="4" t="n"/>
+      <c r="AA89" s="4" t="n"/>
+      <c r="AB89" s="4" t="n"/>
+      <c r="AC89" s="4" t="n"/>
+      <c r="AD89" s="4" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n"/>
+      <c r="B90" s="4" t="n"/>
+      <c r="C90" s="4" t="n"/>
+      <c r="D90" s="4" t="n"/>
+      <c r="E90" s="4" t="n"/>
+      <c r="F90" s="4" t="n"/>
+      <c r="G90" s="4" t="n"/>
+      <c r="H90" s="4" t="n"/>
+      <c r="I90" s="4" t="n"/>
+      <c r="J90" s="4" t="n"/>
+      <c r="K90" s="4" t="n"/>
+      <c r="L90" s="4" t="n"/>
+      <c r="M90" s="4" t="n"/>
+      <c r="N90" s="4" t="n"/>
+      <c r="O90" s="4" t="n"/>
+      <c r="P90" s="4" t="n"/>
+      <c r="Q90" s="4" t="n"/>
+      <c r="R90" s="4" t="n"/>
+      <c r="S90" s="4" t="n"/>
+      <c r="T90" s="4" t="n"/>
+      <c r="U90" s="4" t="n"/>
+      <c r="V90" s="4" t="n"/>
+      <c r="W90" s="4" t="n"/>
+      <c r="X90" s="4" t="n"/>
+      <c r="Y90" s="4" t="n"/>
+      <c r="Z90" s="4" t="n"/>
+      <c r="AA90" s="4" t="n"/>
+      <c r="AB90" s="4" t="n"/>
+      <c r="AC90" s="4" t="n"/>
+      <c r="AD90" s="4" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n"/>
+      <c r="B91" s="4" t="n"/>
+      <c r="C91" s="4" t="n"/>
+      <c r="D91" s="4" t="n"/>
+      <c r="E91" s="4" t="n"/>
+      <c r="F91" s="4" t="n"/>
+      <c r="G91" s="4" t="n"/>
+      <c r="H91" s="4" t="n"/>
+      <c r="I91" s="4" t="n"/>
+      <c r="J91" s="4" t="n"/>
+      <c r="K91" s="4" t="n"/>
+      <c r="L91" s="4" t="n"/>
+      <c r="M91" s="4" t="n"/>
+      <c r="N91" s="4" t="n"/>
+      <c r="O91" s="4" t="n"/>
+      <c r="P91" s="4" t="n"/>
+      <c r="Q91" s="4" t="n"/>
+      <c r="R91" s="4" t="n"/>
+      <c r="S91" s="4" t="n"/>
+      <c r="T91" s="4" t="n"/>
+      <c r="U91" s="4" t="n"/>
+      <c r="V91" s="4" t="n"/>
+      <c r="W91" s="4" t="n"/>
+      <c r="X91" s="4" t="n"/>
+      <c r="Y91" s="4" t="n"/>
+      <c r="Z91" s="4" t="n"/>
+      <c r="AA91" s="4" t="n"/>
+      <c r="AB91" s="4" t="n"/>
+      <c r="AC91" s="4" t="n"/>
+      <c r="AD91" s="4" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n"/>
+      <c r="B92" s="4" t="n"/>
+      <c r="C92" s="4" t="n"/>
+      <c r="D92" s="4" t="n"/>
+      <c r="E92" s="4" t="n"/>
+      <c r="F92" s="4" t="n"/>
+      <c r="G92" s="4" t="n"/>
+      <c r="H92" s="4" t="n"/>
+      <c r="I92" s="4" t="n"/>
+      <c r="J92" s="4" t="n"/>
+      <c r="K92" s="4" t="n"/>
+      <c r="L92" s="4" t="n"/>
+      <c r="M92" s="4" t="n"/>
+      <c r="N92" s="4" t="n"/>
+      <c r="O92" s="4" t="n"/>
+      <c r="P92" s="4" t="n"/>
+      <c r="Q92" s="4" t="n"/>
+      <c r="R92" s="4" t="n"/>
+      <c r="S92" s="4" t="n"/>
+      <c r="T92" s="4" t="n"/>
+      <c r="U92" s="4" t="n"/>
+      <c r="V92" s="4" t="n"/>
+      <c r="W92" s="4" t="n"/>
+      <c r="X92" s="4" t="n"/>
+      <c r="Y92" s="4" t="n"/>
+      <c r="Z92" s="4" t="n"/>
+      <c r="AA92" s="4" t="n"/>
+      <c r="AB92" s="4" t="n"/>
+      <c r="AC92" s="4" t="n"/>
+      <c r="AD92" s="4" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n"/>
+      <c r="B93" s="4" t="n"/>
+      <c r="C93" s="4" t="n"/>
+      <c r="D93" s="4" t="n"/>
+      <c r="E93" s="4" t="n"/>
+      <c r="F93" s="4" t="n"/>
+      <c r="G93" s="4" t="n"/>
+      <c r="H93" s="4" t="n"/>
+      <c r="I93" s="4" t="n"/>
+      <c r="J93" s="4" t="n"/>
+      <c r="K93" s="4" t="n"/>
+      <c r="L93" s="4" t="n"/>
+      <c r="M93" s="4" t="n"/>
+      <c r="N93" s="4" t="n"/>
+      <c r="O93" s="4" t="n"/>
+      <c r="P93" s="4" t="n"/>
+      <c r="Q93" s="4" t="n"/>
+      <c r="R93" s="4" t="n"/>
+      <c r="S93" s="4" t="n"/>
+      <c r="T93" s="4" t="n"/>
+      <c r="U93" s="4" t="n"/>
+      <c r="V93" s="4" t="n"/>
+      <c r="W93" s="4" t="n"/>
+      <c r="X93" s="4" t="n"/>
+      <c r="Y93" s="4" t="n"/>
+      <c r="Z93" s="4" t="n"/>
+      <c r="AA93" s="4" t="n"/>
+      <c r="AB93" s="4" t="n"/>
+      <c r="AC93" s="4" t="n"/>
+      <c r="AD93" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3201,7 +6401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD195"/>
+  <dimension ref="A1:AD245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3695,7 +6895,7 @@
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
-          <t>http://www.example.com/</t>
+          <t>https://www.example.com/</t>
         </is>
       </c>
       <c r="F14" s="6" t="n"/>
@@ -5615,7 +8815,7 @@
       </c>
       <c r="E65" s="6" t="inlineStr">
         <is>
-          <t>http://www.example.com/</t>
+          <t>https://www.example.com/</t>
         </is>
       </c>
       <c r="F65" s="6" t="n"/>
@@ -5659,7 +8859,7 @@
       </c>
       <c r="E66" s="6" t="inlineStr">
         <is>
-          <t>http://www.example.com/</t>
+          <t>https://www.example.com/</t>
         </is>
       </c>
       <c r="F66" s="6" t="n"/>
@@ -5735,7 +8935,7 @@
       </c>
       <c r="E68" s="6" t="inlineStr">
         <is>
-          <t>http://www.example.com/</t>
+          <t>https://www.example.com/</t>
         </is>
       </c>
       <c r="F68" s="6" t="n"/>
@@ -10324,6 +13524,1606 @@
       <c r="AC195" s="4" t="n"/>
       <c r="AD195" s="4" t="n"/>
     </row>
+    <row r="196">
+      <c r="A196" s="4" t="n"/>
+      <c r="B196" s="4" t="n"/>
+      <c r="C196" s="4" t="n"/>
+      <c r="D196" s="4" t="n"/>
+      <c r="E196" s="4" t="n"/>
+      <c r="F196" s="4" t="n"/>
+      <c r="G196" s="4" t="n"/>
+      <c r="H196" s="4" t="n"/>
+      <c r="I196" s="4" t="n"/>
+      <c r="J196" s="4" t="n"/>
+      <c r="K196" s="4" t="n"/>
+      <c r="L196" s="4" t="n"/>
+      <c r="M196" s="4" t="n"/>
+      <c r="N196" s="4" t="n"/>
+      <c r="O196" s="4" t="n"/>
+      <c r="P196" s="4" t="n"/>
+      <c r="Q196" s="4" t="n"/>
+      <c r="R196" s="4" t="n"/>
+      <c r="S196" s="4" t="n"/>
+      <c r="T196" s="4" t="n"/>
+      <c r="U196" s="4" t="n"/>
+      <c r="V196" s="4" t="n"/>
+      <c r="W196" s="4" t="n"/>
+      <c r="X196" s="4" t="n"/>
+      <c r="Y196" s="4" t="n"/>
+      <c r="Z196" s="4" t="n"/>
+      <c r="AA196" s="4" t="n"/>
+      <c r="AB196" s="4" t="n"/>
+      <c r="AC196" s="4" t="n"/>
+      <c r="AD196" s="4" t="n"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="4" t="n"/>
+      <c r="B197" s="4" t="n"/>
+      <c r="C197" s="4" t="n"/>
+      <c r="D197" s="4" t="n"/>
+      <c r="E197" s="4" t="n"/>
+      <c r="F197" s="4" t="n"/>
+      <c r="G197" s="4" t="n"/>
+      <c r="H197" s="4" t="n"/>
+      <c r="I197" s="4" t="n"/>
+      <c r="J197" s="4" t="n"/>
+      <c r="K197" s="4" t="n"/>
+      <c r="L197" s="4" t="n"/>
+      <c r="M197" s="4" t="n"/>
+      <c r="N197" s="4" t="n"/>
+      <c r="O197" s="4" t="n"/>
+      <c r="P197" s="4" t="n"/>
+      <c r="Q197" s="4" t="n"/>
+      <c r="R197" s="4" t="n"/>
+      <c r="S197" s="4" t="n"/>
+      <c r="T197" s="4" t="n"/>
+      <c r="U197" s="4" t="n"/>
+      <c r="V197" s="4" t="n"/>
+      <c r="W197" s="4" t="n"/>
+      <c r="X197" s="4" t="n"/>
+      <c r="Y197" s="4" t="n"/>
+      <c r="Z197" s="4" t="n"/>
+      <c r="AA197" s="4" t="n"/>
+      <c r="AB197" s="4" t="n"/>
+      <c r="AC197" s="4" t="n"/>
+      <c r="AD197" s="4" t="n"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="n"/>
+      <c r="B198" s="4" t="n"/>
+      <c r="C198" s="4" t="n"/>
+      <c r="D198" s="4" t="n"/>
+      <c r="E198" s="4" t="n"/>
+      <c r="F198" s="4" t="n"/>
+      <c r="G198" s="4" t="n"/>
+      <c r="H198" s="4" t="n"/>
+      <c r="I198" s="4" t="n"/>
+      <c r="J198" s="4" t="n"/>
+      <c r="K198" s="4" t="n"/>
+      <c r="L198" s="4" t="n"/>
+      <c r="M198" s="4" t="n"/>
+      <c r="N198" s="4" t="n"/>
+      <c r="O198" s="4" t="n"/>
+      <c r="P198" s="4" t="n"/>
+      <c r="Q198" s="4" t="n"/>
+      <c r="R198" s="4" t="n"/>
+      <c r="S198" s="4" t="n"/>
+      <c r="T198" s="4" t="n"/>
+      <c r="U198" s="4" t="n"/>
+      <c r="V198" s="4" t="n"/>
+      <c r="W198" s="4" t="n"/>
+      <c r="X198" s="4" t="n"/>
+      <c r="Y198" s="4" t="n"/>
+      <c r="Z198" s="4" t="n"/>
+      <c r="AA198" s="4" t="n"/>
+      <c r="AB198" s="4" t="n"/>
+      <c r="AC198" s="4" t="n"/>
+      <c r="AD198" s="4" t="n"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="n"/>
+      <c r="B199" s="4" t="n"/>
+      <c r="C199" s="4" t="n"/>
+      <c r="D199" s="4" t="n"/>
+      <c r="E199" s="4" t="n"/>
+      <c r="F199" s="4" t="n"/>
+      <c r="G199" s="4" t="n"/>
+      <c r="H199" s="4" t="n"/>
+      <c r="I199" s="4" t="n"/>
+      <c r="J199" s="4" t="n"/>
+      <c r="K199" s="4" t="n"/>
+      <c r="L199" s="4" t="n"/>
+      <c r="M199" s="4" t="n"/>
+      <c r="N199" s="4" t="n"/>
+      <c r="O199" s="4" t="n"/>
+      <c r="P199" s="4" t="n"/>
+      <c r="Q199" s="4" t="n"/>
+      <c r="R199" s="4" t="n"/>
+      <c r="S199" s="4" t="n"/>
+      <c r="T199" s="4" t="n"/>
+      <c r="U199" s="4" t="n"/>
+      <c r="V199" s="4" t="n"/>
+      <c r="W199" s="4" t="n"/>
+      <c r="X199" s="4" t="n"/>
+      <c r="Y199" s="4" t="n"/>
+      <c r="Z199" s="4" t="n"/>
+      <c r="AA199" s="4" t="n"/>
+      <c r="AB199" s="4" t="n"/>
+      <c r="AC199" s="4" t="n"/>
+      <c r="AD199" s="4" t="n"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="4" t="n"/>
+      <c r="B200" s="4" t="n"/>
+      <c r="C200" s="4" t="n"/>
+      <c r="D200" s="4" t="n"/>
+      <c r="E200" s="4" t="n"/>
+      <c r="F200" s="4" t="n"/>
+      <c r="G200" s="4" t="n"/>
+      <c r="H200" s="4" t="n"/>
+      <c r="I200" s="4" t="n"/>
+      <c r="J200" s="4" t="n"/>
+      <c r="K200" s="4" t="n"/>
+      <c r="L200" s="4" t="n"/>
+      <c r="M200" s="4" t="n"/>
+      <c r="N200" s="4" t="n"/>
+      <c r="O200" s="4" t="n"/>
+      <c r="P200" s="4" t="n"/>
+      <c r="Q200" s="4" t="n"/>
+      <c r="R200" s="4" t="n"/>
+      <c r="S200" s="4" t="n"/>
+      <c r="T200" s="4" t="n"/>
+      <c r="U200" s="4" t="n"/>
+      <c r="V200" s="4" t="n"/>
+      <c r="W200" s="4" t="n"/>
+      <c r="X200" s="4" t="n"/>
+      <c r="Y200" s="4" t="n"/>
+      <c r="Z200" s="4" t="n"/>
+      <c r="AA200" s="4" t="n"/>
+      <c r="AB200" s="4" t="n"/>
+      <c r="AC200" s="4" t="n"/>
+      <c r="AD200" s="4" t="n"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="n"/>
+      <c r="B201" s="4" t="n"/>
+      <c r="C201" s="4" t="n"/>
+      <c r="D201" s="4" t="n"/>
+      <c r="E201" s="4" t="n"/>
+      <c r="F201" s="4" t="n"/>
+      <c r="G201" s="4" t="n"/>
+      <c r="H201" s="4" t="n"/>
+      <c r="I201" s="4" t="n"/>
+      <c r="J201" s="4" t="n"/>
+      <c r="K201" s="4" t="n"/>
+      <c r="L201" s="4" t="n"/>
+      <c r="M201" s="4" t="n"/>
+      <c r="N201" s="4" t="n"/>
+      <c r="O201" s="4" t="n"/>
+      <c r="P201" s="4" t="n"/>
+      <c r="Q201" s="4" t="n"/>
+      <c r="R201" s="4" t="n"/>
+      <c r="S201" s="4" t="n"/>
+      <c r="T201" s="4" t="n"/>
+      <c r="U201" s="4" t="n"/>
+      <c r="V201" s="4" t="n"/>
+      <c r="W201" s="4" t="n"/>
+      <c r="X201" s="4" t="n"/>
+      <c r="Y201" s="4" t="n"/>
+      <c r="Z201" s="4" t="n"/>
+      <c r="AA201" s="4" t="n"/>
+      <c r="AB201" s="4" t="n"/>
+      <c r="AC201" s="4" t="n"/>
+      <c r="AD201" s="4" t="n"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="n"/>
+      <c r="B202" s="4" t="n"/>
+      <c r="C202" s="4" t="n"/>
+      <c r="D202" s="4" t="n"/>
+      <c r="E202" s="4" t="n"/>
+      <c r="F202" s="4" t="n"/>
+      <c r="G202" s="4" t="n"/>
+      <c r="H202" s="4" t="n"/>
+      <c r="I202" s="4" t="n"/>
+      <c r="J202" s="4" t="n"/>
+      <c r="K202" s="4" t="n"/>
+      <c r="L202" s="4" t="n"/>
+      <c r="M202" s="4" t="n"/>
+      <c r="N202" s="4" t="n"/>
+      <c r="O202" s="4" t="n"/>
+      <c r="P202" s="4" t="n"/>
+      <c r="Q202" s="4" t="n"/>
+      <c r="R202" s="4" t="n"/>
+      <c r="S202" s="4" t="n"/>
+      <c r="T202" s="4" t="n"/>
+      <c r="U202" s="4" t="n"/>
+      <c r="V202" s="4" t="n"/>
+      <c r="W202" s="4" t="n"/>
+      <c r="X202" s="4" t="n"/>
+      <c r="Y202" s="4" t="n"/>
+      <c r="Z202" s="4" t="n"/>
+      <c r="AA202" s="4" t="n"/>
+      <c r="AB202" s="4" t="n"/>
+      <c r="AC202" s="4" t="n"/>
+      <c r="AD202" s="4" t="n"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="n"/>
+      <c r="B203" s="4" t="n"/>
+      <c r="C203" s="4" t="n"/>
+      <c r="D203" s="4" t="n"/>
+      <c r="E203" s="4" t="n"/>
+      <c r="F203" s="4" t="n"/>
+      <c r="G203" s="4" t="n"/>
+      <c r="H203" s="4" t="n"/>
+      <c r="I203" s="4" t="n"/>
+      <c r="J203" s="4" t="n"/>
+      <c r="K203" s="4" t="n"/>
+      <c r="L203" s="4" t="n"/>
+      <c r="M203" s="4" t="n"/>
+      <c r="N203" s="4" t="n"/>
+      <c r="O203" s="4" t="n"/>
+      <c r="P203" s="4" t="n"/>
+      <c r="Q203" s="4" t="n"/>
+      <c r="R203" s="4" t="n"/>
+      <c r="S203" s="4" t="n"/>
+      <c r="T203" s="4" t="n"/>
+      <c r="U203" s="4" t="n"/>
+      <c r="V203" s="4" t="n"/>
+      <c r="W203" s="4" t="n"/>
+      <c r="X203" s="4" t="n"/>
+      <c r="Y203" s="4" t="n"/>
+      <c r="Z203" s="4" t="n"/>
+      <c r="AA203" s="4" t="n"/>
+      <c r="AB203" s="4" t="n"/>
+      <c r="AC203" s="4" t="n"/>
+      <c r="AD203" s="4" t="n"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="n"/>
+      <c r="B204" s="4" t="n"/>
+      <c r="C204" s="4" t="n"/>
+      <c r="D204" s="4" t="n"/>
+      <c r="E204" s="4" t="n"/>
+      <c r="F204" s="4" t="n"/>
+      <c r="G204" s="4" t="n"/>
+      <c r="H204" s="4" t="n"/>
+      <c r="I204" s="4" t="n"/>
+      <c r="J204" s="4" t="n"/>
+      <c r="K204" s="4" t="n"/>
+      <c r="L204" s="4" t="n"/>
+      <c r="M204" s="4" t="n"/>
+      <c r="N204" s="4" t="n"/>
+      <c r="O204" s="4" t="n"/>
+      <c r="P204" s="4" t="n"/>
+      <c r="Q204" s="4" t="n"/>
+      <c r="R204" s="4" t="n"/>
+      <c r="S204" s="4" t="n"/>
+      <c r="T204" s="4" t="n"/>
+      <c r="U204" s="4" t="n"/>
+      <c r="V204" s="4" t="n"/>
+      <c r="W204" s="4" t="n"/>
+      <c r="X204" s="4" t="n"/>
+      <c r="Y204" s="4" t="n"/>
+      <c r="Z204" s="4" t="n"/>
+      <c r="AA204" s="4" t="n"/>
+      <c r="AB204" s="4" t="n"/>
+      <c r="AC204" s="4" t="n"/>
+      <c r="AD204" s="4" t="n"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="n"/>
+      <c r="B205" s="4" t="n"/>
+      <c r="C205" s="4" t="n"/>
+      <c r="D205" s="4" t="n"/>
+      <c r="E205" s="4" t="n"/>
+      <c r="F205" s="4" t="n"/>
+      <c r="G205" s="4" t="n"/>
+      <c r="H205" s="4" t="n"/>
+      <c r="I205" s="4" t="n"/>
+      <c r="J205" s="4" t="n"/>
+      <c r="K205" s="4" t="n"/>
+      <c r="L205" s="4" t="n"/>
+      <c r="M205" s="4" t="n"/>
+      <c r="N205" s="4" t="n"/>
+      <c r="O205" s="4" t="n"/>
+      <c r="P205" s="4" t="n"/>
+      <c r="Q205" s="4" t="n"/>
+      <c r="R205" s="4" t="n"/>
+      <c r="S205" s="4" t="n"/>
+      <c r="T205" s="4" t="n"/>
+      <c r="U205" s="4" t="n"/>
+      <c r="V205" s="4" t="n"/>
+      <c r="W205" s="4" t="n"/>
+      <c r="X205" s="4" t="n"/>
+      <c r="Y205" s="4" t="n"/>
+      <c r="Z205" s="4" t="n"/>
+      <c r="AA205" s="4" t="n"/>
+      <c r="AB205" s="4" t="n"/>
+      <c r="AC205" s="4" t="n"/>
+      <c r="AD205" s="4" t="n"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="4" t="n"/>
+      <c r="B206" s="4" t="n"/>
+      <c r="C206" s="4" t="n"/>
+      <c r="D206" s="4" t="n"/>
+      <c r="E206" s="4" t="n"/>
+      <c r="F206" s="4" t="n"/>
+      <c r="G206" s="4" t="n"/>
+      <c r="H206" s="4" t="n"/>
+      <c r="I206" s="4" t="n"/>
+      <c r="J206" s="4" t="n"/>
+      <c r="K206" s="4" t="n"/>
+      <c r="L206" s="4" t="n"/>
+      <c r="M206" s="4" t="n"/>
+      <c r="N206" s="4" t="n"/>
+      <c r="O206" s="4" t="n"/>
+      <c r="P206" s="4" t="n"/>
+      <c r="Q206" s="4" t="n"/>
+      <c r="R206" s="4" t="n"/>
+      <c r="S206" s="4" t="n"/>
+      <c r="T206" s="4" t="n"/>
+      <c r="U206" s="4" t="n"/>
+      <c r="V206" s="4" t="n"/>
+      <c r="W206" s="4" t="n"/>
+      <c r="X206" s="4" t="n"/>
+      <c r="Y206" s="4" t="n"/>
+      <c r="Z206" s="4" t="n"/>
+      <c r="AA206" s="4" t="n"/>
+      <c r="AB206" s="4" t="n"/>
+      <c r="AC206" s="4" t="n"/>
+      <c r="AD206" s="4" t="n"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="n"/>
+      <c r="B207" s="4" t="n"/>
+      <c r="C207" s="4" t="n"/>
+      <c r="D207" s="4" t="n"/>
+      <c r="E207" s="4" t="n"/>
+      <c r="F207" s="4" t="n"/>
+      <c r="G207" s="4" t="n"/>
+      <c r="H207" s="4" t="n"/>
+      <c r="I207" s="4" t="n"/>
+      <c r="J207" s="4" t="n"/>
+      <c r="K207" s="4" t="n"/>
+      <c r="L207" s="4" t="n"/>
+      <c r="M207" s="4" t="n"/>
+      <c r="N207" s="4" t="n"/>
+      <c r="O207" s="4" t="n"/>
+      <c r="P207" s="4" t="n"/>
+      <c r="Q207" s="4" t="n"/>
+      <c r="R207" s="4" t="n"/>
+      <c r="S207" s="4" t="n"/>
+      <c r="T207" s="4" t="n"/>
+      <c r="U207" s="4" t="n"/>
+      <c r="V207" s="4" t="n"/>
+      <c r="W207" s="4" t="n"/>
+      <c r="X207" s="4" t="n"/>
+      <c r="Y207" s="4" t="n"/>
+      <c r="Z207" s="4" t="n"/>
+      <c r="AA207" s="4" t="n"/>
+      <c r="AB207" s="4" t="n"/>
+      <c r="AC207" s="4" t="n"/>
+      <c r="AD207" s="4" t="n"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="n"/>
+      <c r="B208" s="4" t="n"/>
+      <c r="C208" s="4" t="n"/>
+      <c r="D208" s="4" t="n"/>
+      <c r="E208" s="4" t="n"/>
+      <c r="F208" s="4" t="n"/>
+      <c r="G208" s="4" t="n"/>
+      <c r="H208" s="4" t="n"/>
+      <c r="I208" s="4" t="n"/>
+      <c r="J208" s="4" t="n"/>
+      <c r="K208" s="4" t="n"/>
+      <c r="L208" s="4" t="n"/>
+      <c r="M208" s="4" t="n"/>
+      <c r="N208" s="4" t="n"/>
+      <c r="O208" s="4" t="n"/>
+      <c r="P208" s="4" t="n"/>
+      <c r="Q208" s="4" t="n"/>
+      <c r="R208" s="4" t="n"/>
+      <c r="S208" s="4" t="n"/>
+      <c r="T208" s="4" t="n"/>
+      <c r="U208" s="4" t="n"/>
+      <c r="V208" s="4" t="n"/>
+      <c r="W208" s="4" t="n"/>
+      <c r="X208" s="4" t="n"/>
+      <c r="Y208" s="4" t="n"/>
+      <c r="Z208" s="4" t="n"/>
+      <c r="AA208" s="4" t="n"/>
+      <c r="AB208" s="4" t="n"/>
+      <c r="AC208" s="4" t="n"/>
+      <c r="AD208" s="4" t="n"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="4" t="n"/>
+      <c r="B209" s="4" t="n"/>
+      <c r="C209" s="4" t="n"/>
+      <c r="D209" s="4" t="n"/>
+      <c r="E209" s="4" t="n"/>
+      <c r="F209" s="4" t="n"/>
+      <c r="G209" s="4" t="n"/>
+      <c r="H209" s="4" t="n"/>
+      <c r="I209" s="4" t="n"/>
+      <c r="J209" s="4" t="n"/>
+      <c r="K209" s="4" t="n"/>
+      <c r="L209" s="4" t="n"/>
+      <c r="M209" s="4" t="n"/>
+      <c r="N209" s="4" t="n"/>
+      <c r="O209" s="4" t="n"/>
+      <c r="P209" s="4" t="n"/>
+      <c r="Q209" s="4" t="n"/>
+      <c r="R209" s="4" t="n"/>
+      <c r="S209" s="4" t="n"/>
+      <c r="T209" s="4" t="n"/>
+      <c r="U209" s="4" t="n"/>
+      <c r="V209" s="4" t="n"/>
+      <c r="W209" s="4" t="n"/>
+      <c r="X209" s="4" t="n"/>
+      <c r="Y209" s="4" t="n"/>
+      <c r="Z209" s="4" t="n"/>
+      <c r="AA209" s="4" t="n"/>
+      <c r="AB209" s="4" t="n"/>
+      <c r="AC209" s="4" t="n"/>
+      <c r="AD209" s="4" t="n"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="n"/>
+      <c r="B210" s="4" t="n"/>
+      <c r="C210" s="4" t="n"/>
+      <c r="D210" s="4" t="n"/>
+      <c r="E210" s="4" t="n"/>
+      <c r="F210" s="4" t="n"/>
+      <c r="G210" s="4" t="n"/>
+      <c r="H210" s="4" t="n"/>
+      <c r="I210" s="4" t="n"/>
+      <c r="J210" s="4" t="n"/>
+      <c r="K210" s="4" t="n"/>
+      <c r="L210" s="4" t="n"/>
+      <c r="M210" s="4" t="n"/>
+      <c r="N210" s="4" t="n"/>
+      <c r="O210" s="4" t="n"/>
+      <c r="P210" s="4" t="n"/>
+      <c r="Q210" s="4" t="n"/>
+      <c r="R210" s="4" t="n"/>
+      <c r="S210" s="4" t="n"/>
+      <c r="T210" s="4" t="n"/>
+      <c r="U210" s="4" t="n"/>
+      <c r="V210" s="4" t="n"/>
+      <c r="W210" s="4" t="n"/>
+      <c r="X210" s="4" t="n"/>
+      <c r="Y210" s="4" t="n"/>
+      <c r="Z210" s="4" t="n"/>
+      <c r="AA210" s="4" t="n"/>
+      <c r="AB210" s="4" t="n"/>
+      <c r="AC210" s="4" t="n"/>
+      <c r="AD210" s="4" t="n"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="4" t="n"/>
+      <c r="B211" s="4" t="n"/>
+      <c r="C211" s="4" t="n"/>
+      <c r="D211" s="4" t="n"/>
+      <c r="E211" s="4" t="n"/>
+      <c r="F211" s="4" t="n"/>
+      <c r="G211" s="4" t="n"/>
+      <c r="H211" s="4" t="n"/>
+      <c r="I211" s="4" t="n"/>
+      <c r="J211" s="4" t="n"/>
+      <c r="K211" s="4" t="n"/>
+      <c r="L211" s="4" t="n"/>
+      <c r="M211" s="4" t="n"/>
+      <c r="N211" s="4" t="n"/>
+      <c r="O211" s="4" t="n"/>
+      <c r="P211" s="4" t="n"/>
+      <c r="Q211" s="4" t="n"/>
+      <c r="R211" s="4" t="n"/>
+      <c r="S211" s="4" t="n"/>
+      <c r="T211" s="4" t="n"/>
+      <c r="U211" s="4" t="n"/>
+      <c r="V211" s="4" t="n"/>
+      <c r="W211" s="4" t="n"/>
+      <c r="X211" s="4" t="n"/>
+      <c r="Y211" s="4" t="n"/>
+      <c r="Z211" s="4" t="n"/>
+      <c r="AA211" s="4" t="n"/>
+      <c r="AB211" s="4" t="n"/>
+      <c r="AC211" s="4" t="n"/>
+      <c r="AD211" s="4" t="n"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="n"/>
+      <c r="B212" s="4" t="n"/>
+      <c r="C212" s="4" t="n"/>
+      <c r="D212" s="4" t="n"/>
+      <c r="E212" s="4" t="n"/>
+      <c r="F212" s="4" t="n"/>
+      <c r="G212" s="4" t="n"/>
+      <c r="H212" s="4" t="n"/>
+      <c r="I212" s="4" t="n"/>
+      <c r="J212" s="4" t="n"/>
+      <c r="K212" s="4" t="n"/>
+      <c r="L212" s="4" t="n"/>
+      <c r="M212" s="4" t="n"/>
+      <c r="N212" s="4" t="n"/>
+      <c r="O212" s="4" t="n"/>
+      <c r="P212" s="4" t="n"/>
+      <c r="Q212" s="4" t="n"/>
+      <c r="R212" s="4" t="n"/>
+      <c r="S212" s="4" t="n"/>
+      <c r="T212" s="4" t="n"/>
+      <c r="U212" s="4" t="n"/>
+      <c r="V212" s="4" t="n"/>
+      <c r="W212" s="4" t="n"/>
+      <c r="X212" s="4" t="n"/>
+      <c r="Y212" s="4" t="n"/>
+      <c r="Z212" s="4" t="n"/>
+      <c r="AA212" s="4" t="n"/>
+      <c r="AB212" s="4" t="n"/>
+      <c r="AC212" s="4" t="n"/>
+      <c r="AD212" s="4" t="n"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="n"/>
+      <c r="B213" s="4" t="n"/>
+      <c r="C213" s="4" t="n"/>
+      <c r="D213" s="4" t="n"/>
+      <c r="E213" s="4" t="n"/>
+      <c r="F213" s="4" t="n"/>
+      <c r="G213" s="4" t="n"/>
+      <c r="H213" s="4" t="n"/>
+      <c r="I213" s="4" t="n"/>
+      <c r="J213" s="4" t="n"/>
+      <c r="K213" s="4" t="n"/>
+      <c r="L213" s="4" t="n"/>
+      <c r="M213" s="4" t="n"/>
+      <c r="N213" s="4" t="n"/>
+      <c r="O213" s="4" t="n"/>
+      <c r="P213" s="4" t="n"/>
+      <c r="Q213" s="4" t="n"/>
+      <c r="R213" s="4" t="n"/>
+      <c r="S213" s="4" t="n"/>
+      <c r="T213" s="4" t="n"/>
+      <c r="U213" s="4" t="n"/>
+      <c r="V213" s="4" t="n"/>
+      <c r="W213" s="4" t="n"/>
+      <c r="X213" s="4" t="n"/>
+      <c r="Y213" s="4" t="n"/>
+      <c r="Z213" s="4" t="n"/>
+      <c r="AA213" s="4" t="n"/>
+      <c r="AB213" s="4" t="n"/>
+      <c r="AC213" s="4" t="n"/>
+      <c r="AD213" s="4" t="n"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="n"/>
+      <c r="B214" s="4" t="n"/>
+      <c r="C214" s="4" t="n"/>
+      <c r="D214" s="4" t="n"/>
+      <c r="E214" s="4" t="n"/>
+      <c r="F214" s="4" t="n"/>
+      <c r="G214" s="4" t="n"/>
+      <c r="H214" s="4" t="n"/>
+      <c r="I214" s="4" t="n"/>
+      <c r="J214" s="4" t="n"/>
+      <c r="K214" s="4" t="n"/>
+      <c r="L214" s="4" t="n"/>
+      <c r="M214" s="4" t="n"/>
+      <c r="N214" s="4" t="n"/>
+      <c r="O214" s="4" t="n"/>
+      <c r="P214" s="4" t="n"/>
+      <c r="Q214" s="4" t="n"/>
+      <c r="R214" s="4" t="n"/>
+      <c r="S214" s="4" t="n"/>
+      <c r="T214" s="4" t="n"/>
+      <c r="U214" s="4" t="n"/>
+      <c r="V214" s="4" t="n"/>
+      <c r="W214" s="4" t="n"/>
+      <c r="X214" s="4" t="n"/>
+      <c r="Y214" s="4" t="n"/>
+      <c r="Z214" s="4" t="n"/>
+      <c r="AA214" s="4" t="n"/>
+      <c r="AB214" s="4" t="n"/>
+      <c r="AC214" s="4" t="n"/>
+      <c r="AD214" s="4" t="n"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="4" t="n"/>
+      <c r="B215" s="4" t="n"/>
+      <c r="C215" s="4" t="n"/>
+      <c r="D215" s="4" t="n"/>
+      <c r="E215" s="4" t="n"/>
+      <c r="F215" s="4" t="n"/>
+      <c r="G215" s="4" t="n"/>
+      <c r="H215" s="4" t="n"/>
+      <c r="I215" s="4" t="n"/>
+      <c r="J215" s="4" t="n"/>
+      <c r="K215" s="4" t="n"/>
+      <c r="L215" s="4" t="n"/>
+      <c r="M215" s="4" t="n"/>
+      <c r="N215" s="4" t="n"/>
+      <c r="O215" s="4" t="n"/>
+      <c r="P215" s="4" t="n"/>
+      <c r="Q215" s="4" t="n"/>
+      <c r="R215" s="4" t="n"/>
+      <c r="S215" s="4" t="n"/>
+      <c r="T215" s="4" t="n"/>
+      <c r="U215" s="4" t="n"/>
+      <c r="V215" s="4" t="n"/>
+      <c r="W215" s="4" t="n"/>
+      <c r="X215" s="4" t="n"/>
+      <c r="Y215" s="4" t="n"/>
+      <c r="Z215" s="4" t="n"/>
+      <c r="AA215" s="4" t="n"/>
+      <c r="AB215" s="4" t="n"/>
+      <c r="AC215" s="4" t="n"/>
+      <c r="AD215" s="4" t="n"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="n"/>
+      <c r="B216" s="4" t="n"/>
+      <c r="C216" s="4" t="n"/>
+      <c r="D216" s="4" t="n"/>
+      <c r="E216" s="4" t="n"/>
+      <c r="F216" s="4" t="n"/>
+      <c r="G216" s="4" t="n"/>
+      <c r="H216" s="4" t="n"/>
+      <c r="I216" s="4" t="n"/>
+      <c r="J216" s="4" t="n"/>
+      <c r="K216" s="4" t="n"/>
+      <c r="L216" s="4" t="n"/>
+      <c r="M216" s="4" t="n"/>
+      <c r="N216" s="4" t="n"/>
+      <c r="O216" s="4" t="n"/>
+      <c r="P216" s="4" t="n"/>
+      <c r="Q216" s="4" t="n"/>
+      <c r="R216" s="4" t="n"/>
+      <c r="S216" s="4" t="n"/>
+      <c r="T216" s="4" t="n"/>
+      <c r="U216" s="4" t="n"/>
+      <c r="V216" s="4" t="n"/>
+      <c r="W216" s="4" t="n"/>
+      <c r="X216" s="4" t="n"/>
+      <c r="Y216" s="4" t="n"/>
+      <c r="Z216" s="4" t="n"/>
+      <c r="AA216" s="4" t="n"/>
+      <c r="AB216" s="4" t="n"/>
+      <c r="AC216" s="4" t="n"/>
+      <c r="AD216" s="4" t="n"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="n"/>
+      <c r="B217" s="4" t="n"/>
+      <c r="C217" s="4" t="n"/>
+      <c r="D217" s="4" t="n"/>
+      <c r="E217" s="4" t="n"/>
+      <c r="F217" s="4" t="n"/>
+      <c r="G217" s="4" t="n"/>
+      <c r="H217" s="4" t="n"/>
+      <c r="I217" s="4" t="n"/>
+      <c r="J217" s="4" t="n"/>
+      <c r="K217" s="4" t="n"/>
+      <c r="L217" s="4" t="n"/>
+      <c r="M217" s="4" t="n"/>
+      <c r="N217" s="4" t="n"/>
+      <c r="O217" s="4" t="n"/>
+      <c r="P217" s="4" t="n"/>
+      <c r="Q217" s="4" t="n"/>
+      <c r="R217" s="4" t="n"/>
+      <c r="S217" s="4" t="n"/>
+      <c r="T217" s="4" t="n"/>
+      <c r="U217" s="4" t="n"/>
+      <c r="V217" s="4" t="n"/>
+      <c r="W217" s="4" t="n"/>
+      <c r="X217" s="4" t="n"/>
+      <c r="Y217" s="4" t="n"/>
+      <c r="Z217" s="4" t="n"/>
+      <c r="AA217" s="4" t="n"/>
+      <c r="AB217" s="4" t="n"/>
+      <c r="AC217" s="4" t="n"/>
+      <c r="AD217" s="4" t="n"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="n"/>
+      <c r="B218" s="4" t="n"/>
+      <c r="C218" s="4" t="n"/>
+      <c r="D218" s="4" t="n"/>
+      <c r="E218" s="4" t="n"/>
+      <c r="F218" s="4" t="n"/>
+      <c r="G218" s="4" t="n"/>
+      <c r="H218" s="4" t="n"/>
+      <c r="I218" s="4" t="n"/>
+      <c r="J218" s="4" t="n"/>
+      <c r="K218" s="4" t="n"/>
+      <c r="L218" s="4" t="n"/>
+      <c r="M218" s="4" t="n"/>
+      <c r="N218" s="4" t="n"/>
+      <c r="O218" s="4" t="n"/>
+      <c r="P218" s="4" t="n"/>
+      <c r="Q218" s="4" t="n"/>
+      <c r="R218" s="4" t="n"/>
+      <c r="S218" s="4" t="n"/>
+      <c r="T218" s="4" t="n"/>
+      <c r="U218" s="4" t="n"/>
+      <c r="V218" s="4" t="n"/>
+      <c r="W218" s="4" t="n"/>
+      <c r="X218" s="4" t="n"/>
+      <c r="Y218" s="4" t="n"/>
+      <c r="Z218" s="4" t="n"/>
+      <c r="AA218" s="4" t="n"/>
+      <c r="AB218" s="4" t="n"/>
+      <c r="AC218" s="4" t="n"/>
+      <c r="AD218" s="4" t="n"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="n"/>
+      <c r="B219" s="4" t="n"/>
+      <c r="C219" s="4" t="n"/>
+      <c r="D219" s="4" t="n"/>
+      <c r="E219" s="4" t="n"/>
+      <c r="F219" s="4" t="n"/>
+      <c r="G219" s="4" t="n"/>
+      <c r="H219" s="4" t="n"/>
+      <c r="I219" s="4" t="n"/>
+      <c r="J219" s="4" t="n"/>
+      <c r="K219" s="4" t="n"/>
+      <c r="L219" s="4" t="n"/>
+      <c r="M219" s="4" t="n"/>
+      <c r="N219" s="4" t="n"/>
+      <c r="O219" s="4" t="n"/>
+      <c r="P219" s="4" t="n"/>
+      <c r="Q219" s="4" t="n"/>
+      <c r="R219" s="4" t="n"/>
+      <c r="S219" s="4" t="n"/>
+      <c r="T219" s="4" t="n"/>
+      <c r="U219" s="4" t="n"/>
+      <c r="V219" s="4" t="n"/>
+      <c r="W219" s="4" t="n"/>
+      <c r="X219" s="4" t="n"/>
+      <c r="Y219" s="4" t="n"/>
+      <c r="Z219" s="4" t="n"/>
+      <c r="AA219" s="4" t="n"/>
+      <c r="AB219" s="4" t="n"/>
+      <c r="AC219" s="4" t="n"/>
+      <c r="AD219" s="4" t="n"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="4" t="n"/>
+      <c r="B220" s="4" t="n"/>
+      <c r="C220" s="4" t="n"/>
+      <c r="D220" s="4" t="n"/>
+      <c r="E220" s="4" t="n"/>
+      <c r="F220" s="4" t="n"/>
+      <c r="G220" s="4" t="n"/>
+      <c r="H220" s="4" t="n"/>
+      <c r="I220" s="4" t="n"/>
+      <c r="J220" s="4" t="n"/>
+      <c r="K220" s="4" t="n"/>
+      <c r="L220" s="4" t="n"/>
+      <c r="M220" s="4" t="n"/>
+      <c r="N220" s="4" t="n"/>
+      <c r="O220" s="4" t="n"/>
+      <c r="P220" s="4" t="n"/>
+      <c r="Q220" s="4" t="n"/>
+      <c r="R220" s="4" t="n"/>
+      <c r="S220" s="4" t="n"/>
+      <c r="T220" s="4" t="n"/>
+      <c r="U220" s="4" t="n"/>
+      <c r="V220" s="4" t="n"/>
+      <c r="W220" s="4" t="n"/>
+      <c r="X220" s="4" t="n"/>
+      <c r="Y220" s="4" t="n"/>
+      <c r="Z220" s="4" t="n"/>
+      <c r="AA220" s="4" t="n"/>
+      <c r="AB220" s="4" t="n"/>
+      <c r="AC220" s="4" t="n"/>
+      <c r="AD220" s="4" t="n"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="n"/>
+      <c r="B221" s="4" t="n"/>
+      <c r="C221" s="4" t="n"/>
+      <c r="D221" s="4" t="n"/>
+      <c r="E221" s="4" t="n"/>
+      <c r="F221" s="4" t="n"/>
+      <c r="G221" s="4" t="n"/>
+      <c r="H221" s="4" t="n"/>
+      <c r="I221" s="4" t="n"/>
+      <c r="J221" s="4" t="n"/>
+      <c r="K221" s="4" t="n"/>
+      <c r="L221" s="4" t="n"/>
+      <c r="M221" s="4" t="n"/>
+      <c r="N221" s="4" t="n"/>
+      <c r="O221" s="4" t="n"/>
+      <c r="P221" s="4" t="n"/>
+      <c r="Q221" s="4" t="n"/>
+      <c r="R221" s="4" t="n"/>
+      <c r="S221" s="4" t="n"/>
+      <c r="T221" s="4" t="n"/>
+      <c r="U221" s="4" t="n"/>
+      <c r="V221" s="4" t="n"/>
+      <c r="W221" s="4" t="n"/>
+      <c r="X221" s="4" t="n"/>
+      <c r="Y221" s="4" t="n"/>
+      <c r="Z221" s="4" t="n"/>
+      <c r="AA221" s="4" t="n"/>
+      <c r="AB221" s="4" t="n"/>
+      <c r="AC221" s="4" t="n"/>
+      <c r="AD221" s="4" t="n"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="n"/>
+      <c r="B222" s="4" t="n"/>
+      <c r="C222" s="4" t="n"/>
+      <c r="D222" s="4" t="n"/>
+      <c r="E222" s="4" t="n"/>
+      <c r="F222" s="4" t="n"/>
+      <c r="G222" s="4" t="n"/>
+      <c r="H222" s="4" t="n"/>
+      <c r="I222" s="4" t="n"/>
+      <c r="J222" s="4" t="n"/>
+      <c r="K222" s="4" t="n"/>
+      <c r="L222" s="4" t="n"/>
+      <c r="M222" s="4" t="n"/>
+      <c r="N222" s="4" t="n"/>
+      <c r="O222" s="4" t="n"/>
+      <c r="P222" s="4" t="n"/>
+      <c r="Q222" s="4" t="n"/>
+      <c r="R222" s="4" t="n"/>
+      <c r="S222" s="4" t="n"/>
+      <c r="T222" s="4" t="n"/>
+      <c r="U222" s="4" t="n"/>
+      <c r="V222" s="4" t="n"/>
+      <c r="W222" s="4" t="n"/>
+      <c r="X222" s="4" t="n"/>
+      <c r="Y222" s="4" t="n"/>
+      <c r="Z222" s="4" t="n"/>
+      <c r="AA222" s="4" t="n"/>
+      <c r="AB222" s="4" t="n"/>
+      <c r="AC222" s="4" t="n"/>
+      <c r="AD222" s="4" t="n"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="n"/>
+      <c r="B223" s="4" t="n"/>
+      <c r="C223" s="4" t="n"/>
+      <c r="D223" s="4" t="n"/>
+      <c r="E223" s="4" t="n"/>
+      <c r="F223" s="4" t="n"/>
+      <c r="G223" s="4" t="n"/>
+      <c r="H223" s="4" t="n"/>
+      <c r="I223" s="4" t="n"/>
+      <c r="J223" s="4" t="n"/>
+      <c r="K223" s="4" t="n"/>
+      <c r="L223" s="4" t="n"/>
+      <c r="M223" s="4" t="n"/>
+      <c r="N223" s="4" t="n"/>
+      <c r="O223" s="4" t="n"/>
+      <c r="P223" s="4" t="n"/>
+      <c r="Q223" s="4" t="n"/>
+      <c r="R223" s="4" t="n"/>
+      <c r="S223" s="4" t="n"/>
+      <c r="T223" s="4" t="n"/>
+      <c r="U223" s="4" t="n"/>
+      <c r="V223" s="4" t="n"/>
+      <c r="W223" s="4" t="n"/>
+      <c r="X223" s="4" t="n"/>
+      <c r="Y223" s="4" t="n"/>
+      <c r="Z223" s="4" t="n"/>
+      <c r="AA223" s="4" t="n"/>
+      <c r="AB223" s="4" t="n"/>
+      <c r="AC223" s="4" t="n"/>
+      <c r="AD223" s="4" t="n"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="4" t="n"/>
+      <c r="B224" s="4" t="n"/>
+      <c r="C224" s="4" t="n"/>
+      <c r="D224" s="4" t="n"/>
+      <c r="E224" s="4" t="n"/>
+      <c r="F224" s="4" t="n"/>
+      <c r="G224" s="4" t="n"/>
+      <c r="H224" s="4" t="n"/>
+      <c r="I224" s="4" t="n"/>
+      <c r="J224" s="4" t="n"/>
+      <c r="K224" s="4" t="n"/>
+      <c r="L224" s="4" t="n"/>
+      <c r="M224" s="4" t="n"/>
+      <c r="N224" s="4" t="n"/>
+      <c r="O224" s="4" t="n"/>
+      <c r="P224" s="4" t="n"/>
+      <c r="Q224" s="4" t="n"/>
+      <c r="R224" s="4" t="n"/>
+      <c r="S224" s="4" t="n"/>
+      <c r="T224" s="4" t="n"/>
+      <c r="U224" s="4" t="n"/>
+      <c r="V224" s="4" t="n"/>
+      <c r="W224" s="4" t="n"/>
+      <c r="X224" s="4" t="n"/>
+      <c r="Y224" s="4" t="n"/>
+      <c r="Z224" s="4" t="n"/>
+      <c r="AA224" s="4" t="n"/>
+      <c r="AB224" s="4" t="n"/>
+      <c r="AC224" s="4" t="n"/>
+      <c r="AD224" s="4" t="n"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="n"/>
+      <c r="B225" s="4" t="n"/>
+      <c r="C225" s="4" t="n"/>
+      <c r="D225" s="4" t="n"/>
+      <c r="E225" s="4" t="n"/>
+      <c r="F225" s="4" t="n"/>
+      <c r="G225" s="4" t="n"/>
+      <c r="H225" s="4" t="n"/>
+      <c r="I225" s="4" t="n"/>
+      <c r="J225" s="4" t="n"/>
+      <c r="K225" s="4" t="n"/>
+      <c r="L225" s="4" t="n"/>
+      <c r="M225" s="4" t="n"/>
+      <c r="N225" s="4" t="n"/>
+      <c r="O225" s="4" t="n"/>
+      <c r="P225" s="4" t="n"/>
+      <c r="Q225" s="4" t="n"/>
+      <c r="R225" s="4" t="n"/>
+      <c r="S225" s="4" t="n"/>
+      <c r="T225" s="4" t="n"/>
+      <c r="U225" s="4" t="n"/>
+      <c r="V225" s="4" t="n"/>
+      <c r="W225" s="4" t="n"/>
+      <c r="X225" s="4" t="n"/>
+      <c r="Y225" s="4" t="n"/>
+      <c r="Z225" s="4" t="n"/>
+      <c r="AA225" s="4" t="n"/>
+      <c r="AB225" s="4" t="n"/>
+      <c r="AC225" s="4" t="n"/>
+      <c r="AD225" s="4" t="n"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="n"/>
+      <c r="B226" s="4" t="n"/>
+      <c r="C226" s="4" t="n"/>
+      <c r="D226" s="4" t="n"/>
+      <c r="E226" s="4" t="n"/>
+      <c r="F226" s="4" t="n"/>
+      <c r="G226" s="4" t="n"/>
+      <c r="H226" s="4" t="n"/>
+      <c r="I226" s="4" t="n"/>
+      <c r="J226" s="4" t="n"/>
+      <c r="K226" s="4" t="n"/>
+      <c r="L226" s="4" t="n"/>
+      <c r="M226" s="4" t="n"/>
+      <c r="N226" s="4" t="n"/>
+      <c r="O226" s="4" t="n"/>
+      <c r="P226" s="4" t="n"/>
+      <c r="Q226" s="4" t="n"/>
+      <c r="R226" s="4" t="n"/>
+      <c r="S226" s="4" t="n"/>
+      <c r="T226" s="4" t="n"/>
+      <c r="U226" s="4" t="n"/>
+      <c r="V226" s="4" t="n"/>
+      <c r="W226" s="4" t="n"/>
+      <c r="X226" s="4" t="n"/>
+      <c r="Y226" s="4" t="n"/>
+      <c r="Z226" s="4" t="n"/>
+      <c r="AA226" s="4" t="n"/>
+      <c r="AB226" s="4" t="n"/>
+      <c r="AC226" s="4" t="n"/>
+      <c r="AD226" s="4" t="n"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="4" t="n"/>
+      <c r="B227" s="4" t="n"/>
+      <c r="C227" s="4" t="n"/>
+      <c r="D227" s="4" t="n"/>
+      <c r="E227" s="4" t="n"/>
+      <c r="F227" s="4" t="n"/>
+      <c r="G227" s="4" t="n"/>
+      <c r="H227" s="4" t="n"/>
+      <c r="I227" s="4" t="n"/>
+      <c r="J227" s="4" t="n"/>
+      <c r="K227" s="4" t="n"/>
+      <c r="L227" s="4" t="n"/>
+      <c r="M227" s="4" t="n"/>
+      <c r="N227" s="4" t="n"/>
+      <c r="O227" s="4" t="n"/>
+      <c r="P227" s="4" t="n"/>
+      <c r="Q227" s="4" t="n"/>
+      <c r="R227" s="4" t="n"/>
+      <c r="S227" s="4" t="n"/>
+      <c r="T227" s="4" t="n"/>
+      <c r="U227" s="4" t="n"/>
+      <c r="V227" s="4" t="n"/>
+      <c r="W227" s="4" t="n"/>
+      <c r="X227" s="4" t="n"/>
+      <c r="Y227" s="4" t="n"/>
+      <c r="Z227" s="4" t="n"/>
+      <c r="AA227" s="4" t="n"/>
+      <c r="AB227" s="4" t="n"/>
+      <c r="AC227" s="4" t="n"/>
+      <c r="AD227" s="4" t="n"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="4" t="n"/>
+      <c r="B228" s="4" t="n"/>
+      <c r="C228" s="4" t="n"/>
+      <c r="D228" s="4" t="n"/>
+      <c r="E228" s="4" t="n"/>
+      <c r="F228" s="4" t="n"/>
+      <c r="G228" s="4" t="n"/>
+      <c r="H228" s="4" t="n"/>
+      <c r="I228" s="4" t="n"/>
+      <c r="J228" s="4" t="n"/>
+      <c r="K228" s="4" t="n"/>
+      <c r="L228" s="4" t="n"/>
+      <c r="M228" s="4" t="n"/>
+      <c r="N228" s="4" t="n"/>
+      <c r="O228" s="4" t="n"/>
+      <c r="P228" s="4" t="n"/>
+      <c r="Q228" s="4" t="n"/>
+      <c r="R228" s="4" t="n"/>
+      <c r="S228" s="4" t="n"/>
+      <c r="T228" s="4" t="n"/>
+      <c r="U228" s="4" t="n"/>
+      <c r="V228" s="4" t="n"/>
+      <c r="W228" s="4" t="n"/>
+      <c r="X228" s="4" t="n"/>
+      <c r="Y228" s="4" t="n"/>
+      <c r="Z228" s="4" t="n"/>
+      <c r="AA228" s="4" t="n"/>
+      <c r="AB228" s="4" t="n"/>
+      <c r="AC228" s="4" t="n"/>
+      <c r="AD228" s="4" t="n"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4" t="n"/>
+      <c r="B229" s="4" t="n"/>
+      <c r="C229" s="4" t="n"/>
+      <c r="D229" s="4" t="n"/>
+      <c r="E229" s="4" t="n"/>
+      <c r="F229" s="4" t="n"/>
+      <c r="G229" s="4" t="n"/>
+      <c r="H229" s="4" t="n"/>
+      <c r="I229" s="4" t="n"/>
+      <c r="J229" s="4" t="n"/>
+      <c r="K229" s="4" t="n"/>
+      <c r="L229" s="4" t="n"/>
+      <c r="M229" s="4" t="n"/>
+      <c r="N229" s="4" t="n"/>
+      <c r="O229" s="4" t="n"/>
+      <c r="P229" s="4" t="n"/>
+      <c r="Q229" s="4" t="n"/>
+      <c r="R229" s="4" t="n"/>
+      <c r="S229" s="4" t="n"/>
+      <c r="T229" s="4" t="n"/>
+      <c r="U229" s="4" t="n"/>
+      <c r="V229" s="4" t="n"/>
+      <c r="W229" s="4" t="n"/>
+      <c r="X229" s="4" t="n"/>
+      <c r="Y229" s="4" t="n"/>
+      <c r="Z229" s="4" t="n"/>
+      <c r="AA229" s="4" t="n"/>
+      <c r="AB229" s="4" t="n"/>
+      <c r="AC229" s="4" t="n"/>
+      <c r="AD229" s="4" t="n"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="4" t="n"/>
+      <c r="B230" s="4" t="n"/>
+      <c r="C230" s="4" t="n"/>
+      <c r="D230" s="4" t="n"/>
+      <c r="E230" s="4" t="n"/>
+      <c r="F230" s="4" t="n"/>
+      <c r="G230" s="4" t="n"/>
+      <c r="H230" s="4" t="n"/>
+      <c r="I230" s="4" t="n"/>
+      <c r="J230" s="4" t="n"/>
+      <c r="K230" s="4" t="n"/>
+      <c r="L230" s="4" t="n"/>
+      <c r="M230" s="4" t="n"/>
+      <c r="N230" s="4" t="n"/>
+      <c r="O230" s="4" t="n"/>
+      <c r="P230" s="4" t="n"/>
+      <c r="Q230" s="4" t="n"/>
+      <c r="R230" s="4" t="n"/>
+      <c r="S230" s="4" t="n"/>
+      <c r="T230" s="4" t="n"/>
+      <c r="U230" s="4" t="n"/>
+      <c r="V230" s="4" t="n"/>
+      <c r="W230" s="4" t="n"/>
+      <c r="X230" s="4" t="n"/>
+      <c r="Y230" s="4" t="n"/>
+      <c r="Z230" s="4" t="n"/>
+      <c r="AA230" s="4" t="n"/>
+      <c r="AB230" s="4" t="n"/>
+      <c r="AC230" s="4" t="n"/>
+      <c r="AD230" s="4" t="n"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="4" t="n"/>
+      <c r="B231" s="4" t="n"/>
+      <c r="C231" s="4" t="n"/>
+      <c r="D231" s="4" t="n"/>
+      <c r="E231" s="4" t="n"/>
+      <c r="F231" s="4" t="n"/>
+      <c r="G231" s="4" t="n"/>
+      <c r="H231" s="4" t="n"/>
+      <c r="I231" s="4" t="n"/>
+      <c r="J231" s="4" t="n"/>
+      <c r="K231" s="4" t="n"/>
+      <c r="L231" s="4" t="n"/>
+      <c r="M231" s="4" t="n"/>
+      <c r="N231" s="4" t="n"/>
+      <c r="O231" s="4" t="n"/>
+      <c r="P231" s="4" t="n"/>
+      <c r="Q231" s="4" t="n"/>
+      <c r="R231" s="4" t="n"/>
+      <c r="S231" s="4" t="n"/>
+      <c r="T231" s="4" t="n"/>
+      <c r="U231" s="4" t="n"/>
+      <c r="V231" s="4" t="n"/>
+      <c r="W231" s="4" t="n"/>
+      <c r="X231" s="4" t="n"/>
+      <c r="Y231" s="4" t="n"/>
+      <c r="Z231" s="4" t="n"/>
+      <c r="AA231" s="4" t="n"/>
+      <c r="AB231" s="4" t="n"/>
+      <c r="AC231" s="4" t="n"/>
+      <c r="AD231" s="4" t="n"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="4" t="n"/>
+      <c r="B232" s="4" t="n"/>
+      <c r="C232" s="4" t="n"/>
+      <c r="D232" s="4" t="n"/>
+      <c r="E232" s="4" t="n"/>
+      <c r="F232" s="4" t="n"/>
+      <c r="G232" s="4" t="n"/>
+      <c r="H232" s="4" t="n"/>
+      <c r="I232" s="4" t="n"/>
+      <c r="J232" s="4" t="n"/>
+      <c r="K232" s="4" t="n"/>
+      <c r="L232" s="4" t="n"/>
+      <c r="M232" s="4" t="n"/>
+      <c r="N232" s="4" t="n"/>
+      <c r="O232" s="4" t="n"/>
+      <c r="P232" s="4" t="n"/>
+      <c r="Q232" s="4" t="n"/>
+      <c r="R232" s="4" t="n"/>
+      <c r="S232" s="4" t="n"/>
+      <c r="T232" s="4" t="n"/>
+      <c r="U232" s="4" t="n"/>
+      <c r="V232" s="4" t="n"/>
+      <c r="W232" s="4" t="n"/>
+      <c r="X232" s="4" t="n"/>
+      <c r="Y232" s="4" t="n"/>
+      <c r="Z232" s="4" t="n"/>
+      <c r="AA232" s="4" t="n"/>
+      <c r="AB232" s="4" t="n"/>
+      <c r="AC232" s="4" t="n"/>
+      <c r="AD232" s="4" t="n"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="4" t="n"/>
+      <c r="B233" s="4" t="n"/>
+      <c r="C233" s="4" t="n"/>
+      <c r="D233" s="4" t="n"/>
+      <c r="E233" s="4" t="n"/>
+      <c r="F233" s="4" t="n"/>
+      <c r="G233" s="4" t="n"/>
+      <c r="H233" s="4" t="n"/>
+      <c r="I233" s="4" t="n"/>
+      <c r="J233" s="4" t="n"/>
+      <c r="K233" s="4" t="n"/>
+      <c r="L233" s="4" t="n"/>
+      <c r="M233" s="4" t="n"/>
+      <c r="N233" s="4" t="n"/>
+      <c r="O233" s="4" t="n"/>
+      <c r="P233" s="4" t="n"/>
+      <c r="Q233" s="4" t="n"/>
+      <c r="R233" s="4" t="n"/>
+      <c r="S233" s="4" t="n"/>
+      <c r="T233" s="4" t="n"/>
+      <c r="U233" s="4" t="n"/>
+      <c r="V233" s="4" t="n"/>
+      <c r="W233" s="4" t="n"/>
+      <c r="X233" s="4" t="n"/>
+      <c r="Y233" s="4" t="n"/>
+      <c r="Z233" s="4" t="n"/>
+      <c r="AA233" s="4" t="n"/>
+      <c r="AB233" s="4" t="n"/>
+      <c r="AC233" s="4" t="n"/>
+      <c r="AD233" s="4" t="n"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="4" t="n"/>
+      <c r="B234" s="4" t="n"/>
+      <c r="C234" s="4" t="n"/>
+      <c r="D234" s="4" t="n"/>
+      <c r="E234" s="4" t="n"/>
+      <c r="F234" s="4" t="n"/>
+      <c r="G234" s="4" t="n"/>
+      <c r="H234" s="4" t="n"/>
+      <c r="I234" s="4" t="n"/>
+      <c r="J234" s="4" t="n"/>
+      <c r="K234" s="4" t="n"/>
+      <c r="L234" s="4" t="n"/>
+      <c r="M234" s="4" t="n"/>
+      <c r="N234" s="4" t="n"/>
+      <c r="O234" s="4" t="n"/>
+      <c r="P234" s="4" t="n"/>
+      <c r="Q234" s="4" t="n"/>
+      <c r="R234" s="4" t="n"/>
+      <c r="S234" s="4" t="n"/>
+      <c r="T234" s="4" t="n"/>
+      <c r="U234" s="4" t="n"/>
+      <c r="V234" s="4" t="n"/>
+      <c r="W234" s="4" t="n"/>
+      <c r="X234" s="4" t="n"/>
+      <c r="Y234" s="4" t="n"/>
+      <c r="Z234" s="4" t="n"/>
+      <c r="AA234" s="4" t="n"/>
+      <c r="AB234" s="4" t="n"/>
+      <c r="AC234" s="4" t="n"/>
+      <c r="AD234" s="4" t="n"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4" t="n"/>
+      <c r="B235" s="4" t="n"/>
+      <c r="C235" s="4" t="n"/>
+      <c r="D235" s="4" t="n"/>
+      <c r="E235" s="4" t="n"/>
+      <c r="F235" s="4" t="n"/>
+      <c r="G235" s="4" t="n"/>
+      <c r="H235" s="4" t="n"/>
+      <c r="I235" s="4" t="n"/>
+      <c r="J235" s="4" t="n"/>
+      <c r="K235" s="4" t="n"/>
+      <c r="L235" s="4" t="n"/>
+      <c r="M235" s="4" t="n"/>
+      <c r="N235" s="4" t="n"/>
+      <c r="O235" s="4" t="n"/>
+      <c r="P235" s="4" t="n"/>
+      <c r="Q235" s="4" t="n"/>
+      <c r="R235" s="4" t="n"/>
+      <c r="S235" s="4" t="n"/>
+      <c r="T235" s="4" t="n"/>
+      <c r="U235" s="4" t="n"/>
+      <c r="V235" s="4" t="n"/>
+      <c r="W235" s="4" t="n"/>
+      <c r="X235" s="4" t="n"/>
+      <c r="Y235" s="4" t="n"/>
+      <c r="Z235" s="4" t="n"/>
+      <c r="AA235" s="4" t="n"/>
+      <c r="AB235" s="4" t="n"/>
+      <c r="AC235" s="4" t="n"/>
+      <c r="AD235" s="4" t="n"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4" t="n"/>
+      <c r="B236" s="4" t="n"/>
+      <c r="C236" s="4" t="n"/>
+      <c r="D236" s="4" t="n"/>
+      <c r="E236" s="4" t="n"/>
+      <c r="F236" s="4" t="n"/>
+      <c r="G236" s="4" t="n"/>
+      <c r="H236" s="4" t="n"/>
+      <c r="I236" s="4" t="n"/>
+      <c r="J236" s="4" t="n"/>
+      <c r="K236" s="4" t="n"/>
+      <c r="L236" s="4" t="n"/>
+      <c r="M236" s="4" t="n"/>
+      <c r="N236" s="4" t="n"/>
+      <c r="O236" s="4" t="n"/>
+      <c r="P236" s="4" t="n"/>
+      <c r="Q236" s="4" t="n"/>
+      <c r="R236" s="4" t="n"/>
+      <c r="S236" s="4" t="n"/>
+      <c r="T236" s="4" t="n"/>
+      <c r="U236" s="4" t="n"/>
+      <c r="V236" s="4" t="n"/>
+      <c r="W236" s="4" t="n"/>
+      <c r="X236" s="4" t="n"/>
+      <c r="Y236" s="4" t="n"/>
+      <c r="Z236" s="4" t="n"/>
+      <c r="AA236" s="4" t="n"/>
+      <c r="AB236" s="4" t="n"/>
+      <c r="AC236" s="4" t="n"/>
+      <c r="AD236" s="4" t="n"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="4" t="n"/>
+      <c r="B237" s="4" t="n"/>
+      <c r="C237" s="4" t="n"/>
+      <c r="D237" s="4" t="n"/>
+      <c r="E237" s="4" t="n"/>
+      <c r="F237" s="4" t="n"/>
+      <c r="G237" s="4" t="n"/>
+      <c r="H237" s="4" t="n"/>
+      <c r="I237" s="4" t="n"/>
+      <c r="J237" s="4" t="n"/>
+      <c r="K237" s="4" t="n"/>
+      <c r="L237" s="4" t="n"/>
+      <c r="M237" s="4" t="n"/>
+      <c r="N237" s="4" t="n"/>
+      <c r="O237" s="4" t="n"/>
+      <c r="P237" s="4" t="n"/>
+      <c r="Q237" s="4" t="n"/>
+      <c r="R237" s="4" t="n"/>
+      <c r="S237" s="4" t="n"/>
+      <c r="T237" s="4" t="n"/>
+      <c r="U237" s="4" t="n"/>
+      <c r="V237" s="4" t="n"/>
+      <c r="W237" s="4" t="n"/>
+      <c r="X237" s="4" t="n"/>
+      <c r="Y237" s="4" t="n"/>
+      <c r="Z237" s="4" t="n"/>
+      <c r="AA237" s="4" t="n"/>
+      <c r="AB237" s="4" t="n"/>
+      <c r="AC237" s="4" t="n"/>
+      <c r="AD237" s="4" t="n"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="4" t="n"/>
+      <c r="B238" s="4" t="n"/>
+      <c r="C238" s="4" t="n"/>
+      <c r="D238" s="4" t="n"/>
+      <c r="E238" s="4" t="n"/>
+      <c r="F238" s="4" t="n"/>
+      <c r="G238" s="4" t="n"/>
+      <c r="H238" s="4" t="n"/>
+      <c r="I238" s="4" t="n"/>
+      <c r="J238" s="4" t="n"/>
+      <c r="K238" s="4" t="n"/>
+      <c r="L238" s="4" t="n"/>
+      <c r="M238" s="4" t="n"/>
+      <c r="N238" s="4" t="n"/>
+      <c r="O238" s="4" t="n"/>
+      <c r="P238" s="4" t="n"/>
+      <c r="Q238" s="4" t="n"/>
+      <c r="R238" s="4" t="n"/>
+      <c r="S238" s="4" t="n"/>
+      <c r="T238" s="4" t="n"/>
+      <c r="U238" s="4" t="n"/>
+      <c r="V238" s="4" t="n"/>
+      <c r="W238" s="4" t="n"/>
+      <c r="X238" s="4" t="n"/>
+      <c r="Y238" s="4" t="n"/>
+      <c r="Z238" s="4" t="n"/>
+      <c r="AA238" s="4" t="n"/>
+      <c r="AB238" s="4" t="n"/>
+      <c r="AC238" s="4" t="n"/>
+      <c r="AD238" s="4" t="n"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="4" t="n"/>
+      <c r="B239" s="4" t="n"/>
+      <c r="C239" s="4" t="n"/>
+      <c r="D239" s="4" t="n"/>
+      <c r="E239" s="4" t="n"/>
+      <c r="F239" s="4" t="n"/>
+      <c r="G239" s="4" t="n"/>
+      <c r="H239" s="4" t="n"/>
+      <c r="I239" s="4" t="n"/>
+      <c r="J239" s="4" t="n"/>
+      <c r="K239" s="4" t="n"/>
+      <c r="L239" s="4" t="n"/>
+      <c r="M239" s="4" t="n"/>
+      <c r="N239" s="4" t="n"/>
+      <c r="O239" s="4" t="n"/>
+      <c r="P239" s="4" t="n"/>
+      <c r="Q239" s="4" t="n"/>
+      <c r="R239" s="4" t="n"/>
+      <c r="S239" s="4" t="n"/>
+      <c r="T239" s="4" t="n"/>
+      <c r="U239" s="4" t="n"/>
+      <c r="V239" s="4" t="n"/>
+      <c r="W239" s="4" t="n"/>
+      <c r="X239" s="4" t="n"/>
+      <c r="Y239" s="4" t="n"/>
+      <c r="Z239" s="4" t="n"/>
+      <c r="AA239" s="4" t="n"/>
+      <c r="AB239" s="4" t="n"/>
+      <c r="AC239" s="4" t="n"/>
+      <c r="AD239" s="4" t="n"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="4" t="n"/>
+      <c r="B240" s="4" t="n"/>
+      <c r="C240" s="4" t="n"/>
+      <c r="D240" s="4" t="n"/>
+      <c r="E240" s="4" t="n"/>
+      <c r="F240" s="4" t="n"/>
+      <c r="G240" s="4" t="n"/>
+      <c r="H240" s="4" t="n"/>
+      <c r="I240" s="4" t="n"/>
+      <c r="J240" s="4" t="n"/>
+      <c r="K240" s="4" t="n"/>
+      <c r="L240" s="4" t="n"/>
+      <c r="M240" s="4" t="n"/>
+      <c r="N240" s="4" t="n"/>
+      <c r="O240" s="4" t="n"/>
+      <c r="P240" s="4" t="n"/>
+      <c r="Q240" s="4" t="n"/>
+      <c r="R240" s="4" t="n"/>
+      <c r="S240" s="4" t="n"/>
+      <c r="T240" s="4" t="n"/>
+      <c r="U240" s="4" t="n"/>
+      <c r="V240" s="4" t="n"/>
+      <c r="W240" s="4" t="n"/>
+      <c r="X240" s="4" t="n"/>
+      <c r="Y240" s="4" t="n"/>
+      <c r="Z240" s="4" t="n"/>
+      <c r="AA240" s="4" t="n"/>
+      <c r="AB240" s="4" t="n"/>
+      <c r="AC240" s="4" t="n"/>
+      <c r="AD240" s="4" t="n"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="4" t="n"/>
+      <c r="B241" s="4" t="n"/>
+      <c r="C241" s="4" t="n"/>
+      <c r="D241" s="4" t="n"/>
+      <c r="E241" s="4" t="n"/>
+      <c r="F241" s="4" t="n"/>
+      <c r="G241" s="4" t="n"/>
+      <c r="H241" s="4" t="n"/>
+      <c r="I241" s="4" t="n"/>
+      <c r="J241" s="4" t="n"/>
+      <c r="K241" s="4" t="n"/>
+      <c r="L241" s="4" t="n"/>
+      <c r="M241" s="4" t="n"/>
+      <c r="N241" s="4" t="n"/>
+      <c r="O241" s="4" t="n"/>
+      <c r="P241" s="4" t="n"/>
+      <c r="Q241" s="4" t="n"/>
+      <c r="R241" s="4" t="n"/>
+      <c r="S241" s="4" t="n"/>
+      <c r="T241" s="4" t="n"/>
+      <c r="U241" s="4" t="n"/>
+      <c r="V241" s="4" t="n"/>
+      <c r="W241" s="4" t="n"/>
+      <c r="X241" s="4" t="n"/>
+      <c r="Y241" s="4" t="n"/>
+      <c r="Z241" s="4" t="n"/>
+      <c r="AA241" s="4" t="n"/>
+      <c r="AB241" s="4" t="n"/>
+      <c r="AC241" s="4" t="n"/>
+      <c r="AD241" s="4" t="n"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="4" t="n"/>
+      <c r="B242" s="4" t="n"/>
+      <c r="C242" s="4" t="n"/>
+      <c r="D242" s="4" t="n"/>
+      <c r="E242" s="4" t="n"/>
+      <c r="F242" s="4" t="n"/>
+      <c r="G242" s="4" t="n"/>
+      <c r="H242" s="4" t="n"/>
+      <c r="I242" s="4" t="n"/>
+      <c r="J242" s="4" t="n"/>
+      <c r="K242" s="4" t="n"/>
+      <c r="L242" s="4" t="n"/>
+      <c r="M242" s="4" t="n"/>
+      <c r="N242" s="4" t="n"/>
+      <c r="O242" s="4" t="n"/>
+      <c r="P242" s="4" t="n"/>
+      <c r="Q242" s="4" t="n"/>
+      <c r="R242" s="4" t="n"/>
+      <c r="S242" s="4" t="n"/>
+      <c r="T242" s="4" t="n"/>
+      <c r="U242" s="4" t="n"/>
+      <c r="V242" s="4" t="n"/>
+      <c r="W242" s="4" t="n"/>
+      <c r="X242" s="4" t="n"/>
+      <c r="Y242" s="4" t="n"/>
+      <c r="Z242" s="4" t="n"/>
+      <c r="AA242" s="4" t="n"/>
+      <c r="AB242" s="4" t="n"/>
+      <c r="AC242" s="4" t="n"/>
+      <c r="AD242" s="4" t="n"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="4" t="n"/>
+      <c r="B243" s="4" t="n"/>
+      <c r="C243" s="4" t="n"/>
+      <c r="D243" s="4" t="n"/>
+      <c r="E243" s="4" t="n"/>
+      <c r="F243" s="4" t="n"/>
+      <c r="G243" s="4" t="n"/>
+      <c r="H243" s="4" t="n"/>
+      <c r="I243" s="4" t="n"/>
+      <c r="J243" s="4" t="n"/>
+      <c r="K243" s="4" t="n"/>
+      <c r="L243" s="4" t="n"/>
+      <c r="M243" s="4" t="n"/>
+      <c r="N243" s="4" t="n"/>
+      <c r="O243" s="4" t="n"/>
+      <c r="P243" s="4" t="n"/>
+      <c r="Q243" s="4" t="n"/>
+      <c r="R243" s="4" t="n"/>
+      <c r="S243" s="4" t="n"/>
+      <c r="T243" s="4" t="n"/>
+      <c r="U243" s="4" t="n"/>
+      <c r="V243" s="4" t="n"/>
+      <c r="W243" s="4" t="n"/>
+      <c r="X243" s="4" t="n"/>
+      <c r="Y243" s="4" t="n"/>
+      <c r="Z243" s="4" t="n"/>
+      <c r="AA243" s="4" t="n"/>
+      <c r="AB243" s="4" t="n"/>
+      <c r="AC243" s="4" t="n"/>
+      <c r="AD243" s="4" t="n"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="4" t="n"/>
+      <c r="B244" s="4" t="n"/>
+      <c r="C244" s="4" t="n"/>
+      <c r="D244" s="4" t="n"/>
+      <c r="E244" s="4" t="n"/>
+      <c r="F244" s="4" t="n"/>
+      <c r="G244" s="4" t="n"/>
+      <c r="H244" s="4" t="n"/>
+      <c r="I244" s="4" t="n"/>
+      <c r="J244" s="4" t="n"/>
+      <c r="K244" s="4" t="n"/>
+      <c r="L244" s="4" t="n"/>
+      <c r="M244" s="4" t="n"/>
+      <c r="N244" s="4" t="n"/>
+      <c r="O244" s="4" t="n"/>
+      <c r="P244" s="4" t="n"/>
+      <c r="Q244" s="4" t="n"/>
+      <c r="R244" s="4" t="n"/>
+      <c r="S244" s="4" t="n"/>
+      <c r="T244" s="4" t="n"/>
+      <c r="U244" s="4" t="n"/>
+      <c r="V244" s="4" t="n"/>
+      <c r="W244" s="4" t="n"/>
+      <c r="X244" s="4" t="n"/>
+      <c r="Y244" s="4" t="n"/>
+      <c r="Z244" s="4" t="n"/>
+      <c r="AA244" s="4" t="n"/>
+      <c r="AB244" s="4" t="n"/>
+      <c r="AC244" s="4" t="n"/>
+      <c r="AD244" s="4" t="n"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="4" t="n"/>
+      <c r="B245" s="4" t="n"/>
+      <c r="C245" s="4" t="n"/>
+      <c r="D245" s="4" t="n"/>
+      <c r="E245" s="4" t="n"/>
+      <c r="F245" s="4" t="n"/>
+      <c r="G245" s="4" t="n"/>
+      <c r="H245" s="4" t="n"/>
+      <c r="I245" s="4" t="n"/>
+      <c r="J245" s="4" t="n"/>
+      <c r="K245" s="4" t="n"/>
+      <c r="L245" s="4" t="n"/>
+      <c r="M245" s="4" t="n"/>
+      <c r="N245" s="4" t="n"/>
+      <c r="O245" s="4" t="n"/>
+      <c r="P245" s="4" t="n"/>
+      <c r="Q245" s="4" t="n"/>
+      <c r="R245" s="4" t="n"/>
+      <c r="S245" s="4" t="n"/>
+      <c r="T245" s="4" t="n"/>
+      <c r="U245" s="4" t="n"/>
+      <c r="V245" s="4" t="n"/>
+      <c r="W245" s="4" t="n"/>
+      <c r="X245" s="4" t="n"/>
+      <c r="Y245" s="4" t="n"/>
+      <c r="Z245" s="4" t="n"/>
+      <c r="AA245" s="4" t="n"/>
+      <c r="AB245" s="4" t="n"/>
+      <c r="AC245" s="4" t="n"/>
+      <c r="AD245" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10336,7 +15136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AD88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11597,6 +16397,1606 @@
       <c r="AC38" s="4" t="n"/>
       <c r="AD38" s="4" t="n"/>
     </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="n"/>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="4" t="n"/>
+      <c r="Z39" s="4" t="n"/>
+      <c r="AA39" s="4" t="n"/>
+      <c r="AB39" s="4" t="n"/>
+      <c r="AC39" s="4" t="n"/>
+      <c r="AD39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
+      <c r="AB40" s="4" t="n"/>
+      <c r="AC40" s="4" t="n"/>
+      <c r="AD40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="n"/>
+      <c r="Q41" s="4" t="n"/>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n"/>
+      <c r="AA41" s="4" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AC41" s="4" t="n"/>
+      <c r="AD41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
+      <c r="O42" s="4" t="n"/>
+      <c r="P42" s="4" t="n"/>
+      <c r="Q42" s="4" t="n"/>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n"/>
+      <c r="AA42" s="4" t="n"/>
+      <c r="AB42" s="4" t="n"/>
+      <c r="AC42" s="4" t="n"/>
+      <c r="AD42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
+      <c r="O43" s="4" t="n"/>
+      <c r="P43" s="4" t="n"/>
+      <c r="Q43" s="4" t="n"/>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="n"/>
+      <c r="W43" s="4" t="n"/>
+      <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="4" t="n"/>
+      <c r="Z43" s="4" t="n"/>
+      <c r="AA43" s="4" t="n"/>
+      <c r="AB43" s="4" t="n"/>
+      <c r="AC43" s="4" t="n"/>
+      <c r="AD43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="4" t="n"/>
+      <c r="P44" s="4" t="n"/>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="4" t="n"/>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
+      <c r="H45" s="4" t="n"/>
+      <c r="I45" s="4" t="n"/>
+      <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+      <c r="S45" s="4" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="4" t="n"/>
+      <c r="V45" s="4" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
+      <c r="AA45" s="4" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AC45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
+      <c r="H46" s="4" t="n"/>
+      <c r="I46" s="4" t="n"/>
+      <c r="J46" s="4" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
+      <c r="O46" s="4" t="n"/>
+      <c r="P46" s="4" t="n"/>
+      <c r="Q46" s="4" t="n"/>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="4" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="4" t="n"/>
+      <c r="V46" s="4" t="n"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n"/>
+      <c r="AA46" s="4" t="n"/>
+      <c r="AB46" s="4" t="n"/>
+      <c r="AC46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
+      <c r="P47" s="4" t="n"/>
+      <c r="Q47" s="4" t="n"/>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="4" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n"/>
+      <c r="AA47" s="4" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AC47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="n"/>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
+      <c r="AB48" s="4" t="n"/>
+      <c r="AC48" s="4" t="n"/>
+      <c r="AD48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n"/>
+      <c r="AA49" s="4" t="n"/>
+      <c r="AB49" s="4" t="n"/>
+      <c r="AC49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="4" t="n"/>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="n"/>
+      <c r="Q50" s="4" t="n"/>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
+      <c r="AB50" s="4" t="n"/>
+      <c r="AC50" s="4" t="n"/>
+      <c r="AD50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="4" t="n"/>
+      <c r="I51" s="4" t="n"/>
+      <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
+      <c r="O51" s="4" t="n"/>
+      <c r="P51" s="4" t="n"/>
+      <c r="Q51" s="4" t="n"/>
+      <c r="R51" s="4" t="n"/>
+      <c r="S51" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
+      <c r="V51" s="4" t="n"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="n"/>
+      <c r="AA51" s="4" t="n"/>
+      <c r="AB51" s="4" t="n"/>
+      <c r="AC51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="4" t="n"/>
+      <c r="I52" s="4" t="n"/>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
+      <c r="O52" s="4" t="n"/>
+      <c r="P52" s="4" t="n"/>
+      <c r="Q52" s="4" t="n"/>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
+      <c r="AA52" s="4" t="n"/>
+      <c r="AB52" s="4" t="n"/>
+      <c r="AC52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
+      <c r="AA53" s="4" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AC53" s="4" t="n"/>
+      <c r="AD53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="n"/>
+      <c r="Q54" s="4" t="n"/>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="4" t="n"/>
+      <c r="Y54" s="4" t="n"/>
+      <c r="Z54" s="4" t="n"/>
+      <c r="AA54" s="4" t="n"/>
+      <c r="AB54" s="4" t="n"/>
+      <c r="AC54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+      <c r="O55" s="4" t="n"/>
+      <c r="P55" s="4" t="n"/>
+      <c r="Q55" s="4" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="4" t="n"/>
+      <c r="Y55" s="4" t="n"/>
+      <c r="Z55" s="4" t="n"/>
+      <c r="AA55" s="4" t="n"/>
+      <c r="AB55" s="4" t="n"/>
+      <c r="AC55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+      <c r="O56" s="4" t="n"/>
+      <c r="P56" s="4" t="n"/>
+      <c r="Q56" s="4" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="4" t="n"/>
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="4" t="n"/>
+      <c r="V56" s="4" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="X56" s="4" t="n"/>
+      <c r="Y56" s="4" t="n"/>
+      <c r="Z56" s="4" t="n"/>
+      <c r="AA56" s="4" t="n"/>
+      <c r="AB56" s="4" t="n"/>
+      <c r="AC56" s="4" t="n"/>
+      <c r="AD56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="n"/>
+      <c r="Q57" s="4" t="n"/>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="X57" s="4" t="n"/>
+      <c r="Y57" s="4" t="n"/>
+      <c r="Z57" s="4" t="n"/>
+      <c r="AA57" s="4" t="n"/>
+      <c r="AB57" s="4" t="n"/>
+      <c r="AC57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="n"/>
+      <c r="Q58" s="4" t="n"/>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="X58" s="4" t="n"/>
+      <c r="Y58" s="4" t="n"/>
+      <c r="Z58" s="4" t="n"/>
+      <c r="AA58" s="4" t="n"/>
+      <c r="AB58" s="4" t="n"/>
+      <c r="AC58" s="4" t="n"/>
+      <c r="AD58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="n"/>
+      <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
+      <c r="O59" s="4" t="n"/>
+      <c r="P59" s="4" t="n"/>
+      <c r="Q59" s="4" t="n"/>
+      <c r="R59" s="4" t="n"/>
+      <c r="S59" s="4" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="4" t="n"/>
+      <c r="V59" s="4" t="n"/>
+      <c r="W59" s="4" t="n"/>
+      <c r="X59" s="4" t="n"/>
+      <c r="Y59" s="4" t="n"/>
+      <c r="Z59" s="4" t="n"/>
+      <c r="AA59" s="4" t="n"/>
+      <c r="AB59" s="4" t="n"/>
+      <c r="AC59" s="4" t="n"/>
+      <c r="AD59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+      <c r="H60" s="4" t="n"/>
+      <c r="I60" s="4" t="n"/>
+      <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
+      <c r="O60" s="4" t="n"/>
+      <c r="P60" s="4" t="n"/>
+      <c r="Q60" s="4" t="n"/>
+      <c r="R60" s="4" t="n"/>
+      <c r="S60" s="4" t="n"/>
+      <c r="T60" s="4" t="n"/>
+      <c r="U60" s="4" t="n"/>
+      <c r="V60" s="4" t="n"/>
+      <c r="W60" s="4" t="n"/>
+      <c r="X60" s="4" t="n"/>
+      <c r="Y60" s="4" t="n"/>
+      <c r="Z60" s="4" t="n"/>
+      <c r="AA60" s="4" t="n"/>
+      <c r="AB60" s="4" t="n"/>
+      <c r="AC60" s="4" t="n"/>
+      <c r="AD60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="4" t="n"/>
+      <c r="G61" s="4" t="n"/>
+      <c r="H61" s="4" t="n"/>
+      <c r="I61" s="4" t="n"/>
+      <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
+      <c r="O61" s="4" t="n"/>
+      <c r="P61" s="4" t="n"/>
+      <c r="Q61" s="4" t="n"/>
+      <c r="R61" s="4" t="n"/>
+      <c r="S61" s="4" t="n"/>
+      <c r="T61" s="4" t="n"/>
+      <c r="U61" s="4" t="n"/>
+      <c r="V61" s="4" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="X61" s="4" t="n"/>
+      <c r="Y61" s="4" t="n"/>
+      <c r="Z61" s="4" t="n"/>
+      <c r="AA61" s="4" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AC61" s="4" t="n"/>
+      <c r="AD61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
+      <c r="G62" s="4" t="n"/>
+      <c r="H62" s="4" t="n"/>
+      <c r="I62" s="4" t="n"/>
+      <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
+      <c r="O62" s="4" t="n"/>
+      <c r="P62" s="4" t="n"/>
+      <c r="Q62" s="4" t="n"/>
+      <c r="R62" s="4" t="n"/>
+      <c r="S62" s="4" t="n"/>
+      <c r="T62" s="4" t="n"/>
+      <c r="U62" s="4" t="n"/>
+      <c r="V62" s="4" t="n"/>
+      <c r="W62" s="4" t="n"/>
+      <c r="X62" s="4" t="n"/>
+      <c r="Y62" s="4" t="n"/>
+      <c r="Z62" s="4" t="n"/>
+      <c r="AA62" s="4" t="n"/>
+      <c r="AB62" s="4" t="n"/>
+      <c r="AC62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
+      <c r="G63" s="4" t="n"/>
+      <c r="H63" s="4" t="n"/>
+      <c r="I63" s="4" t="n"/>
+      <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
+      <c r="O63" s="4" t="n"/>
+      <c r="P63" s="4" t="n"/>
+      <c r="Q63" s="4" t="n"/>
+      <c r="R63" s="4" t="n"/>
+      <c r="S63" s="4" t="n"/>
+      <c r="T63" s="4" t="n"/>
+      <c r="U63" s="4" t="n"/>
+      <c r="V63" s="4" t="n"/>
+      <c r="W63" s="4" t="n"/>
+      <c r="X63" s="4" t="n"/>
+      <c r="Y63" s="4" t="n"/>
+      <c r="Z63" s="4" t="n"/>
+      <c r="AA63" s="4" t="n"/>
+      <c r="AB63" s="4" t="n"/>
+      <c r="AC63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
+      <c r="G64" s="4" t="n"/>
+      <c r="H64" s="4" t="n"/>
+      <c r="I64" s="4" t="n"/>
+      <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
+      <c r="O64" s="4" t="n"/>
+      <c r="P64" s="4" t="n"/>
+      <c r="Q64" s="4" t="n"/>
+      <c r="R64" s="4" t="n"/>
+      <c r="S64" s="4" t="n"/>
+      <c r="T64" s="4" t="n"/>
+      <c r="U64" s="4" t="n"/>
+      <c r="V64" s="4" t="n"/>
+      <c r="W64" s="4" t="n"/>
+      <c r="X64" s="4" t="n"/>
+      <c r="Y64" s="4" t="n"/>
+      <c r="Z64" s="4" t="n"/>
+      <c r="AA64" s="4" t="n"/>
+      <c r="AB64" s="4" t="n"/>
+      <c r="AC64" s="4" t="n"/>
+      <c r="AD64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
+      <c r="G65" s="4" t="n"/>
+      <c r="H65" s="4" t="n"/>
+      <c r="I65" s="4" t="n"/>
+      <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
+      <c r="O65" s="4" t="n"/>
+      <c r="P65" s="4" t="n"/>
+      <c r="Q65" s="4" t="n"/>
+      <c r="R65" s="4" t="n"/>
+      <c r="S65" s="4" t="n"/>
+      <c r="T65" s="4" t="n"/>
+      <c r="U65" s="4" t="n"/>
+      <c r="V65" s="4" t="n"/>
+      <c r="W65" s="4" t="n"/>
+      <c r="X65" s="4" t="n"/>
+      <c r="Y65" s="4" t="n"/>
+      <c r="Z65" s="4" t="n"/>
+      <c r="AA65" s="4" t="n"/>
+      <c r="AB65" s="4" t="n"/>
+      <c r="AC65" s="4" t="n"/>
+      <c r="AD65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
+      <c r="G66" s="4" t="n"/>
+      <c r="H66" s="4" t="n"/>
+      <c r="I66" s="4" t="n"/>
+      <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
+      <c r="O66" s="4" t="n"/>
+      <c r="P66" s="4" t="n"/>
+      <c r="Q66" s="4" t="n"/>
+      <c r="R66" s="4" t="n"/>
+      <c r="S66" s="4" t="n"/>
+      <c r="T66" s="4" t="n"/>
+      <c r="U66" s="4" t="n"/>
+      <c r="V66" s="4" t="n"/>
+      <c r="W66" s="4" t="n"/>
+      <c r="X66" s="4" t="n"/>
+      <c r="Y66" s="4" t="n"/>
+      <c r="Z66" s="4" t="n"/>
+      <c r="AA66" s="4" t="n"/>
+      <c r="AB66" s="4" t="n"/>
+      <c r="AC66" s="4" t="n"/>
+      <c r="AD66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
+      <c r="G67" s="4" t="n"/>
+      <c r="H67" s="4" t="n"/>
+      <c r="I67" s="4" t="n"/>
+      <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="4" t="n"/>
+      <c r="N67" s="4" t="n"/>
+      <c r="O67" s="4" t="n"/>
+      <c r="P67" s="4" t="n"/>
+      <c r="Q67" s="4" t="n"/>
+      <c r="R67" s="4" t="n"/>
+      <c r="S67" s="4" t="n"/>
+      <c r="T67" s="4" t="n"/>
+      <c r="U67" s="4" t="n"/>
+      <c r="V67" s="4" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="X67" s="4" t="n"/>
+      <c r="Y67" s="4" t="n"/>
+      <c r="Z67" s="4" t="n"/>
+      <c r="AA67" s="4" t="n"/>
+      <c r="AB67" s="4" t="n"/>
+      <c r="AC67" s="4" t="n"/>
+      <c r="AD67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
+      <c r="G68" s="4" t="n"/>
+      <c r="H68" s="4" t="n"/>
+      <c r="I68" s="4" t="n"/>
+      <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="4" t="n"/>
+      <c r="N68" s="4" t="n"/>
+      <c r="O68" s="4" t="n"/>
+      <c r="P68" s="4" t="n"/>
+      <c r="Q68" s="4" t="n"/>
+      <c r="R68" s="4" t="n"/>
+      <c r="S68" s="4" t="n"/>
+      <c r="T68" s="4" t="n"/>
+      <c r="U68" s="4" t="n"/>
+      <c r="V68" s="4" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="X68" s="4" t="n"/>
+      <c r="Y68" s="4" t="n"/>
+      <c r="Z68" s="4" t="n"/>
+      <c r="AA68" s="4" t="n"/>
+      <c r="AB68" s="4" t="n"/>
+      <c r="AC68" s="4" t="n"/>
+      <c r="AD68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
+      <c r="G69" s="4" t="n"/>
+      <c r="H69" s="4" t="n"/>
+      <c r="I69" s="4" t="n"/>
+      <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="4" t="n"/>
+      <c r="N69" s="4" t="n"/>
+      <c r="O69" s="4" t="n"/>
+      <c r="P69" s="4" t="n"/>
+      <c r="Q69" s="4" t="n"/>
+      <c r="R69" s="4" t="n"/>
+      <c r="S69" s="4" t="n"/>
+      <c r="T69" s="4" t="n"/>
+      <c r="U69" s="4" t="n"/>
+      <c r="V69" s="4" t="n"/>
+      <c r="W69" s="4" t="n"/>
+      <c r="X69" s="4" t="n"/>
+      <c r="Y69" s="4" t="n"/>
+      <c r="Z69" s="4" t="n"/>
+      <c r="AA69" s="4" t="n"/>
+      <c r="AB69" s="4" t="n"/>
+      <c r="AC69" s="4" t="n"/>
+      <c r="AD69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
+      <c r="G70" s="4" t="n"/>
+      <c r="H70" s="4" t="n"/>
+      <c r="I70" s="4" t="n"/>
+      <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="4" t="n"/>
+      <c r="N70" s="4" t="n"/>
+      <c r="O70" s="4" t="n"/>
+      <c r="P70" s="4" t="n"/>
+      <c r="Q70" s="4" t="n"/>
+      <c r="R70" s="4" t="n"/>
+      <c r="S70" s="4" t="n"/>
+      <c r="T70" s="4" t="n"/>
+      <c r="U70" s="4" t="n"/>
+      <c r="V70" s="4" t="n"/>
+      <c r="W70" s="4" t="n"/>
+      <c r="X70" s="4" t="n"/>
+      <c r="Y70" s="4" t="n"/>
+      <c r="Z70" s="4" t="n"/>
+      <c r="AA70" s="4" t="n"/>
+      <c r="AB70" s="4" t="n"/>
+      <c r="AC70" s="4" t="n"/>
+      <c r="AD70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
+      <c r="G71" s="4" t="n"/>
+      <c r="H71" s="4" t="n"/>
+      <c r="I71" s="4" t="n"/>
+      <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="4" t="n"/>
+      <c r="N71" s="4" t="n"/>
+      <c r="O71" s="4" t="n"/>
+      <c r="P71" s="4" t="n"/>
+      <c r="Q71" s="4" t="n"/>
+      <c r="R71" s="4" t="n"/>
+      <c r="S71" s="4" t="n"/>
+      <c r="T71" s="4" t="n"/>
+      <c r="U71" s="4" t="n"/>
+      <c r="V71" s="4" t="n"/>
+      <c r="W71" s="4" t="n"/>
+      <c r="X71" s="4" t="n"/>
+      <c r="Y71" s="4" t="n"/>
+      <c r="Z71" s="4" t="n"/>
+      <c r="AA71" s="4" t="n"/>
+      <c r="AB71" s="4" t="n"/>
+      <c r="AC71" s="4" t="n"/>
+      <c r="AD71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="n"/>
+      <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
+      <c r="O72" s="4" t="n"/>
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="n"/>
+      <c r="R72" s="4" t="n"/>
+      <c r="S72" s="4" t="n"/>
+      <c r="T72" s="4" t="n"/>
+      <c r="U72" s="4" t="n"/>
+      <c r="V72" s="4" t="n"/>
+      <c r="W72" s="4" t="n"/>
+      <c r="X72" s="4" t="n"/>
+      <c r="Y72" s="4" t="n"/>
+      <c r="Z72" s="4" t="n"/>
+      <c r="AA72" s="4" t="n"/>
+      <c r="AB72" s="4" t="n"/>
+      <c r="AC72" s="4" t="n"/>
+      <c r="AD72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
+      <c r="G73" s="4" t="n"/>
+      <c r="H73" s="4" t="n"/>
+      <c r="I73" s="4" t="n"/>
+      <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="4" t="n"/>
+      <c r="N73" s="4" t="n"/>
+      <c r="O73" s="4" t="n"/>
+      <c r="P73" s="4" t="n"/>
+      <c r="Q73" s="4" t="n"/>
+      <c r="R73" s="4" t="n"/>
+      <c r="S73" s="4" t="n"/>
+      <c r="T73" s="4" t="n"/>
+      <c r="U73" s="4" t="n"/>
+      <c r="V73" s="4" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="X73" s="4" t="n"/>
+      <c r="Y73" s="4" t="n"/>
+      <c r="Z73" s="4" t="n"/>
+      <c r="AA73" s="4" t="n"/>
+      <c r="AB73" s="4" t="n"/>
+      <c r="AC73" s="4" t="n"/>
+      <c r="AD73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
+      <c r="G74" s="4" t="n"/>
+      <c r="H74" s="4" t="n"/>
+      <c r="I74" s="4" t="n"/>
+      <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="4" t="n"/>
+      <c r="N74" s="4" t="n"/>
+      <c r="O74" s="4" t="n"/>
+      <c r="P74" s="4" t="n"/>
+      <c r="Q74" s="4" t="n"/>
+      <c r="R74" s="4" t="n"/>
+      <c r="S74" s="4" t="n"/>
+      <c r="T74" s="4" t="n"/>
+      <c r="U74" s="4" t="n"/>
+      <c r="V74" s="4" t="n"/>
+      <c r="W74" s="4" t="n"/>
+      <c r="X74" s="4" t="n"/>
+      <c r="Y74" s="4" t="n"/>
+      <c r="Z74" s="4" t="n"/>
+      <c r="AA74" s="4" t="n"/>
+      <c r="AB74" s="4" t="n"/>
+      <c r="AC74" s="4" t="n"/>
+      <c r="AD74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
+      <c r="G75" s="4" t="n"/>
+      <c r="H75" s="4" t="n"/>
+      <c r="I75" s="4" t="n"/>
+      <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="4" t="n"/>
+      <c r="N75" s="4" t="n"/>
+      <c r="O75" s="4" t="n"/>
+      <c r="P75" s="4" t="n"/>
+      <c r="Q75" s="4" t="n"/>
+      <c r="R75" s="4" t="n"/>
+      <c r="S75" s="4" t="n"/>
+      <c r="T75" s="4" t="n"/>
+      <c r="U75" s="4" t="n"/>
+      <c r="V75" s="4" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="X75" s="4" t="n"/>
+      <c r="Y75" s="4" t="n"/>
+      <c r="Z75" s="4" t="n"/>
+      <c r="AA75" s="4" t="n"/>
+      <c r="AB75" s="4" t="n"/>
+      <c r="AC75" s="4" t="n"/>
+      <c r="AD75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
+      <c r="G76" s="4" t="n"/>
+      <c r="H76" s="4" t="n"/>
+      <c r="I76" s="4" t="n"/>
+      <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="4" t="n"/>
+      <c r="N76" s="4" t="n"/>
+      <c r="O76" s="4" t="n"/>
+      <c r="P76" s="4" t="n"/>
+      <c r="Q76" s="4" t="n"/>
+      <c r="R76" s="4" t="n"/>
+      <c r="S76" s="4" t="n"/>
+      <c r="T76" s="4" t="n"/>
+      <c r="U76" s="4" t="n"/>
+      <c r="V76" s="4" t="n"/>
+      <c r="W76" s="4" t="n"/>
+      <c r="X76" s="4" t="n"/>
+      <c r="Y76" s="4" t="n"/>
+      <c r="Z76" s="4" t="n"/>
+      <c r="AA76" s="4" t="n"/>
+      <c r="AB76" s="4" t="n"/>
+      <c r="AC76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="4" t="n"/>
+      <c r="I77" s="4" t="n"/>
+      <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
+      <c r="O77" s="4" t="n"/>
+      <c r="P77" s="4" t="n"/>
+      <c r="Q77" s="4" t="n"/>
+      <c r="R77" s="4" t="n"/>
+      <c r="S77" s="4" t="n"/>
+      <c r="T77" s="4" t="n"/>
+      <c r="U77" s="4" t="n"/>
+      <c r="V77" s="4" t="n"/>
+      <c r="W77" s="4" t="n"/>
+      <c r="X77" s="4" t="n"/>
+      <c r="Y77" s="4" t="n"/>
+      <c r="Z77" s="4" t="n"/>
+      <c r="AA77" s="4" t="n"/>
+      <c r="AB77" s="4" t="n"/>
+      <c r="AC77" s="4" t="n"/>
+      <c r="AD77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="4" t="n"/>
+      <c r="I78" s="4" t="n"/>
+      <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
+      <c r="O78" s="4" t="n"/>
+      <c r="P78" s="4" t="n"/>
+      <c r="Q78" s="4" t="n"/>
+      <c r="R78" s="4" t="n"/>
+      <c r="S78" s="4" t="n"/>
+      <c r="T78" s="4" t="n"/>
+      <c r="U78" s="4" t="n"/>
+      <c r="V78" s="4" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="X78" s="4" t="n"/>
+      <c r="Y78" s="4" t="n"/>
+      <c r="Z78" s="4" t="n"/>
+      <c r="AA78" s="4" t="n"/>
+      <c r="AB78" s="4" t="n"/>
+      <c r="AC78" s="4" t="n"/>
+      <c r="AD78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="4" t="n"/>
+      <c r="I79" s="4" t="n"/>
+      <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
+      <c r="O79" s="4" t="n"/>
+      <c r="P79" s="4" t="n"/>
+      <c r="Q79" s="4" t="n"/>
+      <c r="R79" s="4" t="n"/>
+      <c r="S79" s="4" t="n"/>
+      <c r="T79" s="4" t="n"/>
+      <c r="U79" s="4" t="n"/>
+      <c r="V79" s="4" t="n"/>
+      <c r="W79" s="4" t="n"/>
+      <c r="X79" s="4" t="n"/>
+      <c r="Y79" s="4" t="n"/>
+      <c r="Z79" s="4" t="n"/>
+      <c r="AA79" s="4" t="n"/>
+      <c r="AB79" s="4" t="n"/>
+      <c r="AC79" s="4" t="n"/>
+      <c r="AD79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="4" t="n"/>
+      <c r="I80" s="4" t="n"/>
+      <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
+      <c r="O80" s="4" t="n"/>
+      <c r="P80" s="4" t="n"/>
+      <c r="Q80" s="4" t="n"/>
+      <c r="R80" s="4" t="n"/>
+      <c r="S80" s="4" t="n"/>
+      <c r="T80" s="4" t="n"/>
+      <c r="U80" s="4" t="n"/>
+      <c r="V80" s="4" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="X80" s="4" t="n"/>
+      <c r="Y80" s="4" t="n"/>
+      <c r="Z80" s="4" t="n"/>
+      <c r="AA80" s="4" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AC80" s="4" t="n"/>
+      <c r="AD80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
+      <c r="G81" s="4" t="n"/>
+      <c r="H81" s="4" t="n"/>
+      <c r="I81" s="4" t="n"/>
+      <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="4" t="n"/>
+      <c r="N81" s="4" t="n"/>
+      <c r="O81" s="4" t="n"/>
+      <c r="P81" s="4" t="n"/>
+      <c r="Q81" s="4" t="n"/>
+      <c r="R81" s="4" t="n"/>
+      <c r="S81" s="4" t="n"/>
+      <c r="T81" s="4" t="n"/>
+      <c r="U81" s="4" t="n"/>
+      <c r="V81" s="4" t="n"/>
+      <c r="W81" s="4" t="n"/>
+      <c r="X81" s="4" t="n"/>
+      <c r="Y81" s="4" t="n"/>
+      <c r="Z81" s="4" t="n"/>
+      <c r="AA81" s="4" t="n"/>
+      <c r="AB81" s="4" t="n"/>
+      <c r="AC81" s="4" t="n"/>
+      <c r="AD81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
+      <c r="G82" s="4" t="n"/>
+      <c r="H82" s="4" t="n"/>
+      <c r="I82" s="4" t="n"/>
+      <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="4" t="n"/>
+      <c r="N82" s="4" t="n"/>
+      <c r="O82" s="4" t="n"/>
+      <c r="P82" s="4" t="n"/>
+      <c r="Q82" s="4" t="n"/>
+      <c r="R82" s="4" t="n"/>
+      <c r="S82" s="4" t="n"/>
+      <c r="T82" s="4" t="n"/>
+      <c r="U82" s="4" t="n"/>
+      <c r="V82" s="4" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="X82" s="4" t="n"/>
+      <c r="Y82" s="4" t="n"/>
+      <c r="Z82" s="4" t="n"/>
+      <c r="AA82" s="4" t="n"/>
+      <c r="AB82" s="4" t="n"/>
+      <c r="AC82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="4" t="n"/>
+      <c r="I83" s="4" t="n"/>
+      <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="4" t="n"/>
+      <c r="N83" s="4" t="n"/>
+      <c r="O83" s="4" t="n"/>
+      <c r="P83" s="4" t="n"/>
+      <c r="Q83" s="4" t="n"/>
+      <c r="R83" s="4" t="n"/>
+      <c r="S83" s="4" t="n"/>
+      <c r="T83" s="4" t="n"/>
+      <c r="U83" s="4" t="n"/>
+      <c r="V83" s="4" t="n"/>
+      <c r="W83" s="4" t="n"/>
+      <c r="X83" s="4" t="n"/>
+      <c r="Y83" s="4" t="n"/>
+      <c r="Z83" s="4" t="n"/>
+      <c r="AA83" s="4" t="n"/>
+      <c r="AB83" s="4" t="n"/>
+      <c r="AC83" s="4" t="n"/>
+      <c r="AD83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
+      <c r="T84" s="4" t="n"/>
+      <c r="U84" s="4" t="n"/>
+      <c r="V84" s="4" t="n"/>
+      <c r="W84" s="4" t="n"/>
+      <c r="X84" s="4" t="n"/>
+      <c r="Y84" s="4" t="n"/>
+      <c r="Z84" s="4" t="n"/>
+      <c r="AA84" s="4" t="n"/>
+      <c r="AB84" s="4" t="n"/>
+      <c r="AC84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n"/>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="4" t="n"/>
+      <c r="D85" s="4" t="n"/>
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="4" t="n"/>
+      <c r="G85" s="4" t="n"/>
+      <c r="H85" s="4" t="n"/>
+      <c r="I85" s="4" t="n"/>
+      <c r="J85" s="4" t="n"/>
+      <c r="K85" s="4" t="n"/>
+      <c r="L85" s="4" t="n"/>
+      <c r="M85" s="4" t="n"/>
+      <c r="N85" s="4" t="n"/>
+      <c r="O85" s="4" t="n"/>
+      <c r="P85" s="4" t="n"/>
+      <c r="Q85" s="4" t="n"/>
+      <c r="R85" s="4" t="n"/>
+      <c r="S85" s="4" t="n"/>
+      <c r="T85" s="4" t="n"/>
+      <c r="U85" s="4" t="n"/>
+      <c r="V85" s="4" t="n"/>
+      <c r="W85" s="4" t="n"/>
+      <c r="X85" s="4" t="n"/>
+      <c r="Y85" s="4" t="n"/>
+      <c r="Z85" s="4" t="n"/>
+      <c r="AA85" s="4" t="n"/>
+      <c r="AB85" s="4" t="n"/>
+      <c r="AC85" s="4" t="n"/>
+      <c r="AD85" s="4" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n"/>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="4" t="n"/>
+      <c r="D86" s="4" t="n"/>
+      <c r="E86" s="4" t="n"/>
+      <c r="F86" s="4" t="n"/>
+      <c r="G86" s="4" t="n"/>
+      <c r="H86" s="4" t="n"/>
+      <c r="I86" s="4" t="n"/>
+      <c r="J86" s="4" t="n"/>
+      <c r="K86" s="4" t="n"/>
+      <c r="L86" s="4" t="n"/>
+      <c r="M86" s="4" t="n"/>
+      <c r="N86" s="4" t="n"/>
+      <c r="O86" s="4" t="n"/>
+      <c r="P86" s="4" t="n"/>
+      <c r="Q86" s="4" t="n"/>
+      <c r="R86" s="4" t="n"/>
+      <c r="S86" s="4" t="n"/>
+      <c r="T86" s="4" t="n"/>
+      <c r="U86" s="4" t="n"/>
+      <c r="V86" s="4" t="n"/>
+      <c r="W86" s="4" t="n"/>
+      <c r="X86" s="4" t="n"/>
+      <c r="Y86" s="4" t="n"/>
+      <c r="Z86" s="4" t="n"/>
+      <c r="AA86" s="4" t="n"/>
+      <c r="AB86" s="4" t="n"/>
+      <c r="AC86" s="4" t="n"/>
+      <c r="AD86" s="4" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n"/>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="4" t="n"/>
+      <c r="D87" s="4" t="n"/>
+      <c r="E87" s="4" t="n"/>
+      <c r="F87" s="4" t="n"/>
+      <c r="G87" s="4" t="n"/>
+      <c r="H87" s="4" t="n"/>
+      <c r="I87" s="4" t="n"/>
+      <c r="J87" s="4" t="n"/>
+      <c r="K87" s="4" t="n"/>
+      <c r="L87" s="4" t="n"/>
+      <c r="M87" s="4" t="n"/>
+      <c r="N87" s="4" t="n"/>
+      <c r="O87" s="4" t="n"/>
+      <c r="P87" s="4" t="n"/>
+      <c r="Q87" s="4" t="n"/>
+      <c r="R87" s="4" t="n"/>
+      <c r="S87" s="4" t="n"/>
+      <c r="T87" s="4" t="n"/>
+      <c r="U87" s="4" t="n"/>
+      <c r="V87" s="4" t="n"/>
+      <c r="W87" s="4" t="n"/>
+      <c r="X87" s="4" t="n"/>
+      <c r="Y87" s="4" t="n"/>
+      <c r="Z87" s="4" t="n"/>
+      <c r="AA87" s="4" t="n"/>
+      <c r="AB87" s="4" t="n"/>
+      <c r="AC87" s="4" t="n"/>
+      <c r="AD87" s="4" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n"/>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="4" t="n"/>
+      <c r="D88" s="4" t="n"/>
+      <c r="E88" s="4" t="n"/>
+      <c r="F88" s="4" t="n"/>
+      <c r="G88" s="4" t="n"/>
+      <c r="H88" s="4" t="n"/>
+      <c r="I88" s="4" t="n"/>
+      <c r="J88" s="4" t="n"/>
+      <c r="K88" s="4" t="n"/>
+      <c r="L88" s="4" t="n"/>
+      <c r="M88" s="4" t="n"/>
+      <c r="N88" s="4" t="n"/>
+      <c r="O88" s="4" t="n"/>
+      <c r="P88" s="4" t="n"/>
+      <c r="Q88" s="4" t="n"/>
+      <c r="R88" s="4" t="n"/>
+      <c r="S88" s="4" t="n"/>
+      <c r="T88" s="4" t="n"/>
+      <c r="U88" s="4" t="n"/>
+      <c r="V88" s="4" t="n"/>
+      <c r="W88" s="4" t="n"/>
+      <c r="X88" s="4" t="n"/>
+      <c r="Y88" s="4" t="n"/>
+      <c r="Z88" s="4" t="n"/>
+      <c r="AA88" s="4" t="n"/>
+      <c r="AB88" s="4" t="n"/>
+      <c r="AC88" s="4" t="n"/>
+      <c r="AD88" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11609,7 +18009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12721,6 +19121,1606 @@
       <c r="AC34" s="4" t="n"/>
       <c r="AD34" s="4" t="n"/>
     </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="n"/>
+      <c r="C35" s="4" t="n"/>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="4" t="n"/>
+      <c r="F35" s="4" t="n"/>
+      <c r="G35" s="4" t="n"/>
+      <c r="H35" s="4" t="n"/>
+      <c r="I35" s="4" t="n"/>
+      <c r="J35" s="4" t="n"/>
+      <c r="K35" s="4" t="n"/>
+      <c r="L35" s="4" t="n"/>
+      <c r="M35" s="4" t="n"/>
+      <c r="N35" s="4" t="n"/>
+      <c r="O35" s="4" t="n"/>
+      <c r="P35" s="4" t="n"/>
+      <c r="Q35" s="4" t="n"/>
+      <c r="R35" s="4" t="n"/>
+      <c r="S35" s="4" t="n"/>
+      <c r="T35" s="4" t="n"/>
+      <c r="U35" s="4" t="n"/>
+      <c r="V35" s="4" t="n"/>
+      <c r="W35" s="4" t="n"/>
+      <c r="X35" s="4" t="n"/>
+      <c r="Y35" s="4" t="n"/>
+      <c r="Z35" s="4" t="n"/>
+      <c r="AA35" s="4" t="n"/>
+      <c r="AB35" s="4" t="n"/>
+      <c r="AC35" s="4" t="n"/>
+      <c r="AD35" s="4" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="4" t="n"/>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="4" t="n"/>
+      <c r="F36" s="4" t="n"/>
+      <c r="G36" s="4" t="n"/>
+      <c r="H36" s="4" t="n"/>
+      <c r="I36" s="4" t="n"/>
+      <c r="J36" s="4" t="n"/>
+      <c r="K36" s="4" t="n"/>
+      <c r="L36" s="4" t="n"/>
+      <c r="M36" s="4" t="n"/>
+      <c r="N36" s="4" t="n"/>
+      <c r="O36" s="4" t="n"/>
+      <c r="P36" s="4" t="n"/>
+      <c r="Q36" s="4" t="n"/>
+      <c r="R36" s="4" t="n"/>
+      <c r="S36" s="4" t="n"/>
+      <c r="T36" s="4" t="n"/>
+      <c r="U36" s="4" t="n"/>
+      <c r="V36" s="4" t="n"/>
+      <c r="W36" s="4" t="n"/>
+      <c r="X36" s="4" t="n"/>
+      <c r="Y36" s="4" t="n"/>
+      <c r="Z36" s="4" t="n"/>
+      <c r="AA36" s="4" t="n"/>
+      <c r="AB36" s="4" t="n"/>
+      <c r="AC36" s="4" t="n"/>
+      <c r="AD36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n"/>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="4" t="n"/>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="4" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="4" t="n"/>
+      <c r="H37" s="4" t="n"/>
+      <c r="I37" s="4" t="n"/>
+      <c r="J37" s="4" t="n"/>
+      <c r="K37" s="4" t="n"/>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="4" t="n"/>
+      <c r="N37" s="4" t="n"/>
+      <c r="O37" s="4" t="n"/>
+      <c r="P37" s="4" t="n"/>
+      <c r="Q37" s="4" t="n"/>
+      <c r="R37" s="4" t="n"/>
+      <c r="S37" s="4" t="n"/>
+      <c r="T37" s="4" t="n"/>
+      <c r="U37" s="4" t="n"/>
+      <c r="V37" s="4" t="n"/>
+      <c r="W37" s="4" t="n"/>
+      <c r="X37" s="4" t="n"/>
+      <c r="Y37" s="4" t="n"/>
+      <c r="Z37" s="4" t="n"/>
+      <c r="AA37" s="4" t="n"/>
+      <c r="AB37" s="4" t="n"/>
+      <c r="AC37" s="4" t="n"/>
+      <c r="AD37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="4" t="n"/>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="4" t="n"/>
+      <c r="G38" s="4" t="n"/>
+      <c r="H38" s="4" t="n"/>
+      <c r="I38" s="4" t="n"/>
+      <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
+      <c r="O38" s="4" t="n"/>
+      <c r="P38" s="4" t="n"/>
+      <c r="Q38" s="4" t="n"/>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="4" t="n"/>
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="4" t="n"/>
+      <c r="V38" s="4" t="n"/>
+      <c r="W38" s="4" t="n"/>
+      <c r="X38" s="4" t="n"/>
+      <c r="Y38" s="4" t="n"/>
+      <c r="Z38" s="4" t="n"/>
+      <c r="AA38" s="4" t="n"/>
+      <c r="AB38" s="4" t="n"/>
+      <c r="AC38" s="4" t="n"/>
+      <c r="AD38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="n"/>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="4" t="n"/>
+      <c r="Z39" s="4" t="n"/>
+      <c r="AA39" s="4" t="n"/>
+      <c r="AB39" s="4" t="n"/>
+      <c r="AC39" s="4" t="n"/>
+      <c r="AD39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
+      <c r="AB40" s="4" t="n"/>
+      <c r="AC40" s="4" t="n"/>
+      <c r="AD40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="n"/>
+      <c r="Q41" s="4" t="n"/>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n"/>
+      <c r="AA41" s="4" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AC41" s="4" t="n"/>
+      <c r="AD41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
+      <c r="O42" s="4" t="n"/>
+      <c r="P42" s="4" t="n"/>
+      <c r="Q42" s="4" t="n"/>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n"/>
+      <c r="AA42" s="4" t="n"/>
+      <c r="AB42" s="4" t="n"/>
+      <c r="AC42" s="4" t="n"/>
+      <c r="AD42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
+      <c r="O43" s="4" t="n"/>
+      <c r="P43" s="4" t="n"/>
+      <c r="Q43" s="4" t="n"/>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="n"/>
+      <c r="W43" s="4" t="n"/>
+      <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="4" t="n"/>
+      <c r="Z43" s="4" t="n"/>
+      <c r="AA43" s="4" t="n"/>
+      <c r="AB43" s="4" t="n"/>
+      <c r="AC43" s="4" t="n"/>
+      <c r="AD43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="4" t="n"/>
+      <c r="P44" s="4" t="n"/>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="4" t="n"/>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
+      <c r="H45" s="4" t="n"/>
+      <c r="I45" s="4" t="n"/>
+      <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+      <c r="S45" s="4" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="4" t="n"/>
+      <c r="V45" s="4" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
+      <c r="AA45" s="4" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AC45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
+      <c r="H46" s="4" t="n"/>
+      <c r="I46" s="4" t="n"/>
+      <c r="J46" s="4" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
+      <c r="O46" s="4" t="n"/>
+      <c r="P46" s="4" t="n"/>
+      <c r="Q46" s="4" t="n"/>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="4" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="4" t="n"/>
+      <c r="V46" s="4" t="n"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n"/>
+      <c r="AA46" s="4" t="n"/>
+      <c r="AB46" s="4" t="n"/>
+      <c r="AC46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
+      <c r="P47" s="4" t="n"/>
+      <c r="Q47" s="4" t="n"/>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="4" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n"/>
+      <c r="AA47" s="4" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AC47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="n"/>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
+      <c r="AB48" s="4" t="n"/>
+      <c r="AC48" s="4" t="n"/>
+      <c r="AD48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n"/>
+      <c r="AA49" s="4" t="n"/>
+      <c r="AB49" s="4" t="n"/>
+      <c r="AC49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="4" t="n"/>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="n"/>
+      <c r="Q50" s="4" t="n"/>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
+      <c r="AB50" s="4" t="n"/>
+      <c r="AC50" s="4" t="n"/>
+      <c r="AD50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="4" t="n"/>
+      <c r="I51" s="4" t="n"/>
+      <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
+      <c r="O51" s="4" t="n"/>
+      <c r="P51" s="4" t="n"/>
+      <c r="Q51" s="4" t="n"/>
+      <c r="R51" s="4" t="n"/>
+      <c r="S51" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
+      <c r="V51" s="4" t="n"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="n"/>
+      <c r="AA51" s="4" t="n"/>
+      <c r="AB51" s="4" t="n"/>
+      <c r="AC51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="4" t="n"/>
+      <c r="I52" s="4" t="n"/>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
+      <c r="O52" s="4" t="n"/>
+      <c r="P52" s="4" t="n"/>
+      <c r="Q52" s="4" t="n"/>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
+      <c r="AA52" s="4" t="n"/>
+      <c r="AB52" s="4" t="n"/>
+      <c r="AC52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
+      <c r="AA53" s="4" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AC53" s="4" t="n"/>
+      <c r="AD53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="n"/>
+      <c r="Q54" s="4" t="n"/>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="4" t="n"/>
+      <c r="Y54" s="4" t="n"/>
+      <c r="Z54" s="4" t="n"/>
+      <c r="AA54" s="4" t="n"/>
+      <c r="AB54" s="4" t="n"/>
+      <c r="AC54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+      <c r="O55" s="4" t="n"/>
+      <c r="P55" s="4" t="n"/>
+      <c r="Q55" s="4" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="4" t="n"/>
+      <c r="Y55" s="4" t="n"/>
+      <c r="Z55" s="4" t="n"/>
+      <c r="AA55" s="4" t="n"/>
+      <c r="AB55" s="4" t="n"/>
+      <c r="AC55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+      <c r="O56" s="4" t="n"/>
+      <c r="P56" s="4" t="n"/>
+      <c r="Q56" s="4" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="4" t="n"/>
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="4" t="n"/>
+      <c r="V56" s="4" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="X56" s="4" t="n"/>
+      <c r="Y56" s="4" t="n"/>
+      <c r="Z56" s="4" t="n"/>
+      <c r="AA56" s="4" t="n"/>
+      <c r="AB56" s="4" t="n"/>
+      <c r="AC56" s="4" t="n"/>
+      <c r="AD56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="n"/>
+      <c r="Q57" s="4" t="n"/>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="X57" s="4" t="n"/>
+      <c r="Y57" s="4" t="n"/>
+      <c r="Z57" s="4" t="n"/>
+      <c r="AA57" s="4" t="n"/>
+      <c r="AB57" s="4" t="n"/>
+      <c r="AC57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="n"/>
+      <c r="Q58" s="4" t="n"/>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="X58" s="4" t="n"/>
+      <c r="Y58" s="4" t="n"/>
+      <c r="Z58" s="4" t="n"/>
+      <c r="AA58" s="4" t="n"/>
+      <c r="AB58" s="4" t="n"/>
+      <c r="AC58" s="4" t="n"/>
+      <c r="AD58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="n"/>
+      <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
+      <c r="O59" s="4" t="n"/>
+      <c r="P59" s="4" t="n"/>
+      <c r="Q59" s="4" t="n"/>
+      <c r="R59" s="4" t="n"/>
+      <c r="S59" s="4" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="4" t="n"/>
+      <c r="V59" s="4" t="n"/>
+      <c r="W59" s="4" t="n"/>
+      <c r="X59" s="4" t="n"/>
+      <c r="Y59" s="4" t="n"/>
+      <c r="Z59" s="4" t="n"/>
+      <c r="AA59" s="4" t="n"/>
+      <c r="AB59" s="4" t="n"/>
+      <c r="AC59" s="4" t="n"/>
+      <c r="AD59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+      <c r="H60" s="4" t="n"/>
+      <c r="I60" s="4" t="n"/>
+      <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
+      <c r="O60" s="4" t="n"/>
+      <c r="P60" s="4" t="n"/>
+      <c r="Q60" s="4" t="n"/>
+      <c r="R60" s="4" t="n"/>
+      <c r="S60" s="4" t="n"/>
+      <c r="T60" s="4" t="n"/>
+      <c r="U60" s="4" t="n"/>
+      <c r="V60" s="4" t="n"/>
+      <c r="W60" s="4" t="n"/>
+      <c r="X60" s="4" t="n"/>
+      <c r="Y60" s="4" t="n"/>
+      <c r="Z60" s="4" t="n"/>
+      <c r="AA60" s="4" t="n"/>
+      <c r="AB60" s="4" t="n"/>
+      <c r="AC60" s="4" t="n"/>
+      <c r="AD60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="4" t="n"/>
+      <c r="G61" s="4" t="n"/>
+      <c r="H61" s="4" t="n"/>
+      <c r="I61" s="4" t="n"/>
+      <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
+      <c r="O61" s="4" t="n"/>
+      <c r="P61" s="4" t="n"/>
+      <c r="Q61" s="4" t="n"/>
+      <c r="R61" s="4" t="n"/>
+      <c r="S61" s="4" t="n"/>
+      <c r="T61" s="4" t="n"/>
+      <c r="U61" s="4" t="n"/>
+      <c r="V61" s="4" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="X61" s="4" t="n"/>
+      <c r="Y61" s="4" t="n"/>
+      <c r="Z61" s="4" t="n"/>
+      <c r="AA61" s="4" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AC61" s="4" t="n"/>
+      <c r="AD61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
+      <c r="G62" s="4" t="n"/>
+      <c r="H62" s="4" t="n"/>
+      <c r="I62" s="4" t="n"/>
+      <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
+      <c r="O62" s="4" t="n"/>
+      <c r="P62" s="4" t="n"/>
+      <c r="Q62" s="4" t="n"/>
+      <c r="R62" s="4" t="n"/>
+      <c r="S62" s="4" t="n"/>
+      <c r="T62" s="4" t="n"/>
+      <c r="U62" s="4" t="n"/>
+      <c r="V62" s="4" t="n"/>
+      <c r="W62" s="4" t="n"/>
+      <c r="X62" s="4" t="n"/>
+      <c r="Y62" s="4" t="n"/>
+      <c r="Z62" s="4" t="n"/>
+      <c r="AA62" s="4" t="n"/>
+      <c r="AB62" s="4" t="n"/>
+      <c r="AC62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
+      <c r="G63" s="4" t="n"/>
+      <c r="H63" s="4" t="n"/>
+      <c r="I63" s="4" t="n"/>
+      <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
+      <c r="O63" s="4" t="n"/>
+      <c r="P63" s="4" t="n"/>
+      <c r="Q63" s="4" t="n"/>
+      <c r="R63" s="4" t="n"/>
+      <c r="S63" s="4" t="n"/>
+      <c r="T63" s="4" t="n"/>
+      <c r="U63" s="4" t="n"/>
+      <c r="V63" s="4" t="n"/>
+      <c r="W63" s="4" t="n"/>
+      <c r="X63" s="4" t="n"/>
+      <c r="Y63" s="4" t="n"/>
+      <c r="Z63" s="4" t="n"/>
+      <c r="AA63" s="4" t="n"/>
+      <c r="AB63" s="4" t="n"/>
+      <c r="AC63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
+      <c r="G64" s="4" t="n"/>
+      <c r="H64" s="4" t="n"/>
+      <c r="I64" s="4" t="n"/>
+      <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
+      <c r="O64" s="4" t="n"/>
+      <c r="P64" s="4" t="n"/>
+      <c r="Q64" s="4" t="n"/>
+      <c r="R64" s="4" t="n"/>
+      <c r="S64" s="4" t="n"/>
+      <c r="T64" s="4" t="n"/>
+      <c r="U64" s="4" t="n"/>
+      <c r="V64" s="4" t="n"/>
+      <c r="W64" s="4" t="n"/>
+      <c r="X64" s="4" t="n"/>
+      <c r="Y64" s="4" t="n"/>
+      <c r="Z64" s="4" t="n"/>
+      <c r="AA64" s="4" t="n"/>
+      <c r="AB64" s="4" t="n"/>
+      <c r="AC64" s="4" t="n"/>
+      <c r="AD64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
+      <c r="G65" s="4" t="n"/>
+      <c r="H65" s="4" t="n"/>
+      <c r="I65" s="4" t="n"/>
+      <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
+      <c r="O65" s="4" t="n"/>
+      <c r="P65" s="4" t="n"/>
+      <c r="Q65" s="4" t="n"/>
+      <c r="R65" s="4" t="n"/>
+      <c r="S65" s="4" t="n"/>
+      <c r="T65" s="4" t="n"/>
+      <c r="U65" s="4" t="n"/>
+      <c r="V65" s="4" t="n"/>
+      <c r="W65" s="4" t="n"/>
+      <c r="X65" s="4" t="n"/>
+      <c r="Y65" s="4" t="n"/>
+      <c r="Z65" s="4" t="n"/>
+      <c r="AA65" s="4" t="n"/>
+      <c r="AB65" s="4" t="n"/>
+      <c r="AC65" s="4" t="n"/>
+      <c r="AD65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
+      <c r="G66" s="4" t="n"/>
+      <c r="H66" s="4" t="n"/>
+      <c r="I66" s="4" t="n"/>
+      <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
+      <c r="O66" s="4" t="n"/>
+      <c r="P66" s="4" t="n"/>
+      <c r="Q66" s="4" t="n"/>
+      <c r="R66" s="4" t="n"/>
+      <c r="S66" s="4" t="n"/>
+      <c r="T66" s="4" t="n"/>
+      <c r="U66" s="4" t="n"/>
+      <c r="V66" s="4" t="n"/>
+      <c r="W66" s="4" t="n"/>
+      <c r="X66" s="4" t="n"/>
+      <c r="Y66" s="4" t="n"/>
+      <c r="Z66" s="4" t="n"/>
+      <c r="AA66" s="4" t="n"/>
+      <c r="AB66" s="4" t="n"/>
+      <c r="AC66" s="4" t="n"/>
+      <c r="AD66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
+      <c r="G67" s="4" t="n"/>
+      <c r="H67" s="4" t="n"/>
+      <c r="I67" s="4" t="n"/>
+      <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="4" t="n"/>
+      <c r="N67" s="4" t="n"/>
+      <c r="O67" s="4" t="n"/>
+      <c r="P67" s="4" t="n"/>
+      <c r="Q67" s="4" t="n"/>
+      <c r="R67" s="4" t="n"/>
+      <c r="S67" s="4" t="n"/>
+      <c r="T67" s="4" t="n"/>
+      <c r="U67" s="4" t="n"/>
+      <c r="V67" s="4" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="X67" s="4" t="n"/>
+      <c r="Y67" s="4" t="n"/>
+      <c r="Z67" s="4" t="n"/>
+      <c r="AA67" s="4" t="n"/>
+      <c r="AB67" s="4" t="n"/>
+      <c r="AC67" s="4" t="n"/>
+      <c r="AD67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
+      <c r="G68" s="4" t="n"/>
+      <c r="H68" s="4" t="n"/>
+      <c r="I68" s="4" t="n"/>
+      <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="4" t="n"/>
+      <c r="N68" s="4" t="n"/>
+      <c r="O68" s="4" t="n"/>
+      <c r="P68" s="4" t="n"/>
+      <c r="Q68" s="4" t="n"/>
+      <c r="R68" s="4" t="n"/>
+      <c r="S68" s="4" t="n"/>
+      <c r="T68" s="4" t="n"/>
+      <c r="U68" s="4" t="n"/>
+      <c r="V68" s="4" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="X68" s="4" t="n"/>
+      <c r="Y68" s="4" t="n"/>
+      <c r="Z68" s="4" t="n"/>
+      <c r="AA68" s="4" t="n"/>
+      <c r="AB68" s="4" t="n"/>
+      <c r="AC68" s="4" t="n"/>
+      <c r="AD68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
+      <c r="G69" s="4" t="n"/>
+      <c r="H69" s="4" t="n"/>
+      <c r="I69" s="4" t="n"/>
+      <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="4" t="n"/>
+      <c r="N69" s="4" t="n"/>
+      <c r="O69" s="4" t="n"/>
+      <c r="P69" s="4" t="n"/>
+      <c r="Q69" s="4" t="n"/>
+      <c r="R69" s="4" t="n"/>
+      <c r="S69" s="4" t="n"/>
+      <c r="T69" s="4" t="n"/>
+      <c r="U69" s="4" t="n"/>
+      <c r="V69" s="4" t="n"/>
+      <c r="W69" s="4" t="n"/>
+      <c r="X69" s="4" t="n"/>
+      <c r="Y69" s="4" t="n"/>
+      <c r="Z69" s="4" t="n"/>
+      <c r="AA69" s="4" t="n"/>
+      <c r="AB69" s="4" t="n"/>
+      <c r="AC69" s="4" t="n"/>
+      <c r="AD69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
+      <c r="G70" s="4" t="n"/>
+      <c r="H70" s="4" t="n"/>
+      <c r="I70" s="4" t="n"/>
+      <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="4" t="n"/>
+      <c r="N70" s="4" t="n"/>
+      <c r="O70" s="4" t="n"/>
+      <c r="P70" s="4" t="n"/>
+      <c r="Q70" s="4" t="n"/>
+      <c r="R70" s="4" t="n"/>
+      <c r="S70" s="4" t="n"/>
+      <c r="T70" s="4" t="n"/>
+      <c r="U70" s="4" t="n"/>
+      <c r="V70" s="4" t="n"/>
+      <c r="W70" s="4" t="n"/>
+      <c r="X70" s="4" t="n"/>
+      <c r="Y70" s="4" t="n"/>
+      <c r="Z70" s="4" t="n"/>
+      <c r="AA70" s="4" t="n"/>
+      <c r="AB70" s="4" t="n"/>
+      <c r="AC70" s="4" t="n"/>
+      <c r="AD70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
+      <c r="G71" s="4" t="n"/>
+      <c r="H71" s="4" t="n"/>
+      <c r="I71" s="4" t="n"/>
+      <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="4" t="n"/>
+      <c r="N71" s="4" t="n"/>
+      <c r="O71" s="4" t="n"/>
+      <c r="P71" s="4" t="n"/>
+      <c r="Q71" s="4" t="n"/>
+      <c r="R71" s="4" t="n"/>
+      <c r="S71" s="4" t="n"/>
+      <c r="T71" s="4" t="n"/>
+      <c r="U71" s="4" t="n"/>
+      <c r="V71" s="4" t="n"/>
+      <c r="W71" s="4" t="n"/>
+      <c r="X71" s="4" t="n"/>
+      <c r="Y71" s="4" t="n"/>
+      <c r="Z71" s="4" t="n"/>
+      <c r="AA71" s="4" t="n"/>
+      <c r="AB71" s="4" t="n"/>
+      <c r="AC71" s="4" t="n"/>
+      <c r="AD71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="n"/>
+      <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
+      <c r="O72" s="4" t="n"/>
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="n"/>
+      <c r="R72" s="4" t="n"/>
+      <c r="S72" s="4" t="n"/>
+      <c r="T72" s="4" t="n"/>
+      <c r="U72" s="4" t="n"/>
+      <c r="V72" s="4" t="n"/>
+      <c r="W72" s="4" t="n"/>
+      <c r="X72" s="4" t="n"/>
+      <c r="Y72" s="4" t="n"/>
+      <c r="Z72" s="4" t="n"/>
+      <c r="AA72" s="4" t="n"/>
+      <c r="AB72" s="4" t="n"/>
+      <c r="AC72" s="4" t="n"/>
+      <c r="AD72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
+      <c r="G73" s="4" t="n"/>
+      <c r="H73" s="4" t="n"/>
+      <c r="I73" s="4" t="n"/>
+      <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="4" t="n"/>
+      <c r="N73" s="4" t="n"/>
+      <c r="O73" s="4" t="n"/>
+      <c r="P73" s="4" t="n"/>
+      <c r="Q73" s="4" t="n"/>
+      <c r="R73" s="4" t="n"/>
+      <c r="S73" s="4" t="n"/>
+      <c r="T73" s="4" t="n"/>
+      <c r="U73" s="4" t="n"/>
+      <c r="V73" s="4" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="X73" s="4" t="n"/>
+      <c r="Y73" s="4" t="n"/>
+      <c r="Z73" s="4" t="n"/>
+      <c r="AA73" s="4" t="n"/>
+      <c r="AB73" s="4" t="n"/>
+      <c r="AC73" s="4" t="n"/>
+      <c r="AD73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
+      <c r="G74" s="4" t="n"/>
+      <c r="H74" s="4" t="n"/>
+      <c r="I74" s="4" t="n"/>
+      <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="4" t="n"/>
+      <c r="N74" s="4" t="n"/>
+      <c r="O74" s="4" t="n"/>
+      <c r="P74" s="4" t="n"/>
+      <c r="Q74" s="4" t="n"/>
+      <c r="R74" s="4" t="n"/>
+      <c r="S74" s="4" t="n"/>
+      <c r="T74" s="4" t="n"/>
+      <c r="U74" s="4" t="n"/>
+      <c r="V74" s="4" t="n"/>
+      <c r="W74" s="4" t="n"/>
+      <c r="X74" s="4" t="n"/>
+      <c r="Y74" s="4" t="n"/>
+      <c r="Z74" s="4" t="n"/>
+      <c r="AA74" s="4" t="n"/>
+      <c r="AB74" s="4" t="n"/>
+      <c r="AC74" s="4" t="n"/>
+      <c r="AD74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
+      <c r="G75" s="4" t="n"/>
+      <c r="H75" s="4" t="n"/>
+      <c r="I75" s="4" t="n"/>
+      <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="4" t="n"/>
+      <c r="N75" s="4" t="n"/>
+      <c r="O75" s="4" t="n"/>
+      <c r="P75" s="4" t="n"/>
+      <c r="Q75" s="4" t="n"/>
+      <c r="R75" s="4" t="n"/>
+      <c r="S75" s="4" t="n"/>
+      <c r="T75" s="4" t="n"/>
+      <c r="U75" s="4" t="n"/>
+      <c r="V75" s="4" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="X75" s="4" t="n"/>
+      <c r="Y75" s="4" t="n"/>
+      <c r="Z75" s="4" t="n"/>
+      <c r="AA75" s="4" t="n"/>
+      <c r="AB75" s="4" t="n"/>
+      <c r="AC75" s="4" t="n"/>
+      <c r="AD75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
+      <c r="G76" s="4" t="n"/>
+      <c r="H76" s="4" t="n"/>
+      <c r="I76" s="4" t="n"/>
+      <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="4" t="n"/>
+      <c r="N76" s="4" t="n"/>
+      <c r="O76" s="4" t="n"/>
+      <c r="P76" s="4" t="n"/>
+      <c r="Q76" s="4" t="n"/>
+      <c r="R76" s="4" t="n"/>
+      <c r="S76" s="4" t="n"/>
+      <c r="T76" s="4" t="n"/>
+      <c r="U76" s="4" t="n"/>
+      <c r="V76" s="4" t="n"/>
+      <c r="W76" s="4" t="n"/>
+      <c r="X76" s="4" t="n"/>
+      <c r="Y76" s="4" t="n"/>
+      <c r="Z76" s="4" t="n"/>
+      <c r="AA76" s="4" t="n"/>
+      <c r="AB76" s="4" t="n"/>
+      <c r="AC76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="4" t="n"/>
+      <c r="I77" s="4" t="n"/>
+      <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
+      <c r="O77" s="4" t="n"/>
+      <c r="P77" s="4" t="n"/>
+      <c r="Q77" s="4" t="n"/>
+      <c r="R77" s="4" t="n"/>
+      <c r="S77" s="4" t="n"/>
+      <c r="T77" s="4" t="n"/>
+      <c r="U77" s="4" t="n"/>
+      <c r="V77" s="4" t="n"/>
+      <c r="W77" s="4" t="n"/>
+      <c r="X77" s="4" t="n"/>
+      <c r="Y77" s="4" t="n"/>
+      <c r="Z77" s="4" t="n"/>
+      <c r="AA77" s="4" t="n"/>
+      <c r="AB77" s="4" t="n"/>
+      <c r="AC77" s="4" t="n"/>
+      <c r="AD77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="4" t="n"/>
+      <c r="I78" s="4" t="n"/>
+      <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
+      <c r="O78" s="4" t="n"/>
+      <c r="P78" s="4" t="n"/>
+      <c r="Q78" s="4" t="n"/>
+      <c r="R78" s="4" t="n"/>
+      <c r="S78" s="4" t="n"/>
+      <c r="T78" s="4" t="n"/>
+      <c r="U78" s="4" t="n"/>
+      <c r="V78" s="4" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="X78" s="4" t="n"/>
+      <c r="Y78" s="4" t="n"/>
+      <c r="Z78" s="4" t="n"/>
+      <c r="AA78" s="4" t="n"/>
+      <c r="AB78" s="4" t="n"/>
+      <c r="AC78" s="4" t="n"/>
+      <c r="AD78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="4" t="n"/>
+      <c r="I79" s="4" t="n"/>
+      <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
+      <c r="O79" s="4" t="n"/>
+      <c r="P79" s="4" t="n"/>
+      <c r="Q79" s="4" t="n"/>
+      <c r="R79" s="4" t="n"/>
+      <c r="S79" s="4" t="n"/>
+      <c r="T79" s="4" t="n"/>
+      <c r="U79" s="4" t="n"/>
+      <c r="V79" s="4" t="n"/>
+      <c r="W79" s="4" t="n"/>
+      <c r="X79" s="4" t="n"/>
+      <c r="Y79" s="4" t="n"/>
+      <c r="Z79" s="4" t="n"/>
+      <c r="AA79" s="4" t="n"/>
+      <c r="AB79" s="4" t="n"/>
+      <c r="AC79" s="4" t="n"/>
+      <c r="AD79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="4" t="n"/>
+      <c r="I80" s="4" t="n"/>
+      <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
+      <c r="O80" s="4" t="n"/>
+      <c r="P80" s="4" t="n"/>
+      <c r="Q80" s="4" t="n"/>
+      <c r="R80" s="4" t="n"/>
+      <c r="S80" s="4" t="n"/>
+      <c r="T80" s="4" t="n"/>
+      <c r="U80" s="4" t="n"/>
+      <c r="V80" s="4" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="X80" s="4" t="n"/>
+      <c r="Y80" s="4" t="n"/>
+      <c r="Z80" s="4" t="n"/>
+      <c r="AA80" s="4" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AC80" s="4" t="n"/>
+      <c r="AD80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
+      <c r="G81" s="4" t="n"/>
+      <c r="H81" s="4" t="n"/>
+      <c r="I81" s="4" t="n"/>
+      <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="4" t="n"/>
+      <c r="N81" s="4" t="n"/>
+      <c r="O81" s="4" t="n"/>
+      <c r="P81" s="4" t="n"/>
+      <c r="Q81" s="4" t="n"/>
+      <c r="R81" s="4" t="n"/>
+      <c r="S81" s="4" t="n"/>
+      <c r="T81" s="4" t="n"/>
+      <c r="U81" s="4" t="n"/>
+      <c r="V81" s="4" t="n"/>
+      <c r="W81" s="4" t="n"/>
+      <c r="X81" s="4" t="n"/>
+      <c r="Y81" s="4" t="n"/>
+      <c r="Z81" s="4" t="n"/>
+      <c r="AA81" s="4" t="n"/>
+      <c r="AB81" s="4" t="n"/>
+      <c r="AC81" s="4" t="n"/>
+      <c r="AD81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
+      <c r="G82" s="4" t="n"/>
+      <c r="H82" s="4" t="n"/>
+      <c r="I82" s="4" t="n"/>
+      <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="4" t="n"/>
+      <c r="N82" s="4" t="n"/>
+      <c r="O82" s="4" t="n"/>
+      <c r="P82" s="4" t="n"/>
+      <c r="Q82" s="4" t="n"/>
+      <c r="R82" s="4" t="n"/>
+      <c r="S82" s="4" t="n"/>
+      <c r="T82" s="4" t="n"/>
+      <c r="U82" s="4" t="n"/>
+      <c r="V82" s="4" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="X82" s="4" t="n"/>
+      <c r="Y82" s="4" t="n"/>
+      <c r="Z82" s="4" t="n"/>
+      <c r="AA82" s="4" t="n"/>
+      <c r="AB82" s="4" t="n"/>
+      <c r="AC82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="4" t="n"/>
+      <c r="I83" s="4" t="n"/>
+      <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="4" t="n"/>
+      <c r="N83" s="4" t="n"/>
+      <c r="O83" s="4" t="n"/>
+      <c r="P83" s="4" t="n"/>
+      <c r="Q83" s="4" t="n"/>
+      <c r="R83" s="4" t="n"/>
+      <c r="S83" s="4" t="n"/>
+      <c r="T83" s="4" t="n"/>
+      <c r="U83" s="4" t="n"/>
+      <c r="V83" s="4" t="n"/>
+      <c r="W83" s="4" t="n"/>
+      <c r="X83" s="4" t="n"/>
+      <c r="Y83" s="4" t="n"/>
+      <c r="Z83" s="4" t="n"/>
+      <c r="AA83" s="4" t="n"/>
+      <c r="AB83" s="4" t="n"/>
+      <c r="AC83" s="4" t="n"/>
+      <c r="AD83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
+      <c r="T84" s="4" t="n"/>
+      <c r="U84" s="4" t="n"/>
+      <c r="V84" s="4" t="n"/>
+      <c r="W84" s="4" t="n"/>
+      <c r="X84" s="4" t="n"/>
+      <c r="Y84" s="4" t="n"/>
+      <c r="Z84" s="4" t="n"/>
+      <c r="AA84" s="4" t="n"/>
+      <c r="AB84" s="4" t="n"/>
+      <c r="AC84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
